--- a/4-childrens-series/hunger-games.xlsx
+++ b/4-childrens-series/hunger-games.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsayhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06A7DEF-193A-7A45-B64E-51C494CD6927}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{786464B7-A673-ED4E-AD4C-AFA1EC79B351}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="16840" windowHeight="16400" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="30640" yWindow="2500" windowWidth="20700" windowHeight="21180" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
   <si>
     <t>Published Date</t>
   </si>
@@ -39,7 +39,28 @@
     <t>Bestsellers Date</t>
   </si>
   <si>
-    <t>start with 43.json</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>First Opens: 2012-03-23</t>
+  </si>
+  <si>
+    <t>First Closes: 2012-09-06</t>
+  </si>
+  <si>
+    <t>Second Opens: 2013-11-22</t>
+  </si>
+  <si>
+    <t>Second Closes: 2013-04-03</t>
+  </si>
+  <si>
+    <t>Third Opens: 2014-11-21</t>
+  </si>
+  <si>
+    <t>Third Closes: 2015-03-19</t>
+  </si>
+  <si>
+    <t>Fourth Opens: 2015-11-20</t>
   </si>
 </sst>
 </file>
@@ -58,12 +79,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -78,11 +111,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,16 +434,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E2E8DD-A8F5-4740-B8E8-9F99CB838420}">
-  <dimension ref="A1:E256"/>
+  <dimension ref="A1:E278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1653,343 +1691,394 @@
         <v>40985</v>
       </c>
     </row>
-    <row r="84" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+    <row r="84" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
         <v>41007</v>
       </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3">
-        <v>10</v>
-      </c>
-      <c r="D84" s="2">
+      <c r="B84" s="5">
+        <v>1</v>
+      </c>
+      <c r="C84" s="5">
+        <v>10</v>
+      </c>
+      <c r="D84" s="4">
         <f t="shared" si="1"/>
         <v>40992</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="E84" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
         <v>41014</v>
       </c>
-      <c r="B85" s="3">
-        <v>1</v>
-      </c>
-      <c r="C85" s="3">
-        <v>10</v>
-      </c>
-      <c r="D85" s="2">
+      <c r="B85" s="7">
+        <v>1</v>
+      </c>
+      <c r="C85" s="7">
+        <v>10</v>
+      </c>
+      <c r="D85" s="6">
         <f t="shared" si="1"/>
         <v>40999</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+    <row r="86" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="6">
         <v>41021</v>
       </c>
-      <c r="B86" s="3">
-        <v>1</v>
-      </c>
-      <c r="C86" s="3">
-        <v>10</v>
-      </c>
-      <c r="D86" s="2">
+      <c r="B86" s="7">
+        <v>1</v>
+      </c>
+      <c r="C86" s="7">
+        <v>10</v>
+      </c>
+      <c r="D86" s="6">
         <f t="shared" si="1"/>
         <v>41006</v>
       </c>
     </row>
-    <row r="87" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+    <row r="87" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="6">
         <v>41028</v>
       </c>
-      <c r="B87" s="3">
-        <v>1</v>
-      </c>
-      <c r="C87" s="3">
-        <v>10</v>
-      </c>
-      <c r="D87" s="2">
+      <c r="B87" s="7">
+        <v>1</v>
+      </c>
+      <c r="C87" s="7">
+        <v>10</v>
+      </c>
+      <c r="D87" s="6">
         <f t="shared" si="1"/>
         <v>41013</v>
       </c>
     </row>
-    <row r="88" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+    <row r="88" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
         <v>41035</v>
       </c>
-      <c r="B88" s="3">
-        <v>1</v>
-      </c>
-      <c r="C88" s="3">
-        <v>10</v>
-      </c>
-      <c r="D88" s="2">
+      <c r="B88" s="7">
+        <v>1</v>
+      </c>
+      <c r="C88" s="7">
+        <v>10</v>
+      </c>
+      <c r="D88" s="6">
         <f t="shared" si="1"/>
         <v>41020</v>
       </c>
     </row>
-    <row r="89" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+    <row r="89" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6">
         <v>41042</v>
       </c>
-      <c r="B89" s="3">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3">
-        <v>10</v>
-      </c>
-      <c r="D89" s="2">
+      <c r="B89" s="7">
+        <v>1</v>
+      </c>
+      <c r="C89" s="7">
+        <v>10</v>
+      </c>
+      <c r="D89" s="6">
         <f t="shared" si="1"/>
         <v>41027</v>
       </c>
     </row>
-    <row r="90" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+    <row r="90" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6">
         <v>41049</v>
       </c>
-      <c r="B90" s="3">
-        <v>1</v>
-      </c>
-      <c r="C90" s="3">
-        <v>10</v>
-      </c>
-      <c r="D90" s="2">
+      <c r="B90" s="7">
+        <v>1</v>
+      </c>
+      <c r="C90" s="7">
+        <v>10</v>
+      </c>
+      <c r="D90" s="6">
         <f t="shared" ref="D90:D153" si="2">A90-15</f>
         <v>41034</v>
       </c>
     </row>
-    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+    <row r="91" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
         <v>41056</v>
       </c>
-      <c r="B91" s="3">
-        <v>1</v>
-      </c>
-      <c r="C91" s="3">
-        <v>10</v>
-      </c>
-      <c r="D91" s="2">
+      <c r="B91" s="7">
+        <v>1</v>
+      </c>
+      <c r="C91" s="7">
+        <v>10</v>
+      </c>
+      <c r="D91" s="6">
         <f t="shared" si="2"/>
         <v>41041</v>
       </c>
     </row>
-    <row r="92" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+    <row r="92" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6">
         <v>41063</v>
       </c>
-      <c r="B92" s="3">
-        <v>1</v>
-      </c>
-      <c r="C92" s="3">
-        <v>10</v>
-      </c>
-      <c r="D92" s="2">
+      <c r="B92" s="7">
+        <v>1</v>
+      </c>
+      <c r="C92" s="7">
+        <v>10</v>
+      </c>
+      <c r="D92" s="6">
         <f t="shared" si="2"/>
         <v>41048</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+    <row r="93" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6">
         <v>41070</v>
       </c>
-      <c r="B93" s="3">
-        <v>1</v>
-      </c>
-      <c r="C93" s="3">
-        <v>10</v>
-      </c>
-      <c r="D93" s="2">
+      <c r="B93" s="7">
+        <v>1</v>
+      </c>
+      <c r="C93" s="7">
+        <v>10</v>
+      </c>
+      <c r="D93" s="6">
         <f t="shared" si="2"/>
         <v>41055</v>
       </c>
     </row>
-    <row r="94" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+    <row r="94" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
         <v>41077</v>
       </c>
-      <c r="C94" s="3">
-        <v>10</v>
-      </c>
-      <c r="D94" s="2">
+      <c r="B94" s="7">
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
+        <v>10</v>
+      </c>
+      <c r="D94" s="6">
         <f t="shared" si="2"/>
         <v>41062</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+    </row>
+    <row r="95" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="6">
         <v>41084</v>
       </c>
-      <c r="C95" s="3">
-        <v>10</v>
-      </c>
-      <c r="D95" s="2">
+      <c r="B95" s="7">
+        <v>1</v>
+      </c>
+      <c r="C95" s="7">
+        <v>10</v>
+      </c>
+      <c r="D95" s="6">
         <f t="shared" si="2"/>
         <v>41069</v>
       </c>
     </row>
-    <row r="96" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+    <row r="96" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="6">
         <v>41091</v>
       </c>
-      <c r="C96" s="3">
-        <v>10</v>
-      </c>
-      <c r="D96" s="2">
+      <c r="B96" s="7">
+        <v>1</v>
+      </c>
+      <c r="C96" s="7">
+        <v>10</v>
+      </c>
+      <c r="D96" s="6">
         <f t="shared" si="2"/>
         <v>41076</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+    <row r="97" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="6">
         <v>41098</v>
       </c>
-      <c r="C97" s="3">
-        <v>10</v>
-      </c>
-      <c r="D97" s="2">
+      <c r="B97" s="7">
+        <v>1</v>
+      </c>
+      <c r="C97" s="7">
+        <v>10</v>
+      </c>
+      <c r="D97" s="6">
         <f t="shared" si="2"/>
         <v>41083</v>
       </c>
     </row>
-    <row r="98" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+    <row r="98" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="6">
         <v>41105</v>
       </c>
-      <c r="C98" s="3">
-        <v>10</v>
-      </c>
-      <c r="D98" s="2">
+      <c r="B98" s="7">
+        <v>1</v>
+      </c>
+      <c r="C98" s="7">
+        <v>10</v>
+      </c>
+      <c r="D98" s="6">
         <f t="shared" si="2"/>
         <v>41090</v>
       </c>
     </row>
-    <row r="99" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+    <row r="99" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="6">
         <v>41112</v>
       </c>
-      <c r="C99" s="3">
-        <v>10</v>
-      </c>
-      <c r="D99" s="2">
+      <c r="B99" s="7">
+        <v>1</v>
+      </c>
+      <c r="C99" s="7">
+        <v>10</v>
+      </c>
+      <c r="D99" s="6">
         <f t="shared" si="2"/>
         <v>41097</v>
       </c>
     </row>
-    <row r="100" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+    <row r="100" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="6">
         <v>41119</v>
       </c>
-      <c r="C100" s="3">
-        <v>10</v>
-      </c>
-      <c r="D100" s="2">
+      <c r="B100" s="7">
+        <v>1</v>
+      </c>
+      <c r="C100" s="7">
+        <v>10</v>
+      </c>
+      <c r="D100" s="6">
         <f t="shared" si="2"/>
         <v>41104</v>
       </c>
     </row>
-    <row r="101" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+    <row r="101" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="6">
         <v>41126</v>
       </c>
-      <c r="C101" s="3">
-        <v>10</v>
-      </c>
-      <c r="D101" s="2">
+      <c r="B101" s="7">
+        <v>1</v>
+      </c>
+      <c r="C101" s="7">
+        <v>10</v>
+      </c>
+      <c r="D101" s="6">
         <f t="shared" si="2"/>
         <v>41111</v>
       </c>
     </row>
-    <row r="102" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+    <row r="102" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="6">
         <v>41133</v>
       </c>
-      <c r="C102" s="3">
-        <v>10</v>
-      </c>
-      <c r="D102" s="2">
+      <c r="B102" s="7">
+        <v>1</v>
+      </c>
+      <c r="C102" s="7">
+        <v>10</v>
+      </c>
+      <c r="D102" s="6">
         <f t="shared" si="2"/>
         <v>41118</v>
       </c>
     </row>
-    <row r="103" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+    <row r="103" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="6">
         <v>41140</v>
       </c>
-      <c r="C103" s="3">
-        <v>10</v>
-      </c>
-      <c r="D103" s="2">
+      <c r="B103" s="7">
+        <v>1</v>
+      </c>
+      <c r="C103" s="7">
+        <v>10</v>
+      </c>
+      <c r="D103" s="6">
         <f t="shared" si="2"/>
         <v>41125</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+    <row r="104" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="6">
         <v>41147</v>
       </c>
-      <c r="C104" s="3">
-        <v>10</v>
-      </c>
-      <c r="D104" s="2">
+      <c r="B104" s="7">
+        <v>1</v>
+      </c>
+      <c r="C104" s="7">
+        <v>10</v>
+      </c>
+      <c r="D104" s="6">
         <f t="shared" si="2"/>
         <v>41132</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+    <row r="105" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="6">
         <v>41154</v>
       </c>
-      <c r="C105" s="3">
-        <v>10</v>
-      </c>
-      <c r="D105" s="2">
+      <c r="B105" s="7">
+        <v>1</v>
+      </c>
+      <c r="C105" s="7">
+        <v>10</v>
+      </c>
+      <c r="D105" s="6">
         <f t="shared" si="2"/>
         <v>41139</v>
       </c>
     </row>
-    <row r="106" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="2">
+    <row r="106" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="6">
         <v>41161</v>
       </c>
-      <c r="C106" s="3">
-        <v>10</v>
-      </c>
-      <c r="D106" s="2">
+      <c r="B106" s="7">
+        <v>1</v>
+      </c>
+      <c r="C106" s="7">
+        <v>10</v>
+      </c>
+      <c r="D106" s="6">
         <f t="shared" si="2"/>
         <v>41146</v>
       </c>
     </row>
-    <row r="107" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="2">
+    <row r="107" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="6">
         <v>41168</v>
       </c>
-      <c r="C107" s="3">
-        <v>10</v>
-      </c>
-      <c r="D107" s="2">
+      <c r="B107" s="7">
+        <v>1</v>
+      </c>
+      <c r="C107" s="7">
+        <v>10</v>
+      </c>
+      <c r="D107" s="6">
         <f t="shared" si="2"/>
         <v>41153</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="2">
+    <row r="108" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
         <v>41175</v>
       </c>
-      <c r="C108" s="3">
-        <v>10</v>
-      </c>
-      <c r="D108" s="2">
+      <c r="B108" s="5">
+        <v>1</v>
+      </c>
+      <c r="C108" s="5">
+        <v>10</v>
+      </c>
+      <c r="D108" s="4">
         <f t="shared" si="2"/>
         <v>41160</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>41182</v>
       </c>
+      <c r="B109" s="3">
+        <v>1</v>
+      </c>
       <c r="C109" s="3">
         <v>10</v>
       </c>
@@ -1998,10 +2087,13 @@
         <v>41167</v>
       </c>
     </row>
-    <row r="110" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>41189</v>
       </c>
+      <c r="B110" s="3">
+        <v>1</v>
+      </c>
       <c r="C110" s="3">
         <v>10</v>
       </c>
@@ -2010,10 +2102,13 @@
         <v>41174</v>
       </c>
     </row>
-    <row r="111" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>41196</v>
       </c>
+      <c r="B111" s="3">
+        <v>1</v>
+      </c>
       <c r="C111" s="3">
         <v>10</v>
       </c>
@@ -2022,9 +2117,12 @@
         <v>41181</v>
       </c>
     </row>
-    <row r="112" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>41203</v>
+      </c>
+      <c r="B112" s="3">
+        <v>2</v>
       </c>
       <c r="C112" s="3">
         <v>10</v>
@@ -2038,6 +2136,9 @@
       <c r="A113" s="2">
         <v>41210</v>
       </c>
+      <c r="B113" s="3">
+        <v>2</v>
+      </c>
       <c r="C113" s="3">
         <v>10</v>
       </c>
@@ -2050,6 +2151,9 @@
       <c r="A114" s="2">
         <v>41217</v>
       </c>
+      <c r="B114" s="3">
+        <v>2</v>
+      </c>
       <c r="C114" s="3">
         <v>10</v>
       </c>
@@ -2062,6 +2166,9 @@
       <c r="A115" s="2">
         <v>41224</v>
       </c>
+      <c r="B115" s="3">
+        <v>2</v>
+      </c>
       <c r="C115" s="3">
         <v>10</v>
       </c>
@@ -2074,6 +2181,9 @@
       <c r="A116" s="2">
         <v>41231</v>
       </c>
+      <c r="B116" s="3">
+        <v>2</v>
+      </c>
       <c r="C116" s="3">
         <v>10</v>
       </c>
@@ -2086,6 +2196,9 @@
       <c r="A117" s="2">
         <v>41238</v>
       </c>
+      <c r="B117" s="3">
+        <v>1</v>
+      </c>
       <c r="C117" s="3">
         <v>10</v>
       </c>
@@ -2098,6 +2211,9 @@
       <c r="A118" s="2">
         <v>41245</v>
       </c>
+      <c r="B118" s="3">
+        <v>4</v>
+      </c>
       <c r="C118" s="3">
         <v>10</v>
       </c>
@@ -2110,6 +2226,9 @@
       <c r="A119" s="2">
         <v>41252</v>
       </c>
+      <c r="B119" s="3">
+        <v>2</v>
+      </c>
       <c r="C119" s="3">
         <v>10</v>
       </c>
@@ -2122,6 +2241,9 @@
       <c r="A120" s="2">
         <v>41259</v>
       </c>
+      <c r="B120" s="3">
+        <v>2</v>
+      </c>
       <c r="C120" s="3">
         <v>10</v>
       </c>
@@ -2134,6 +2256,9 @@
       <c r="A121" s="2">
         <v>41266</v>
       </c>
+      <c r="B121" s="3">
+        <v>2</v>
+      </c>
       <c r="C121" s="3">
         <v>10</v>
       </c>
@@ -2146,6 +2271,9 @@
       <c r="A122" s="2">
         <v>41273</v>
       </c>
+      <c r="B122" s="3">
+        <v>2</v>
+      </c>
       <c r="C122" s="3">
         <v>10</v>
       </c>
@@ -2158,6 +2286,9 @@
       <c r="A123" s="2">
         <v>41280</v>
       </c>
+      <c r="B123" s="3">
+        <v>2</v>
+      </c>
       <c r="C123" s="3">
         <v>10</v>
       </c>
@@ -2170,6 +2301,9 @@
       <c r="A124" s="2">
         <v>41287</v>
       </c>
+      <c r="B124" s="3">
+        <v>2</v>
+      </c>
       <c r="C124" s="3">
         <v>10</v>
       </c>
@@ -2182,6 +2316,9 @@
       <c r="A125" s="2">
         <v>41294</v>
       </c>
+      <c r="B125" s="3">
+        <v>1</v>
+      </c>
       <c r="C125" s="3">
         <v>10</v>
       </c>
@@ -2194,6 +2331,9 @@
       <c r="A126" s="2">
         <v>41301</v>
       </c>
+      <c r="B126" s="3">
+        <v>1</v>
+      </c>
       <c r="C126" s="3">
         <v>10</v>
       </c>
@@ -2206,6 +2346,9 @@
       <c r="A127" s="2">
         <v>41308</v>
       </c>
+      <c r="B127" s="3">
+        <v>1</v>
+      </c>
       <c r="C127" s="3">
         <v>10</v>
       </c>
@@ -2218,6 +2361,9 @@
       <c r="A128" s="2">
         <v>41315</v>
       </c>
+      <c r="B128" s="3">
+        <v>1</v>
+      </c>
       <c r="C128" s="3">
         <v>10</v>
       </c>
@@ -2230,6 +2376,9 @@
       <c r="A129" s="2">
         <v>41322</v>
       </c>
+      <c r="B129" s="3">
+        <v>1</v>
+      </c>
       <c r="C129" s="3">
         <v>10</v>
       </c>
@@ -2242,6 +2391,9 @@
       <c r="A130" s="2">
         <v>41329</v>
       </c>
+      <c r="B130" s="3">
+        <v>2</v>
+      </c>
       <c r="C130" s="3">
         <v>10</v>
       </c>
@@ -2254,6 +2406,9 @@
       <c r="A131" s="2">
         <v>41336</v>
       </c>
+      <c r="B131" s="3">
+        <v>3</v>
+      </c>
       <c r="C131" s="3">
         <v>10</v>
       </c>
@@ -2266,6 +2421,9 @@
       <c r="A132" s="2">
         <v>41343</v>
       </c>
+      <c r="B132" s="3">
+        <v>2</v>
+      </c>
       <c r="C132" s="3">
         <v>10</v>
       </c>
@@ -2278,6 +2436,9 @@
       <c r="A133" s="2">
         <v>41350</v>
       </c>
+      <c r="B133" s="3">
+        <v>2</v>
+      </c>
       <c r="C133" s="3">
         <v>10</v>
       </c>
@@ -2290,6 +2451,9 @@
       <c r="A134" s="2">
         <v>41357</v>
       </c>
+      <c r="B134" s="3">
+        <v>1</v>
+      </c>
       <c r="C134" s="3">
         <v>10</v>
       </c>
@@ -2302,6 +2466,9 @@
       <c r="A135" s="2">
         <v>41364</v>
       </c>
+      <c r="B135" s="3">
+        <v>1</v>
+      </c>
       <c r="C135" s="3">
         <v>10</v>
       </c>
@@ -2314,6 +2481,9 @@
       <c r="A136" s="2">
         <v>41371</v>
       </c>
+      <c r="B136" s="3">
+        <v>2</v>
+      </c>
       <c r="C136">
         <v>10</v>
       </c>
@@ -2326,6 +2496,9 @@
       <c r="A137" s="2">
         <v>41378</v>
       </c>
+      <c r="B137" s="3">
+        <v>3</v>
+      </c>
       <c r="C137">
         <v>10</v>
       </c>
@@ -2338,6 +2511,9 @@
       <c r="A138" s="2">
         <v>41385</v>
       </c>
+      <c r="B138" s="3">
+        <v>1</v>
+      </c>
       <c r="C138">
         <v>10</v>
       </c>
@@ -2350,6 +2526,9 @@
       <c r="A139" s="2">
         <v>41392</v>
       </c>
+      <c r="B139" s="3">
+        <v>1</v>
+      </c>
       <c r="C139">
         <v>10</v>
       </c>
@@ -2362,6 +2541,9 @@
       <c r="A140" s="2">
         <v>41399</v>
       </c>
+      <c r="B140" s="3">
+        <v>1</v>
+      </c>
       <c r="C140">
         <v>10</v>
       </c>
@@ -2374,6 +2556,9 @@
       <c r="A141" s="2">
         <v>41406</v>
       </c>
+      <c r="B141" s="3">
+        <v>1</v>
+      </c>
       <c r="C141">
         <v>10</v>
       </c>
@@ -2386,6 +2571,9 @@
       <c r="A142" s="2">
         <v>41413</v>
       </c>
+      <c r="B142" s="3">
+        <v>1</v>
+      </c>
       <c r="C142">
         <v>10</v>
       </c>
@@ -2398,6 +2586,9 @@
       <c r="A143" s="2">
         <v>41420</v>
       </c>
+      <c r="B143" s="3">
+        <v>1</v>
+      </c>
       <c r="C143">
         <v>10</v>
       </c>
@@ -2410,6 +2601,9 @@
       <c r="A144" s="2">
         <v>41427</v>
       </c>
+      <c r="B144" s="3">
+        <v>1</v>
+      </c>
       <c r="C144">
         <v>10</v>
       </c>
@@ -2422,6 +2616,9 @@
       <c r="A145" s="2">
         <v>41434</v>
       </c>
+      <c r="B145" s="3">
+        <v>1</v>
+      </c>
       <c r="C145">
         <v>10</v>
       </c>
@@ -2434,6 +2631,9 @@
       <c r="A146" s="2">
         <v>41441</v>
       </c>
+      <c r="B146" s="3">
+        <v>1</v>
+      </c>
       <c r="C146">
         <v>10</v>
       </c>
@@ -2446,6 +2646,9 @@
       <c r="A147" s="2">
         <v>41448</v>
       </c>
+      <c r="B147" s="3">
+        <v>2</v>
+      </c>
       <c r="C147">
         <v>10</v>
       </c>
@@ -2458,6 +2661,9 @@
       <c r="A148" s="2">
         <v>41455</v>
       </c>
+      <c r="B148" s="3">
+        <v>1</v>
+      </c>
       <c r="C148">
         <v>10</v>
       </c>
@@ -2470,6 +2676,9 @@
       <c r="A149" s="2">
         <v>41462</v>
       </c>
+      <c r="B149" s="3">
+        <v>1</v>
+      </c>
       <c r="C149">
         <v>10</v>
       </c>
@@ -2482,6 +2691,9 @@
       <c r="A150" s="2">
         <v>41469</v>
       </c>
+      <c r="B150" s="3">
+        <v>2</v>
+      </c>
       <c r="C150">
         <v>10</v>
       </c>
@@ -2494,6 +2706,9 @@
       <c r="A151" s="2">
         <v>41476</v>
       </c>
+      <c r="B151" s="3">
+        <v>2</v>
+      </c>
       <c r="C151">
         <v>10</v>
       </c>
@@ -2506,6 +2721,9 @@
       <c r="A152" s="2">
         <v>41483</v>
       </c>
+      <c r="B152" s="3">
+        <v>2</v>
+      </c>
       <c r="C152">
         <v>10</v>
       </c>
@@ -2518,6 +2736,9 @@
       <c r="A153" s="2">
         <v>41490</v>
       </c>
+      <c r="B153" s="3">
+        <v>2</v>
+      </c>
       <c r="C153">
         <v>10</v>
       </c>
@@ -2530,6 +2751,9 @@
       <c r="A154" s="2">
         <v>41497</v>
       </c>
+      <c r="B154" s="3">
+        <v>2</v>
+      </c>
       <c r="C154">
         <v>10</v>
       </c>
@@ -2542,6 +2766,9 @@
       <c r="A155" s="2">
         <v>41504</v>
       </c>
+      <c r="B155" s="3">
+        <v>2</v>
+      </c>
       <c r="C155">
         <v>10</v>
       </c>
@@ -2554,6 +2781,9 @@
       <c r="A156" s="2">
         <v>41511</v>
       </c>
+      <c r="B156" s="3">
+        <v>3</v>
+      </c>
       <c r="C156">
         <v>10</v>
       </c>
@@ -2566,6 +2796,9 @@
       <c r="A157" s="2">
         <v>41518</v>
       </c>
+      <c r="B157" s="3">
+        <v>3</v>
+      </c>
       <c r="C157">
         <v>10</v>
       </c>
@@ -2578,6 +2811,9 @@
       <c r="A158" s="2">
         <v>41525</v>
       </c>
+      <c r="B158" s="3">
+        <v>3</v>
+      </c>
       <c r="C158">
         <v>10</v>
       </c>
@@ -2590,6 +2826,9 @@
       <c r="A159" s="2">
         <v>41532</v>
       </c>
+      <c r="B159" s="3">
+        <v>3</v>
+      </c>
       <c r="C159">
         <v>10</v>
       </c>
@@ -2602,6 +2841,9 @@
       <c r="A160" s="2">
         <v>41539</v>
       </c>
+      <c r="B160" s="3">
+        <v>2</v>
+      </c>
       <c r="C160">
         <v>10</v>
       </c>
@@ -2610,10 +2852,13 @@
         <v>41524</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>41546</v>
       </c>
+      <c r="B161" s="3">
+        <v>2</v>
+      </c>
       <c r="C161">
         <v>10</v>
       </c>
@@ -2622,10 +2867,13 @@
         <v>41531</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>41553</v>
       </c>
+      <c r="B162" s="3">
+        <v>3</v>
+      </c>
       <c r="C162">
         <v>10</v>
       </c>
@@ -2634,10 +2882,13 @@
         <v>41538</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>41560</v>
       </c>
+      <c r="B163" s="3">
+        <v>2</v>
+      </c>
       <c r="C163">
         <v>10</v>
       </c>
@@ -2646,10 +2897,13 @@
         <v>41545</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>41567</v>
       </c>
+      <c r="B164" s="3">
+        <v>2</v>
+      </c>
       <c r="C164">
         <v>10</v>
       </c>
@@ -2658,10 +2912,13 @@
         <v>41552</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>41574</v>
       </c>
+      <c r="B165" s="3">
+        <v>3</v>
+      </c>
       <c r="C165">
         <v>10</v>
       </c>
@@ -2670,10 +2927,13 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>41581</v>
       </c>
+      <c r="B166" s="3">
+        <v>3</v>
+      </c>
       <c r="C166">
         <v>10</v>
       </c>
@@ -2682,10 +2942,13 @@
         <v>41566</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>41588</v>
       </c>
+      <c r="B167" s="3">
+        <v>4</v>
+      </c>
       <c r="C167">
         <v>10</v>
       </c>
@@ -2694,10 +2957,13 @@
         <v>41573</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>41595</v>
       </c>
+      <c r="B168" s="3">
+        <v>3</v>
+      </c>
       <c r="C168">
         <v>10</v>
       </c>
@@ -2706,10 +2972,13 @@
         <v>41580</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>41602</v>
       </c>
+      <c r="B169" s="3">
+        <v>4</v>
+      </c>
       <c r="C169">
         <v>10</v>
       </c>
@@ -2718,10 +2987,13 @@
         <v>41587</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>41609</v>
       </c>
+      <c r="B170" s="3">
+        <v>3</v>
+      </c>
       <c r="C170">
         <v>10</v>
       </c>
@@ -2730,250 +3002,319 @@
         <v>41594</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="2">
+    <row r="171" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="4">
         <v>41616</v>
       </c>
-      <c r="C171">
-        <v>10</v>
-      </c>
-      <c r="D171" s="1">
+      <c r="B171" s="5">
+        <v>3</v>
+      </c>
+      <c r="C171" s="5">
+        <v>10</v>
+      </c>
+      <c r="D171" s="4">
         <f t="shared" si="3"/>
         <v>41601</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
+      <c r="E171" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
         <v>41623</v>
       </c>
-      <c r="C172">
-        <v>10</v>
-      </c>
-      <c r="D172" s="1">
+      <c r="B172" s="7">
+        <v>2</v>
+      </c>
+      <c r="C172" s="7">
+        <v>10</v>
+      </c>
+      <c r="D172" s="6">
         <f t="shared" si="3"/>
         <v>41608</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="2">
+    <row r="173" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="6">
         <v>41630</v>
       </c>
-      <c r="C173">
-        <v>10</v>
-      </c>
-      <c r="D173" s="1">
+      <c r="B173" s="7">
+        <v>3</v>
+      </c>
+      <c r="C173" s="7">
+        <v>10</v>
+      </c>
+      <c r="D173" s="6">
         <f t="shared" si="3"/>
         <v>41615</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="2">
+    <row r="174" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="6">
         <v>41637</v>
       </c>
-      <c r="C174">
-        <v>10</v>
-      </c>
-      <c r="D174" s="1">
+      <c r="B174" s="7">
+        <v>3</v>
+      </c>
+      <c r="C174" s="7">
+        <v>10</v>
+      </c>
+      <c r="D174" s="6">
         <f t="shared" si="3"/>
         <v>41622</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
+    <row r="175" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
         <v>41644</v>
       </c>
-      <c r="C175">
-        <v>10</v>
-      </c>
-      <c r="D175" s="1">
+      <c r="B175" s="7">
+        <v>3</v>
+      </c>
+      <c r="C175" s="7">
+        <v>10</v>
+      </c>
+      <c r="D175" s="6">
         <f t="shared" si="3"/>
         <v>41629</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="2">
+    <row r="176" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="6">
         <v>41651</v>
       </c>
-      <c r="C176">
-        <v>10</v>
-      </c>
-      <c r="D176" s="1">
+      <c r="B176" s="7">
+        <v>3</v>
+      </c>
+      <c r="C176" s="7">
+        <v>10</v>
+      </c>
+      <c r="D176" s="6">
         <f t="shared" si="3"/>
         <v>41636</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="2">
+    <row r="177" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="6">
         <v>41658</v>
       </c>
-      <c r="C177">
-        <v>10</v>
-      </c>
-      <c r="D177" s="1">
+      <c r="B177" s="7">
+        <v>2</v>
+      </c>
+      <c r="C177" s="7">
+        <v>10</v>
+      </c>
+      <c r="D177" s="6">
         <f t="shared" si="3"/>
         <v>41643</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
+    <row r="178" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6">
         <v>41665</v>
       </c>
-      <c r="C178">
-        <v>10</v>
-      </c>
-      <c r="D178" s="1">
+      <c r="B178" s="7">
+        <v>2</v>
+      </c>
+      <c r="C178" s="7">
+        <v>10</v>
+      </c>
+      <c r="D178" s="6">
         <f t="shared" si="3"/>
         <v>41650</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
+    <row r="179" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="6">
         <v>41672</v>
       </c>
-      <c r="C179">
-        <v>10</v>
-      </c>
-      <c r="D179" s="1">
+      <c r="B179" s="7">
+        <v>2</v>
+      </c>
+      <c r="C179" s="7">
+        <v>10</v>
+      </c>
+      <c r="D179" s="6">
         <f t="shared" si="3"/>
         <v>41657</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
+    <row r="180" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="6">
         <v>41679</v>
       </c>
-      <c r="C180">
-        <v>10</v>
-      </c>
-      <c r="D180" s="1">
+      <c r="B180" s="7">
+        <v>2</v>
+      </c>
+      <c r="C180" s="7">
+        <v>10</v>
+      </c>
+      <c r="D180" s="6">
         <f t="shared" si="3"/>
         <v>41664</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
+    <row r="181" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="6">
         <v>41686</v>
       </c>
-      <c r="C181">
-        <v>10</v>
-      </c>
-      <c r="D181" s="1">
+      <c r="B181" s="7">
+        <v>2</v>
+      </c>
+      <c r="C181" s="7">
+        <v>10</v>
+      </c>
+      <c r="D181" s="6">
         <f t="shared" si="3"/>
         <v>41671</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
+    <row r="182" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="6">
         <v>41693</v>
       </c>
-      <c r="C182">
-        <v>10</v>
-      </c>
-      <c r="D182" s="1">
+      <c r="B182" s="7">
+        <v>4</v>
+      </c>
+      <c r="C182" s="7">
+        <v>10</v>
+      </c>
+      <c r="D182" s="6">
         <f t="shared" si="3"/>
         <v>41678</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A183" s="2">
+    <row r="183" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="6">
         <v>41700</v>
       </c>
-      <c r="C183">
-        <v>10</v>
-      </c>
-      <c r="D183" s="1">
+      <c r="B183" s="7">
+        <v>4</v>
+      </c>
+      <c r="C183" s="7">
+        <v>10</v>
+      </c>
+      <c r="D183" s="6">
         <f t="shared" si="3"/>
         <v>41685</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
+    <row r="184" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="6">
         <v>41707</v>
       </c>
-      <c r="C184">
-        <v>10</v>
-      </c>
-      <c r="D184" s="1">
+      <c r="B184" s="7">
+        <v>5</v>
+      </c>
+      <c r="C184" s="7">
+        <v>10</v>
+      </c>
+      <c r="D184" s="6">
         <f t="shared" si="3"/>
         <v>41692</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A185" s="2">
+    <row r="185" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="6">
         <v>41714</v>
       </c>
-      <c r="C185">
-        <v>10</v>
-      </c>
-      <c r="D185" s="1">
+      <c r="B185" s="7">
+        <v>2</v>
+      </c>
+      <c r="C185" s="7">
+        <v>10</v>
+      </c>
+      <c r="D185" s="6">
         <f t="shared" si="3"/>
         <v>41699</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="2">
+    <row r="186" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="6">
         <v>41721</v>
       </c>
-      <c r="C186">
-        <v>10</v>
-      </c>
-      <c r="D186" s="1">
+      <c r="B186" s="7">
+        <v>2</v>
+      </c>
+      <c r="C186" s="7">
+        <v>10</v>
+      </c>
+      <c r="D186" s="6">
         <f t="shared" si="3"/>
         <v>41706</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
+    <row r="187" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="6">
         <v>41728</v>
       </c>
-      <c r="C187">
-        <v>10</v>
-      </c>
-      <c r="D187" s="1">
+      <c r="B187" s="7">
+        <v>2</v>
+      </c>
+      <c r="C187" s="7">
+        <v>10</v>
+      </c>
+      <c r="D187" s="6">
         <f t="shared" si="3"/>
         <v>41713</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A188" s="2">
+    <row r="188" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="6">
         <v>41735</v>
       </c>
-      <c r="C188">
-        <v>10</v>
-      </c>
-      <c r="D188" s="1">
+      <c r="B188" s="7">
+        <v>3</v>
+      </c>
+      <c r="C188" s="7">
+        <v>10</v>
+      </c>
+      <c r="D188" s="6">
         <f t="shared" si="3"/>
         <v>41720</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="2">
+    <row r="189" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="6">
         <v>41742</v>
       </c>
-      <c r="C189">
-        <v>10</v>
-      </c>
-      <c r="D189" s="1">
+      <c r="B189" s="7">
+        <v>3</v>
+      </c>
+      <c r="C189" s="7">
+        <v>10</v>
+      </c>
+      <c r="D189" s="6">
         <f t="shared" si="3"/>
         <v>41727</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
+    <row r="190" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="4">
         <v>41749</v>
       </c>
-      <c r="C190">
-        <v>10</v>
-      </c>
-      <c r="D190" s="1">
+      <c r="B190" s="5">
+        <v>3</v>
+      </c>
+      <c r="C190" s="5">
+        <v>10</v>
+      </c>
+      <c r="D190" s="4">
         <f t="shared" si="3"/>
         <v>41734</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E190" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>41756</v>
       </c>
+      <c r="B191" s="3">
+        <v>3</v>
+      </c>
       <c r="C191">
         <v>10</v>
       </c>
@@ -2982,9 +3323,12 @@
         <v>41741</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>41763</v>
+      </c>
+      <c r="B192" s="3">
+        <v>4</v>
       </c>
       <c r="C192">
         <v>10</v>
@@ -2998,6 +3342,9 @@
       <c r="A193" s="2">
         <v>41770</v>
       </c>
+      <c r="B193" s="3">
+        <v>5</v>
+      </c>
       <c r="C193">
         <v>10</v>
       </c>
@@ -3010,6 +3357,9 @@
       <c r="A194" s="2">
         <v>41777</v>
       </c>
+      <c r="B194" s="3">
+        <v>4</v>
+      </c>
       <c r="C194">
         <v>10</v>
       </c>
@@ -3022,6 +3372,9 @@
       <c r="A195" s="2">
         <v>41784</v>
       </c>
+      <c r="B195" s="3">
+        <v>6</v>
+      </c>
       <c r="C195">
         <v>10</v>
       </c>
@@ -3034,6 +3387,9 @@
       <c r="A196" s="2">
         <v>41791</v>
       </c>
+      <c r="B196" s="3">
+        <v>5</v>
+      </c>
       <c r="C196">
         <v>10</v>
       </c>
@@ -3046,6 +3402,9 @@
       <c r="A197" s="2">
         <v>41798</v>
       </c>
+      <c r="B197" s="3">
+        <v>6</v>
+      </c>
       <c r="C197">
         <v>10</v>
       </c>
@@ -3058,6 +3417,9 @@
       <c r="A198" s="2">
         <v>41805</v>
       </c>
+      <c r="B198" s="3">
+        <v>7</v>
+      </c>
       <c r="C198">
         <v>10</v>
       </c>
@@ -3070,6 +3432,9 @@
       <c r="A199" s="2">
         <v>41812</v>
       </c>
+      <c r="B199" s="3">
+        <v>10</v>
+      </c>
       <c r="C199">
         <v>10</v>
       </c>
@@ -3082,6 +3447,9 @@
       <c r="A200" s="2">
         <v>41819</v>
       </c>
+      <c r="B200" s="3">
+        <v>8</v>
+      </c>
       <c r="C200">
         <v>10</v>
       </c>
@@ -3094,6 +3462,9 @@
       <c r="A201" s="2">
         <v>41826</v>
       </c>
+      <c r="B201" s="3">
+        <v>9</v>
+      </c>
       <c r="C201">
         <v>10</v>
       </c>
@@ -3106,6 +3477,9 @@
       <c r="A202" s="2">
         <v>41833</v>
       </c>
+      <c r="B202" s="3">
+        <v>9</v>
+      </c>
       <c r="C202">
         <v>10</v>
       </c>
@@ -3118,6 +3492,9 @@
       <c r="A203" s="2">
         <v>41840</v>
       </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
       <c r="C203">
         <v>10</v>
       </c>
@@ -3130,6 +3507,9 @@
       <c r="A204" s="2">
         <v>41847</v>
       </c>
+      <c r="B204" t="s">
+        <v>4</v>
+      </c>
       <c r="C204">
         <v>10</v>
       </c>
@@ -3142,6 +3522,9 @@
       <c r="A205" s="2">
         <v>41854</v>
       </c>
+      <c r="B205">
+        <v>9</v>
+      </c>
       <c r="C205">
         <v>10</v>
       </c>
@@ -3154,6 +3537,9 @@
       <c r="A206" s="2">
         <v>41861</v>
       </c>
+      <c r="B206">
+        <v>10</v>
+      </c>
       <c r="C206">
         <v>10</v>
       </c>
@@ -3166,6 +3552,9 @@
       <c r="A207" s="2">
         <v>41868</v>
       </c>
+      <c r="B207">
+        <v>5</v>
+      </c>
       <c r="C207">
         <v>10</v>
       </c>
@@ -3178,6 +3567,9 @@
       <c r="A208" s="2">
         <v>41875</v>
       </c>
+      <c r="B208">
+        <v>9</v>
+      </c>
       <c r="C208">
         <v>10</v>
       </c>
@@ -3186,10 +3578,13 @@
         <v>41860</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>41882</v>
       </c>
+      <c r="B209">
+        <v>9</v>
+      </c>
       <c r="C209">
         <v>10</v>
       </c>
@@ -3198,10 +3593,13 @@
         <v>41867</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>41889</v>
       </c>
+      <c r="B210">
+        <v>9</v>
+      </c>
       <c r="C210">
         <v>10</v>
       </c>
@@ -3210,10 +3608,13 @@
         <v>41874</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>41896</v>
       </c>
+      <c r="B211" t="s">
+        <v>4</v>
+      </c>
       <c r="C211">
         <v>10</v>
       </c>
@@ -3222,10 +3623,13 @@
         <v>41881</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>41903</v>
       </c>
+      <c r="B212" t="s">
+        <v>4</v>
+      </c>
       <c r="C212">
         <v>10</v>
       </c>
@@ -3234,10 +3638,13 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>41910</v>
       </c>
+      <c r="B213" t="s">
+        <v>4</v>
+      </c>
       <c r="C213">
         <v>10</v>
       </c>
@@ -3246,10 +3653,13 @@
         <v>41895</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>41917</v>
       </c>
+      <c r="B214">
+        <v>10</v>
+      </c>
       <c r="C214">
         <v>10</v>
       </c>
@@ -3258,10 +3668,13 @@
         <v>41902</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>41924</v>
       </c>
+      <c r="B215" t="s">
+        <v>4</v>
+      </c>
       <c r="C215">
         <v>10</v>
       </c>
@@ -3270,10 +3683,13 @@
         <v>41909</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>41931</v>
       </c>
+      <c r="B216" t="s">
+        <v>4</v>
+      </c>
       <c r="C216">
         <v>10</v>
       </c>
@@ -3282,10 +3698,13 @@
         <v>41916</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>41938</v>
       </c>
+      <c r="B217">
+        <v>8</v>
+      </c>
       <c r="C217">
         <v>10</v>
       </c>
@@ -3294,22 +3713,28 @@
         <v>41923</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>41945</v>
       </c>
+      <c r="B218" t="s">
+        <v>4</v>
+      </c>
       <c r="C218">
         <v>10</v>
       </c>
       <c r="D218" s="1">
-        <f t="shared" ref="D218:D255" si="4">A218-15</f>
+        <f t="shared" ref="D218:D277" si="4">A218-15</f>
         <v>41930</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>41952</v>
       </c>
+      <c r="B219" t="s">
+        <v>4</v>
+      </c>
       <c r="C219">
         <v>10</v>
       </c>
@@ -3318,10 +3743,13 @@
         <v>41937</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>41959</v>
       </c>
+      <c r="B220">
+        <v>10</v>
+      </c>
       <c r="C220">
         <v>10</v>
       </c>
@@ -3330,10 +3758,13 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>41966</v>
       </c>
+      <c r="B221">
+        <v>8</v>
+      </c>
       <c r="C221">
         <v>10</v>
       </c>
@@ -3342,10 +3773,13 @@
         <v>41951</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>41973</v>
       </c>
+      <c r="B222">
+        <v>8</v>
+      </c>
       <c r="C222">
         <v>10</v>
       </c>
@@ -3354,226 +3788,289 @@
         <v>41958</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
+    <row r="223" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="4">
         <v>41980</v>
       </c>
-      <c r="C223">
-        <v>10</v>
-      </c>
-      <c r="D223" s="1">
+      <c r="B223" s="5">
+        <v>6</v>
+      </c>
+      <c r="C223" s="5">
+        <v>10</v>
+      </c>
+      <c r="D223" s="4">
         <f t="shared" si="4"/>
         <v>41965</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A224" s="2">
+      <c r="E223" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="6">
         <v>41987</v>
       </c>
-      <c r="C224">
-        <v>10</v>
-      </c>
-      <c r="D224" s="1">
+      <c r="B224" s="7">
+        <v>5</v>
+      </c>
+      <c r="C224" s="7">
+        <v>10</v>
+      </c>
+      <c r="D224" s="6">
         <f t="shared" si="4"/>
         <v>41972</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A225" s="2">
+    <row r="225" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="6">
         <v>41994</v>
       </c>
-      <c r="C225">
-        <v>10</v>
-      </c>
-      <c r="D225" s="1">
+      <c r="B225" s="7">
+        <v>6</v>
+      </c>
+      <c r="C225" s="7">
+        <v>10</v>
+      </c>
+      <c r="D225" s="6">
         <f t="shared" si="4"/>
         <v>41979</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A226" s="2">
+    <row r="226" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="6">
         <v>42001</v>
       </c>
-      <c r="C226">
-        <v>10</v>
-      </c>
-      <c r="D226" s="1">
+      <c r="B226" s="7">
+        <v>6</v>
+      </c>
+      <c r="C226" s="7">
+        <v>10</v>
+      </c>
+      <c r="D226" s="6">
         <f t="shared" si="4"/>
         <v>41986</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A227" s="2">
+    <row r="227" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="6">
         <v>42008</v>
       </c>
-      <c r="C227">
-        <v>10</v>
-      </c>
-      <c r="D227" s="1">
+      <c r="B227" s="7">
+        <v>6</v>
+      </c>
+      <c r="C227" s="7">
+        <v>10</v>
+      </c>
+      <c r="D227" s="6">
         <f t="shared" si="4"/>
         <v>41993</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A228" s="2">
+    <row r="228" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="6">
         <v>42015</v>
       </c>
-      <c r="C228">
-        <v>10</v>
-      </c>
-      <c r="D228" s="1">
+      <c r="B228" s="7">
+        <v>6</v>
+      </c>
+      <c r="C228" s="7">
+        <v>10</v>
+      </c>
+      <c r="D228" s="6">
         <f t="shared" si="4"/>
         <v>42000</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A229" s="2">
+    <row r="229" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="6">
         <v>42022</v>
       </c>
-      <c r="C229">
-        <v>10</v>
-      </c>
-      <c r="D229" s="1">
+      <c r="B229" s="7">
+        <v>6</v>
+      </c>
+      <c r="C229" s="7">
+        <v>10</v>
+      </c>
+      <c r="D229" s="6">
         <f t="shared" si="4"/>
         <v>42007</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A230" s="2">
+    <row r="230" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="6">
         <v>42029</v>
       </c>
-      <c r="C230">
-        <v>10</v>
-      </c>
-      <c r="D230" s="1">
+      <c r="B230" s="7">
+        <v>5</v>
+      </c>
+      <c r="C230" s="7">
+        <v>10</v>
+      </c>
+      <c r="D230" s="6">
         <f t="shared" si="4"/>
         <v>42014</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A231" s="2">
+    <row r="231" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="6">
         <v>42036</v>
       </c>
-      <c r="C231">
-        <v>10</v>
-      </c>
-      <c r="D231" s="1">
+      <c r="B231" s="7">
+        <v>7</v>
+      </c>
+      <c r="C231" s="7">
+        <v>10</v>
+      </c>
+      <c r="D231" s="6">
         <f t="shared" si="4"/>
         <v>42021</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A232" s="2">
+    <row r="232" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="6">
         <v>42043</v>
       </c>
-      <c r="C232">
-        <v>10</v>
-      </c>
-      <c r="D232" s="1">
+      <c r="B232" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C232" s="7">
+        <v>10</v>
+      </c>
+      <c r="D232" s="6">
         <f t="shared" si="4"/>
         <v>42028</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A233" s="2">
+    <row r="233" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="6">
         <v>42050</v>
       </c>
-      <c r="C233">
-        <v>10</v>
-      </c>
-      <c r="D233" s="1">
+      <c r="B233" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="7">
+        <v>10</v>
+      </c>
+      <c r="D233" s="6">
         <f t="shared" si="4"/>
         <v>42035</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="2">
+    <row r="234" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="6">
         <v>42057</v>
       </c>
-      <c r="C234">
-        <v>10</v>
-      </c>
-      <c r="D234" s="1">
+      <c r="B234" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C234" s="7">
+        <v>10</v>
+      </c>
+      <c r="D234" s="6">
         <f t="shared" si="4"/>
         <v>42042</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="2">
+    <row r="235" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="6">
         <v>42064</v>
       </c>
-      <c r="C235">
-        <v>10</v>
-      </c>
-      <c r="D235" s="1">
+      <c r="B235" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C235" s="7">
+        <v>10</v>
+      </c>
+      <c r="D235" s="6">
         <f t="shared" si="4"/>
         <v>42049</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="2">
+    <row r="236" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="6">
         <v>42071</v>
       </c>
-      <c r="C236">
-        <v>10</v>
-      </c>
-      <c r="D236" s="1">
+      <c r="B236" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C236" s="7">
+        <v>10</v>
+      </c>
+      <c r="D236" s="6">
         <f t="shared" si="4"/>
         <v>42056</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="2">
+    <row r="237" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="6">
         <v>42078</v>
       </c>
-      <c r="C237">
-        <v>10</v>
-      </c>
-      <c r="D237" s="1">
+      <c r="B237" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C237" s="7">
+        <v>10</v>
+      </c>
+      <c r="D237" s="6">
         <f t="shared" si="4"/>
         <v>42063</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="2">
+    <row r="238" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="6">
         <v>42085</v>
       </c>
-      <c r="C238">
-        <v>10</v>
-      </c>
-      <c r="D238" s="1">
+      <c r="B238" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C238" s="7">
+        <v>10</v>
+      </c>
+      <c r="D238" s="6">
         <f t="shared" si="4"/>
         <v>42070</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="2">
+    <row r="239" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="6">
         <v>42092</v>
       </c>
-      <c r="C239">
-        <v>10</v>
-      </c>
-      <c r="D239" s="1">
+      <c r="B239" s="7">
+        <v>7</v>
+      </c>
+      <c r="C239" s="7">
+        <v>10</v>
+      </c>
+      <c r="D239" s="6">
         <f t="shared" si="4"/>
         <v>42077</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="2">
+    <row r="240" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="4">
         <v>42099</v>
       </c>
-      <c r="C240">
-        <v>10</v>
-      </c>
-      <c r="D240" s="1">
+      <c r="B240" s="5">
+        <v>8</v>
+      </c>
+      <c r="C240" s="5">
+        <v>10</v>
+      </c>
+      <c r="D240" s="4">
         <f t="shared" si="4"/>
         <v>42084</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>42106</v>
       </c>
+      <c r="B241">
+        <v>9</v>
+      </c>
       <c r="C241">
         <v>10</v>
       </c>
@@ -3586,6 +4083,9 @@
       <c r="A242" s="2">
         <v>42113</v>
       </c>
+      <c r="B242" t="s">
+        <v>4</v>
+      </c>
       <c r="C242">
         <v>10</v>
       </c>
@@ -3598,6 +4098,9 @@
       <c r="A243" s="2">
         <v>42120</v>
       </c>
+      <c r="B243" t="s">
+        <v>4</v>
+      </c>
       <c r="C243">
         <v>10</v>
       </c>
@@ -3610,6 +4113,9 @@
       <c r="A244" s="2">
         <v>42127</v>
       </c>
+      <c r="B244" t="s">
+        <v>4</v>
+      </c>
       <c r="C244">
         <v>10</v>
       </c>
@@ -3622,6 +4128,9 @@
       <c r="A245" s="2">
         <v>42134</v>
       </c>
+      <c r="B245" t="s">
+        <v>4</v>
+      </c>
       <c r="C245">
         <v>10</v>
       </c>
@@ -3634,6 +4143,9 @@
       <c r="A246" s="2">
         <v>42141</v>
       </c>
+      <c r="B246" t="s">
+        <v>4</v>
+      </c>
       <c r="C246">
         <v>10</v>
       </c>
@@ -3646,6 +4158,9 @@
       <c r="A247" s="2">
         <v>42148</v>
       </c>
+      <c r="B247" t="s">
+        <v>4</v>
+      </c>
       <c r="C247">
         <v>10</v>
       </c>
@@ -3658,6 +4173,9 @@
       <c r="A248" s="2">
         <v>42155</v>
       </c>
+      <c r="B248" t="s">
+        <v>4</v>
+      </c>
       <c r="C248">
         <v>10</v>
       </c>
@@ -3670,6 +4188,9 @@
       <c r="A249" s="2">
         <v>42162</v>
       </c>
+      <c r="B249" t="s">
+        <v>4</v>
+      </c>
       <c r="C249">
         <v>10</v>
       </c>
@@ -3682,6 +4203,9 @@
       <c r="A250" s="2">
         <v>42169</v>
       </c>
+      <c r="B250" t="s">
+        <v>4</v>
+      </c>
       <c r="C250">
         <v>10</v>
       </c>
@@ -3694,6 +4218,9 @@
       <c r="A251" s="2">
         <v>42176</v>
       </c>
+      <c r="B251" t="s">
+        <v>4</v>
+      </c>
       <c r="C251">
         <v>10</v>
       </c>
@@ -3706,6 +4233,9 @@
       <c r="A252" s="2">
         <v>42183</v>
       </c>
+      <c r="B252" t="s">
+        <v>4</v>
+      </c>
       <c r="C252">
         <v>10</v>
       </c>
@@ -3718,6 +4248,9 @@
       <c r="A253" s="2">
         <v>42190</v>
       </c>
+      <c r="B253" t="s">
+        <v>4</v>
+      </c>
       <c r="C253">
         <v>10</v>
       </c>
@@ -3730,6 +4263,9 @@
       <c r="A254" s="2">
         <v>42197</v>
       </c>
+      <c r="B254" t="s">
+        <v>4</v>
+      </c>
       <c r="C254">
         <v>10</v>
       </c>
@@ -3742,6 +4278,9 @@
       <c r="A255" s="2">
         <v>42204</v>
       </c>
+      <c r="B255" t="s">
+        <v>4</v>
+      </c>
       <c r="C255">
         <v>10</v>
       </c>
@@ -3751,7 +4290,340 @@
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A256" s="2"/>
+      <c r="A256" s="2">
+        <v>42211</v>
+      </c>
+      <c r="B256" t="s">
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <v>10</v>
+      </c>
+      <c r="D256" s="1">
+        <f t="shared" si="4"/>
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>42218</v>
+      </c>
+      <c r="B257" t="s">
+        <v>4</v>
+      </c>
+      <c r="C257">
+        <v>10</v>
+      </c>
+      <c r="D257" s="1">
+        <f t="shared" si="4"/>
+        <v>42203</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>42225</v>
+      </c>
+      <c r="B258" t="s">
+        <v>4</v>
+      </c>
+      <c r="C258">
+        <v>10</v>
+      </c>
+      <c r="D258" s="1">
+        <f t="shared" si="4"/>
+        <v>42210</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>42232</v>
+      </c>
+      <c r="B259" t="s">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>10</v>
+      </c>
+      <c r="D259" s="1">
+        <f t="shared" si="4"/>
+        <v>42217</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>42239</v>
+      </c>
+      <c r="B260" t="s">
+        <v>4</v>
+      </c>
+      <c r="C260">
+        <v>10</v>
+      </c>
+      <c r="D260" s="1">
+        <f t="shared" si="4"/>
+        <v>42224</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>42246</v>
+      </c>
+      <c r="B261" t="s">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>10</v>
+      </c>
+      <c r="D261" s="1">
+        <f t="shared" si="4"/>
+        <v>42231</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>42253</v>
+      </c>
+      <c r="B262" t="s">
+        <v>4</v>
+      </c>
+      <c r="C262">
+        <v>10</v>
+      </c>
+      <c r="D262" s="1">
+        <f t="shared" si="4"/>
+        <v>42238</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>42260</v>
+      </c>
+      <c r="B263" t="s">
+        <v>4</v>
+      </c>
+      <c r="C263">
+        <v>10</v>
+      </c>
+      <c r="D263" s="1">
+        <f t="shared" si="4"/>
+        <v>42245</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>42267</v>
+      </c>
+      <c r="B264" t="s">
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>10</v>
+      </c>
+      <c r="D264" s="1">
+        <f t="shared" si="4"/>
+        <v>42252</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>42274</v>
+      </c>
+      <c r="B265" t="s">
+        <v>4</v>
+      </c>
+      <c r="C265">
+        <v>10</v>
+      </c>
+      <c r="D265" s="1">
+        <f t="shared" si="4"/>
+        <v>42259</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>42281</v>
+      </c>
+      <c r="B266" t="s">
+        <v>4</v>
+      </c>
+      <c r="C266">
+        <v>10</v>
+      </c>
+      <c r="D266" s="1">
+        <f t="shared" si="4"/>
+        <v>42266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>42288</v>
+      </c>
+      <c r="B267" t="s">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>10</v>
+      </c>
+      <c r="D267" s="1">
+        <f t="shared" si="4"/>
+        <v>42273</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>42295</v>
+      </c>
+      <c r="B268" t="s">
+        <v>4</v>
+      </c>
+      <c r="C268">
+        <v>10</v>
+      </c>
+      <c r="D268" s="1">
+        <f t="shared" si="4"/>
+        <v>42280</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>42302</v>
+      </c>
+      <c r="B269" t="s">
+        <v>4</v>
+      </c>
+      <c r="C269">
+        <v>10</v>
+      </c>
+      <c r="D269" s="1">
+        <f t="shared" si="4"/>
+        <v>42287</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>42309</v>
+      </c>
+      <c r="B270" t="s">
+        <v>4</v>
+      </c>
+      <c r="C270">
+        <v>10</v>
+      </c>
+      <c r="D270" s="1">
+        <f t="shared" si="4"/>
+        <v>42294</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>42316</v>
+      </c>
+      <c r="B271" t="s">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>10</v>
+      </c>
+      <c r="D271" s="1">
+        <f t="shared" si="4"/>
+        <v>42301</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>42323</v>
+      </c>
+      <c r="B272" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272">
+        <v>10</v>
+      </c>
+      <c r="D272" s="1">
+        <f t="shared" si="4"/>
+        <v>42308</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>42330</v>
+      </c>
+      <c r="B273" t="s">
+        <v>4</v>
+      </c>
+      <c r="C273">
+        <v>10</v>
+      </c>
+      <c r="D273" s="1">
+        <f t="shared" si="4"/>
+        <v>42315</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>42337</v>
+      </c>
+      <c r="B274" t="s">
+        <v>4</v>
+      </c>
+      <c r="C274">
+        <v>10</v>
+      </c>
+      <c r="D274" s="1">
+        <f t="shared" si="4"/>
+        <v>42322</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="4">
+        <v>42344</v>
+      </c>
+      <c r="B275" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C275" s="5">
+        <v>10</v>
+      </c>
+      <c r="D275" s="4">
+        <f t="shared" si="4"/>
+        <v>42329</v>
+      </c>
+      <c r="E275" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="6">
+        <v>42351</v>
+      </c>
+      <c r="B276" s="7">
+        <v>9</v>
+      </c>
+      <c r="C276" s="7">
+        <v>10</v>
+      </c>
+      <c r="D276" s="6">
+        <f t="shared" si="4"/>
+        <v>42336</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="6">
+        <v>42358</v>
+      </c>
+      <c r="B277" s="7">
+        <v>9</v>
+      </c>
+      <c r="C277" s="7">
+        <v>10</v>
+      </c>
+      <c r="D277" s="6">
+        <f t="shared" si="4"/>
+        <v>42343</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/4-childrens-series/hunger-games.xlsx
+++ b/4-childrens-series/hunger-games.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{786464B7-A673-ED4E-AD4C-AFA1EC79B351}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D25AE05-E4BC-5F4B-B24C-89E9B9D82711}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30640" yWindow="2500" windowWidth="20700" windowHeight="21180" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="30500" yWindow="2500" windowWidth="20700" windowHeight="21180" activeTab="1" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
+    <sheet name="Box Office" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="19">
   <si>
     <t>Published Date</t>
   </si>
@@ -62,12 +63,34 @@
   <si>
     <t>Fourth Opens: 2015-11-20</t>
   </si>
+  <si>
+    <t>Gross</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Movie</t>
+  </si>
+  <si>
+    <t>Hunger Games</t>
+  </si>
+  <si>
+    <t>Catching Fire</t>
+  </si>
+  <si>
+    <t>Mockingjay Pt.  1</t>
+  </si>
+  <si>
+    <t>Mockingjay Pt.  2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
@@ -111,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -120,6 +143,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,7 +460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E2E8DD-A8F5-4740-B8E8-9F99CB838420}">
   <dimension ref="A1:E278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
@@ -4628,4 +4652,5733 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C8ED24-F263-F447-8FE0-5FD78D379546}">
+  <dimension ref="A1:C519"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="C423" sqref="C423"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>40991</v>
+      </c>
+      <c r="B2" s="8">
+        <v>67263650</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>40992</v>
+      </c>
+      <c r="B3" s="8">
+        <v>50394419</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>40993</v>
+      </c>
+      <c r="B4" s="8">
+        <v>34877678</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>40994</v>
+      </c>
+      <c r="B5" s="8">
+        <v>10823788</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>40995</v>
+      </c>
+      <c r="B6" s="8">
+        <v>10348198</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>40996</v>
+      </c>
+      <c r="B7" s="8">
+        <v>8051705</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>40997</v>
+      </c>
+      <c r="B8" s="8">
+        <v>8173400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>40998</v>
+      </c>
+      <c r="B9" s="8">
+        <v>18652560</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B10" s="8">
+        <v>24738873</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>41000</v>
+      </c>
+      <c r="B11" s="8">
+        <v>15159630</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>41001</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4522495</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>41002</v>
+      </c>
+      <c r="B13" s="8">
+        <v>5324246</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>41003</v>
+      </c>
+      <c r="B14" s="8">
+        <v>4608765</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>41004</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6399758</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>41005</v>
+      </c>
+      <c r="B16" s="8">
+        <v>12799832</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>41006</v>
+      </c>
+      <c r="B17" s="8">
+        <v>13017393</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>41007</v>
+      </c>
+      <c r="B18" s="8">
+        <v>7294332</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>41008</v>
+      </c>
+      <c r="B19" s="8">
+        <v>4143217</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>41009</v>
+      </c>
+      <c r="B20" s="8">
+        <v>3293283</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>41010</v>
+      </c>
+      <c r="B21" s="8">
+        <v>2850685</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>41011</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2831632</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>41012</v>
+      </c>
+      <c r="B23" s="8">
+        <v>6403525</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>41013</v>
+      </c>
+      <c r="B24" s="8">
+        <v>9317258</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>41014</v>
+      </c>
+      <c r="B25" s="8">
+        <v>5376041</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>41015</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1396955</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>41016</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1565935</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>41017</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1332029</v>
+      </c>
+      <c r="C28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>41018</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1439178</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>41019</v>
+      </c>
+      <c r="B30" s="8">
+        <v>4014232</v>
+      </c>
+      <c r="C30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>41020</v>
+      </c>
+      <c r="B31" s="8">
+        <v>6500068</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>41021</v>
+      </c>
+      <c r="B32" s="8">
+        <v>4151707</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>41022</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1009203</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>41023</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1143349</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>41024</v>
+      </c>
+      <c r="B35" s="8">
+        <v>944136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>41025</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1041595</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>41026</v>
+      </c>
+      <c r="B37" s="8">
+        <v>2992968</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>41027</v>
+      </c>
+      <c r="B38" s="8">
+        <v>4967274</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>41028</v>
+      </c>
+      <c r="B39" s="8">
+        <v>2854029</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>41029</v>
+      </c>
+      <c r="B40" s="8">
+        <v>721922</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>41030</v>
+      </c>
+      <c r="B41" s="8">
+        <v>864196</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>41031</v>
+      </c>
+      <c r="B42" s="8">
+        <v>712316</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41032</v>
+      </c>
+      <c r="B43" s="8">
+        <v>709543</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>41033</v>
+      </c>
+      <c r="B44" s="8">
+        <v>1630046</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>41034</v>
+      </c>
+      <c r="B45" s="8">
+        <v>2426877</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>41035</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1530738</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>41036</v>
+      </c>
+      <c r="B47" s="8">
+        <v>424660</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>41037</v>
+      </c>
+      <c r="B48" s="8">
+        <v>535331</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>41038</v>
+      </c>
+      <c r="B49" s="8">
+        <v>461344</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>41039</v>
+      </c>
+      <c r="B50" s="8">
+        <v>465692</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>41040</v>
+      </c>
+      <c r="B51" s="8">
+        <v>1187702</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>41041</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1856045</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>41042</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1461615</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>41043</v>
+      </c>
+      <c r="B54" s="8">
+        <v>398480</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>41044</v>
+      </c>
+      <c r="B55" s="8">
+        <v>464758</v>
+      </c>
+      <c r="C55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>41045</v>
+      </c>
+      <c r="B56" s="8">
+        <v>376509</v>
+      </c>
+      <c r="C56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>41046</v>
+      </c>
+      <c r="B57" s="8">
+        <v>384315</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>41047</v>
+      </c>
+      <c r="B58" s="8">
+        <v>824397</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>41048</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1270649</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>41049</v>
+      </c>
+      <c r="B60" s="8">
+        <v>855285</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>41050</v>
+      </c>
+      <c r="B61" s="8">
+        <v>353004</v>
+      </c>
+      <c r="C61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>41051</v>
+      </c>
+      <c r="B62" s="8">
+        <v>346088</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <v>41052</v>
+      </c>
+      <c r="B63" s="8">
+        <v>328957</v>
+      </c>
+      <c r="C63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <v>41053</v>
+      </c>
+      <c r="B64" s="8">
+        <v>399295</v>
+      </c>
+      <c r="C64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <v>41054</v>
+      </c>
+      <c r="B65" s="8">
+        <v>600241</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>41055</v>
+      </c>
+      <c r="B66" s="8">
+        <v>881691</v>
+      </c>
+      <c r="C66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <v>41056</v>
+      </c>
+      <c r="B67" s="8">
+        <v>829474</v>
+      </c>
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>41057</v>
+      </c>
+      <c r="B68" s="8">
+        <v>701977</v>
+      </c>
+      <c r="C68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>41058</v>
+      </c>
+      <c r="B69" s="8">
+        <v>248993</v>
+      </c>
+      <c r="C69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>41059</v>
+      </c>
+      <c r="B70" s="8">
+        <v>235064</v>
+      </c>
+      <c r="C70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>41060</v>
+      </c>
+      <c r="B71" s="8">
+        <v>267523</v>
+      </c>
+      <c r="C71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>41061</v>
+      </c>
+      <c r="B72" s="8">
+        <v>454882</v>
+      </c>
+      <c r="C72" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>41062</v>
+      </c>
+      <c r="B73" s="8">
+        <v>677405</v>
+      </c>
+      <c r="C73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <v>41063</v>
+      </c>
+      <c r="B74" s="8">
+        <v>434899</v>
+      </c>
+      <c r="C74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <v>41064</v>
+      </c>
+      <c r="B75" s="8">
+        <v>208749</v>
+      </c>
+      <c r="C75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>41065</v>
+      </c>
+      <c r="B76" s="8">
+        <v>219296</v>
+      </c>
+      <c r="C76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <v>41066</v>
+      </c>
+      <c r="B77" s="8">
+        <v>205657</v>
+      </c>
+      <c r="C77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <v>41067</v>
+      </c>
+      <c r="B78" s="8">
+        <v>225686</v>
+      </c>
+      <c r="C78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <v>41068</v>
+      </c>
+      <c r="B79" s="8">
+        <v>318939</v>
+      </c>
+      <c r="C79" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>41069</v>
+      </c>
+      <c r="B80" s="8">
+        <v>431013</v>
+      </c>
+      <c r="C80" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <v>41070</v>
+      </c>
+      <c r="B81" s="8">
+        <v>322261</v>
+      </c>
+      <c r="C81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <v>41071</v>
+      </c>
+      <c r="B82" s="8">
+        <v>157003</v>
+      </c>
+      <c r="C82" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <v>41072</v>
+      </c>
+      <c r="B83" s="8">
+        <v>171583</v>
+      </c>
+      <c r="C83" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <v>41073</v>
+      </c>
+      <c r="B84" s="8">
+        <v>156889</v>
+      </c>
+      <c r="C84" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>41074</v>
+      </c>
+      <c r="B85" s="8">
+        <v>155610</v>
+      </c>
+      <c r="C85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <v>41075</v>
+      </c>
+      <c r="B86" s="8">
+        <v>247895</v>
+      </c>
+      <c r="C86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <v>41076</v>
+      </c>
+      <c r="B87" s="8">
+        <v>338002</v>
+      </c>
+      <c r="C87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <v>41077</v>
+      </c>
+      <c r="B88" s="8">
+        <v>266935</v>
+      </c>
+      <c r="C88" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <v>41078</v>
+      </c>
+      <c r="B89" s="8">
+        <v>137261</v>
+      </c>
+      <c r="C89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <v>41079</v>
+      </c>
+      <c r="B90" s="8">
+        <v>146913</v>
+      </c>
+      <c r="C90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <v>41080</v>
+      </c>
+      <c r="B91" s="8">
+        <v>142590</v>
+      </c>
+      <c r="C91" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <v>41081</v>
+      </c>
+      <c r="B92" s="8">
+        <v>146506</v>
+      </c>
+      <c r="C92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>41082</v>
+      </c>
+      <c r="B93" s="8">
+        <v>184449</v>
+      </c>
+      <c r="C93" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <v>41083</v>
+      </c>
+      <c r="B94" s="8">
+        <v>255614</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <v>41084</v>
+      </c>
+      <c r="B95" s="8">
+        <v>184755</v>
+      </c>
+      <c r="C95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <v>41085</v>
+      </c>
+      <c r="B96" s="8">
+        <v>97158</v>
+      </c>
+      <c r="C96" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <v>41086</v>
+      </c>
+      <c r="B97" s="8">
+        <v>107237</v>
+      </c>
+      <c r="C97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <v>41087</v>
+      </c>
+      <c r="B98" s="8">
+        <v>97775</v>
+      </c>
+      <c r="C98" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>41088</v>
+      </c>
+      <c r="B99" s="8">
+        <v>104997</v>
+      </c>
+      <c r="C99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <v>41089</v>
+      </c>
+      <c r="B100" s="8">
+        <v>113986</v>
+      </c>
+      <c r="C100" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B101" s="8">
+        <v>158156</v>
+      </c>
+      <c r="C101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <v>41091</v>
+      </c>
+      <c r="B102" s="8">
+        <v>125003</v>
+      </c>
+      <c r="C102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <v>41092</v>
+      </c>
+      <c r="B103" s="8">
+        <v>75216</v>
+      </c>
+      <c r="C103" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>41093</v>
+      </c>
+      <c r="B104" s="8">
+        <v>69598</v>
+      </c>
+      <c r="C104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <v>41094</v>
+      </c>
+      <c r="B105" s="8">
+        <v>81411</v>
+      </c>
+      <c r="C105" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>41095</v>
+      </c>
+      <c r="B106" s="8">
+        <v>71577</v>
+      </c>
+      <c r="C106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <v>41096</v>
+      </c>
+      <c r="B107" s="8">
+        <v>98169</v>
+      </c>
+      <c r="C107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <v>41097</v>
+      </c>
+      <c r="B108" s="8">
+        <v>129060</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <v>41098</v>
+      </c>
+      <c r="B109" s="8">
+        <v>88250</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <v>41099</v>
+      </c>
+      <c r="B110" s="8">
+        <v>46786</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>41100</v>
+      </c>
+      <c r="B111" s="8">
+        <v>52487</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <v>41101</v>
+      </c>
+      <c r="B112" s="8">
+        <v>51441</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <v>41102</v>
+      </c>
+      <c r="B113" s="8">
+        <v>52049</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <v>41103</v>
+      </c>
+      <c r="B114" s="8">
+        <v>81315</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <v>41104</v>
+      </c>
+      <c r="B115" s="8">
+        <v>116152</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>41105</v>
+      </c>
+      <c r="B116" s="8">
+        <v>82288</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <v>41106</v>
+      </c>
+      <c r="B117" s="8">
+        <v>42133</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>41107</v>
+      </c>
+      <c r="B118" s="8">
+        <v>47929</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <v>41108</v>
+      </c>
+      <c r="B119" s="8">
+        <v>45630</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <v>41109</v>
+      </c>
+      <c r="B120" s="8">
+        <v>45131</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <v>41110</v>
+      </c>
+      <c r="B121" s="8">
+        <v>55696</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>41111</v>
+      </c>
+      <c r="B122" s="8">
+        <v>72444</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <v>41112</v>
+      </c>
+      <c r="B123" s="8">
+        <v>54097</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <v>41113</v>
+      </c>
+      <c r="B124" s="8">
+        <v>31550</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>41114</v>
+      </c>
+      <c r="B125" s="8">
+        <v>36176</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <v>41115</v>
+      </c>
+      <c r="B126" s="8">
+        <v>33228</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <v>41116</v>
+      </c>
+      <c r="B127" s="8">
+        <v>34718</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>41117</v>
+      </c>
+      <c r="B128" s="8">
+        <v>152478</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <v>41118</v>
+      </c>
+      <c r="B129" s="8">
+        <v>203719</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <v>41119</v>
+      </c>
+      <c r="B130" s="8">
+        <v>162743</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>41120</v>
+      </c>
+      <c r="B131" s="8">
+        <v>92672</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <v>41121</v>
+      </c>
+      <c r="B132" s="8">
+        <v>104042</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>41122</v>
+      </c>
+      <c r="B133" s="8">
+        <v>93818</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>41123</v>
+      </c>
+      <c r="B134" s="8">
+        <v>95003</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>41124</v>
+      </c>
+      <c r="B135" s="8">
+        <v>129247</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>41125</v>
+      </c>
+      <c r="B136" s="8">
+        <v>172607</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>41126</v>
+      </c>
+      <c r="B137" s="8">
+        <v>127512</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <v>41127</v>
+      </c>
+      <c r="B138" s="8">
+        <v>66226</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B139" s="8">
+        <v>69578</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <v>41129</v>
+      </c>
+      <c r="B140" s="8">
+        <v>67749</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>41130</v>
+      </c>
+      <c r="B141" s="8">
+        <v>69458</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <v>41131</v>
+      </c>
+      <c r="B142" s="8">
+        <v>99602</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>41132</v>
+      </c>
+      <c r="B143" s="8">
+        <v>133047</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <v>41133</v>
+      </c>
+      <c r="B144" s="8">
+        <v>91408</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <v>41134</v>
+      </c>
+      <c r="B145" s="8">
+        <v>46615</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <v>41135</v>
+      </c>
+      <c r="B146" s="8">
+        <v>51293</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <v>41136</v>
+      </c>
+      <c r="B147" s="8">
+        <v>44602</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <v>41137</v>
+      </c>
+      <c r="B148" s="8">
+        <v>46455</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <v>41138</v>
+      </c>
+      <c r="B149" s="8">
+        <v>66510</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <v>41139</v>
+      </c>
+      <c r="B150" s="8">
+        <v>84031</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <v>41140</v>
+      </c>
+      <c r="B151" s="8">
+        <v>54414</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <v>41141</v>
+      </c>
+      <c r="B152" s="8">
+        <v>20673</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <v>41142</v>
+      </c>
+      <c r="B153" s="8">
+        <v>21632</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <v>41143</v>
+      </c>
+      <c r="B154" s="8">
+        <v>19267</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <v>41144</v>
+      </c>
+      <c r="B155" s="8">
+        <v>19376</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <v>41145</v>
+      </c>
+      <c r="B156" s="8">
+        <v>32923</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>41146</v>
+      </c>
+      <c r="B157" s="8">
+        <v>50553</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>41147</v>
+      </c>
+      <c r="B158" s="8">
+        <v>31375</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>41148</v>
+      </c>
+      <c r="B159" s="8">
+        <v>10013</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>41149</v>
+      </c>
+      <c r="B160" s="8">
+        <v>10430</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>41150</v>
+      </c>
+      <c r="B161" s="8">
+        <v>9197</v>
+      </c>
+      <c r="C161" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>41151</v>
+      </c>
+      <c r="B162" s="8">
+        <v>9658</v>
+      </c>
+      <c r="C162" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>41152</v>
+      </c>
+      <c r="B163" s="8">
+        <v>13158</v>
+      </c>
+      <c r="C163" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>41153</v>
+      </c>
+      <c r="B164" s="8">
+        <v>24977</v>
+      </c>
+      <c r="C164" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>41154</v>
+      </c>
+      <c r="B165" s="8">
+        <v>20208</v>
+      </c>
+      <c r="C165" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>41155</v>
+      </c>
+      <c r="B166" s="8">
+        <v>17603</v>
+      </c>
+      <c r="C166" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>41156</v>
+      </c>
+      <c r="B167" s="8">
+        <v>4239</v>
+      </c>
+      <c r="C167" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>41157</v>
+      </c>
+      <c r="B168" s="8">
+        <v>3428</v>
+      </c>
+      <c r="C168" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>41158</v>
+      </c>
+      <c r="B169" s="8">
+        <v>3770</v>
+      </c>
+      <c r="C169" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>41600</v>
+      </c>
+      <c r="B170" s="8">
+        <v>70950136</v>
+      </c>
+      <c r="C170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>41601</v>
+      </c>
+      <c r="B171" s="8">
+        <v>52619106</v>
+      </c>
+      <c r="C171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>41602</v>
+      </c>
+      <c r="B172" s="8">
+        <v>34505044</v>
+      </c>
+      <c r="C172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>41603</v>
+      </c>
+      <c r="B173" s="8">
+        <v>12321722</v>
+      </c>
+      <c r="C173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>41604</v>
+      </c>
+      <c r="B174" s="8">
+        <v>15960309</v>
+      </c>
+      <c r="C174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>41605</v>
+      </c>
+      <c r="B175" s="8">
+        <v>20808110</v>
+      </c>
+      <c r="C175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>41606</v>
+      </c>
+      <c r="B176" s="8">
+        <v>14951629</v>
+      </c>
+      <c r="C176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>41607</v>
+      </c>
+      <c r="B177" s="8">
+        <v>31570448</v>
+      </c>
+      <c r="C177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>41608</v>
+      </c>
+      <c r="B178" s="8">
+        <v>28401259</v>
+      </c>
+      <c r="C178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B179" s="8">
+        <v>14207894</v>
+      </c>
+      <c r="C179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>41610</v>
+      </c>
+      <c r="B180" s="8">
+        <v>3402550</v>
+      </c>
+      <c r="C180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>41611</v>
+      </c>
+      <c r="B181" s="8">
+        <v>4009955</v>
+      </c>
+      <c r="C181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>41612</v>
+      </c>
+      <c r="B182" s="8">
+        <v>3017817</v>
+      </c>
+      <c r="C182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>41613</v>
+      </c>
+      <c r="B183" s="8">
+        <v>2938977</v>
+      </c>
+      <c r="C183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>41614</v>
+      </c>
+      <c r="B184" s="8">
+        <v>7775778</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>41615</v>
+      </c>
+      <c r="B185" s="8">
+        <v>11922878</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>41616</v>
+      </c>
+      <c r="B186" s="8">
+        <v>6487230</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>41617</v>
+      </c>
+      <c r="B187" s="8">
+        <v>1943642</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>41618</v>
+      </c>
+      <c r="B188" s="8">
+        <v>2372675</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>41619</v>
+      </c>
+      <c r="B189" s="8">
+        <v>1855493</v>
+      </c>
+      <c r="C189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>41620</v>
+      </c>
+      <c r="B190" s="8">
+        <v>1809345</v>
+      </c>
+      <c r="C190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>41621</v>
+      </c>
+      <c r="B191" s="8">
+        <v>4105897</v>
+      </c>
+      <c r="C191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>41622</v>
+      </c>
+      <c r="B192" s="8">
+        <v>5746555</v>
+      </c>
+      <c r="C192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>41623</v>
+      </c>
+      <c r="B193" s="8">
+        <v>3819214</v>
+      </c>
+      <c r="C193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>41624</v>
+      </c>
+      <c r="B194" s="8">
+        <v>1319589</v>
+      </c>
+      <c r="C194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>41625</v>
+      </c>
+      <c r="B195" s="8">
+        <v>1523606</v>
+      </c>
+      <c r="C195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>41626</v>
+      </c>
+      <c r="B196" s="8">
+        <v>1243105</v>
+      </c>
+      <c r="C196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>41627</v>
+      </c>
+      <c r="B197" s="8">
+        <v>1363833</v>
+      </c>
+      <c r="C197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>41628</v>
+      </c>
+      <c r="B198" s="8">
+        <v>2504972</v>
+      </c>
+      <c r="C198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>41629</v>
+      </c>
+      <c r="B199" s="8">
+        <v>3401489</v>
+      </c>
+      <c r="C199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>41630</v>
+      </c>
+      <c r="B200" s="8">
+        <v>2858018</v>
+      </c>
+      <c r="C200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>41631</v>
+      </c>
+      <c r="B201" s="8">
+        <v>2278758</v>
+      </c>
+      <c r="C201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <v>41632</v>
+      </c>
+      <c r="B202" s="8">
+        <v>1358828</v>
+      </c>
+      <c r="C202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <v>41633</v>
+      </c>
+      <c r="B203" s="8">
+        <v>2528150</v>
+      </c>
+      <c r="C203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <v>41634</v>
+      </c>
+      <c r="B204" s="8">
+        <v>3039832</v>
+      </c>
+      <c r="C204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <v>41635</v>
+      </c>
+      <c r="B205" s="8">
+        <v>3433033</v>
+      </c>
+      <c r="C205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <v>41636</v>
+      </c>
+      <c r="B206" s="8">
+        <v>3696908</v>
+      </c>
+      <c r="C206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <v>41637</v>
+      </c>
+      <c r="B207" s="8">
+        <v>2931538</v>
+      </c>
+      <c r="C207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <v>41638</v>
+      </c>
+      <c r="B208" s="8">
+        <v>2489456</v>
+      </c>
+      <c r="C208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B209" s="8">
+        <v>2051927</v>
+      </c>
+      <c r="C209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B210" s="8">
+        <v>2880321</v>
+      </c>
+      <c r="C210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <v>41641</v>
+      </c>
+      <c r="B211" s="8">
+        <v>1681364</v>
+      </c>
+      <c r="C211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <v>41642</v>
+      </c>
+      <c r="B212" s="8">
+        <v>2442811</v>
+      </c>
+      <c r="C212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <v>41643</v>
+      </c>
+      <c r="B213" s="8">
+        <v>3046351</v>
+      </c>
+      <c r="C213" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <v>41644</v>
+      </c>
+      <c r="B214" s="8">
+        <v>1562147</v>
+      </c>
+      <c r="C214" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <v>41645</v>
+      </c>
+      <c r="B215" s="8">
+        <v>563827</v>
+      </c>
+      <c r="C215" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <v>41646</v>
+      </c>
+      <c r="B216" s="8">
+        <v>669249</v>
+      </c>
+      <c r="C216" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <v>41647</v>
+      </c>
+      <c r="B217" s="8">
+        <v>523378</v>
+      </c>
+      <c r="C217" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <v>41648</v>
+      </c>
+      <c r="B218" s="8">
+        <v>496498</v>
+      </c>
+      <c r="C218" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <v>41649</v>
+      </c>
+      <c r="B219" s="8">
+        <v>1208094</v>
+      </c>
+      <c r="C219" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <v>41650</v>
+      </c>
+      <c r="B220" s="8">
+        <v>2083464</v>
+      </c>
+      <c r="C220" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <v>41651</v>
+      </c>
+      <c r="B221" s="8">
+        <v>1091650</v>
+      </c>
+      <c r="C221" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <v>41652</v>
+      </c>
+      <c r="B222" s="8">
+        <v>293939</v>
+      </c>
+      <c r="C222" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <v>41653</v>
+      </c>
+      <c r="B223" s="8">
+        <v>353654</v>
+      </c>
+      <c r="C223" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <v>41654</v>
+      </c>
+      <c r="B224" s="8">
+        <v>290785</v>
+      </c>
+      <c r="C224" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <v>41655</v>
+      </c>
+      <c r="B225" s="8">
+        <v>285555</v>
+      </c>
+      <c r="C225" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <v>41656</v>
+      </c>
+      <c r="B226" s="8">
+        <v>631065</v>
+      </c>
+      <c r="C226" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <v>41657</v>
+      </c>
+      <c r="B227" s="8">
+        <v>1144419</v>
+      </c>
+      <c r="C227" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <v>41658</v>
+      </c>
+      <c r="B228" s="8">
+        <v>675697</v>
+      </c>
+      <c r="C228" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <v>41659</v>
+      </c>
+      <c r="B229" s="8">
+        <v>568638</v>
+      </c>
+      <c r="C229" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <v>41660</v>
+      </c>
+      <c r="B230" s="8">
+        <v>162541</v>
+      </c>
+      <c r="C230" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <v>41661</v>
+      </c>
+      <c r="B231" s="8">
+        <v>147604</v>
+      </c>
+      <c r="C231" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <v>41662</v>
+      </c>
+      <c r="B232" s="8">
+        <v>152212</v>
+      </c>
+      <c r="C232" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <v>41663</v>
+      </c>
+      <c r="B233" s="8">
+        <v>397638</v>
+      </c>
+      <c r="C233" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <v>41664</v>
+      </c>
+      <c r="B234" s="8">
+        <v>748096</v>
+      </c>
+      <c r="C234" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <v>41665</v>
+      </c>
+      <c r="B235" s="8">
+        <v>394215</v>
+      </c>
+      <c r="C235" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <v>41666</v>
+      </c>
+      <c r="B236" s="8">
+        <v>105753</v>
+      </c>
+      <c r="C236" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <v>41667</v>
+      </c>
+      <c r="B237" s="8">
+        <v>127436</v>
+      </c>
+      <c r="C237" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <v>41668</v>
+      </c>
+      <c r="B238" s="8">
+        <v>102798</v>
+      </c>
+      <c r="C238" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <v>41669</v>
+      </c>
+      <c r="B239" s="8">
+        <v>110640</v>
+      </c>
+      <c r="C239" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <v>41670</v>
+      </c>
+      <c r="B240" s="8">
+        <v>277459</v>
+      </c>
+      <c r="C240" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B241" s="8">
+        <v>510404</v>
+      </c>
+      <c r="C241" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <v>41672</v>
+      </c>
+      <c r="B242" s="8">
+        <v>152229</v>
+      </c>
+      <c r="C242" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <v>41673</v>
+      </c>
+      <c r="B243" s="8">
+        <v>82349</v>
+      </c>
+      <c r="C243" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <v>41674</v>
+      </c>
+      <c r="B244" s="8">
+        <v>101080</v>
+      </c>
+      <c r="C244" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <v>41675</v>
+      </c>
+      <c r="B245" s="8">
+        <v>77796</v>
+      </c>
+      <c r="C245" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <v>41676</v>
+      </c>
+      <c r="B246" s="8">
+        <v>80924</v>
+      </c>
+      <c r="C246" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <v>41677</v>
+      </c>
+      <c r="B247" s="8">
+        <v>164611</v>
+      </c>
+      <c r="C247" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <v>41678</v>
+      </c>
+      <c r="B248" s="8">
+        <v>323340</v>
+      </c>
+      <c r="C248" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <v>41679</v>
+      </c>
+      <c r="B249" s="8">
+        <v>172717</v>
+      </c>
+      <c r="C249" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <v>41680</v>
+      </c>
+      <c r="B250" s="8">
+        <v>50119</v>
+      </c>
+      <c r="C250" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <v>41681</v>
+      </c>
+      <c r="B251" s="8">
+        <v>49477</v>
+      </c>
+      <c r="C251" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <v>41682</v>
+      </c>
+      <c r="B252" s="8">
+        <v>30029</v>
+      </c>
+      <c r="C252" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <v>41683</v>
+      </c>
+      <c r="B253" s="8">
+        <v>34741</v>
+      </c>
+      <c r="C253" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <v>41684</v>
+      </c>
+      <c r="B254" s="8">
+        <v>172457</v>
+      </c>
+      <c r="C254" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <v>41685</v>
+      </c>
+      <c r="B255" s="8">
+        <v>216383</v>
+      </c>
+      <c r="C255" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <v>41686</v>
+      </c>
+      <c r="B256" s="8">
+        <v>146772</v>
+      </c>
+      <c r="C256" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <v>41687</v>
+      </c>
+      <c r="B257" s="8">
+        <v>91417</v>
+      </c>
+      <c r="C257" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <v>41688</v>
+      </c>
+      <c r="B258" s="8">
+        <v>36591</v>
+      </c>
+      <c r="C258" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <v>41689</v>
+      </c>
+      <c r="B259" s="8">
+        <v>33901</v>
+      </c>
+      <c r="C259" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <v>41690</v>
+      </c>
+      <c r="B260" s="8">
+        <v>34176</v>
+      </c>
+      <c r="C260" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <v>41691</v>
+      </c>
+      <c r="B261" s="8">
+        <v>88305</v>
+      </c>
+      <c r="C261" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <v>41692</v>
+      </c>
+      <c r="B262" s="8">
+        <v>151895</v>
+      </c>
+      <c r="C262" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <v>41693</v>
+      </c>
+      <c r="B263" s="8">
+        <v>78926</v>
+      </c>
+      <c r="C263" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <v>41694</v>
+      </c>
+      <c r="B264" s="8">
+        <v>20040</v>
+      </c>
+      <c r="C264" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <v>41695</v>
+      </c>
+      <c r="B265" s="8">
+        <v>25208</v>
+      </c>
+      <c r="C265" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <v>41696</v>
+      </c>
+      <c r="B266" s="8">
+        <v>22924</v>
+      </c>
+      <c r="C266" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <v>41697</v>
+      </c>
+      <c r="B267" s="8">
+        <v>24610</v>
+      </c>
+      <c r="C267" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <v>41698</v>
+      </c>
+      <c r="B268" s="8">
+        <v>49403</v>
+      </c>
+      <c r="C268" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B269" s="8">
+        <v>91994</v>
+      </c>
+      <c r="C269" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <v>41700</v>
+      </c>
+      <c r="B270" s="8">
+        <v>44645</v>
+      </c>
+      <c r="C270" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <v>41701</v>
+      </c>
+      <c r="B271" s="8">
+        <v>15814</v>
+      </c>
+      <c r="C271" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <v>41702</v>
+      </c>
+      <c r="B272" s="8">
+        <v>17984</v>
+      </c>
+      <c r="C272" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <v>41703</v>
+      </c>
+      <c r="B273" s="8">
+        <v>14436</v>
+      </c>
+      <c r="C273" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <v>41704</v>
+      </c>
+      <c r="B274" s="8">
+        <v>16143</v>
+      </c>
+      <c r="C274" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <v>41705</v>
+      </c>
+      <c r="B275" s="8">
+        <v>34692</v>
+      </c>
+      <c r="C275" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <v>41706</v>
+      </c>
+      <c r="B276" s="8">
+        <v>56419</v>
+      </c>
+      <c r="C276" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <v>41707</v>
+      </c>
+      <c r="B277" s="8">
+        <v>27306</v>
+      </c>
+      <c r="C277" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="1">
+        <v>41708</v>
+      </c>
+      <c r="B278" s="8">
+        <v>10583</v>
+      </c>
+      <c r="C278" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="1">
+        <v>41709</v>
+      </c>
+      <c r="B279" s="8">
+        <v>13284</v>
+      </c>
+      <c r="C279" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="1">
+        <v>41710</v>
+      </c>
+      <c r="B280" s="8">
+        <v>10276</v>
+      </c>
+      <c r="C280" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="1">
+        <v>41711</v>
+      </c>
+      <c r="B281" s="8">
+        <v>11478</v>
+      </c>
+      <c r="C281" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="1">
+        <v>41712</v>
+      </c>
+      <c r="B282" s="8">
+        <v>60219</v>
+      </c>
+      <c r="C282" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="1">
+        <v>41713</v>
+      </c>
+      <c r="B283" s="8">
+        <v>87990</v>
+      </c>
+      <c r="C283" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="1">
+        <v>41714</v>
+      </c>
+      <c r="B284" s="8">
+        <v>57041</v>
+      </c>
+      <c r="C284" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="1">
+        <v>41715</v>
+      </c>
+      <c r="B285" s="8">
+        <v>18740</v>
+      </c>
+      <c r="C285" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="1">
+        <v>41716</v>
+      </c>
+      <c r="B286" s="8">
+        <v>22023</v>
+      </c>
+      <c r="C286" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="1">
+        <v>41717</v>
+      </c>
+      <c r="B287" s="8">
+        <v>19703</v>
+      </c>
+      <c r="C287" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="1">
+        <v>41718</v>
+      </c>
+      <c r="B288" s="8">
+        <v>17983</v>
+      </c>
+      <c r="C288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="1">
+        <v>41719</v>
+      </c>
+      <c r="B289" s="8">
+        <v>32250</v>
+      </c>
+      <c r="C289" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="1">
+        <v>41720</v>
+      </c>
+      <c r="B290" s="8">
+        <v>50667</v>
+      </c>
+      <c r="C290" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="1">
+        <v>41721</v>
+      </c>
+      <c r="B291" s="8">
+        <v>31981</v>
+      </c>
+      <c r="C291" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="1">
+        <v>41722</v>
+      </c>
+      <c r="B292" s="8">
+        <v>11217</v>
+      </c>
+      <c r="C292" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="1">
+        <v>41723</v>
+      </c>
+      <c r="B293" s="8">
+        <v>13455</v>
+      </c>
+      <c r="C293" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="1">
+        <v>41724</v>
+      </c>
+      <c r="B294" s="8">
+        <v>12618</v>
+      </c>
+      <c r="C294" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="1">
+        <v>41725</v>
+      </c>
+      <c r="B295" s="8">
+        <v>12286</v>
+      </c>
+      <c r="C295" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="1">
+        <v>41726</v>
+      </c>
+      <c r="B296" s="8">
+        <v>18218</v>
+      </c>
+      <c r="C296" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="1">
+        <v>41727</v>
+      </c>
+      <c r="B297" s="8">
+        <v>28714</v>
+      </c>
+      <c r="C297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="1">
+        <v>41728</v>
+      </c>
+      <c r="B298" s="8">
+        <v>16591</v>
+      </c>
+      <c r="C298" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B299" s="8">
+        <v>5175</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B300" s="8">
+        <v>6040</v>
+      </c>
+      <c r="C300" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="1">
+        <v>41731</v>
+      </c>
+      <c r="B301" s="8">
+        <v>5382</v>
+      </c>
+      <c r="C301" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="1">
+        <v>41732</v>
+      </c>
+      <c r="B302" s="8">
+        <v>5873</v>
+      </c>
+      <c r="C302" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="1">
+        <v>41964</v>
+      </c>
+      <c r="B303" s="8">
+        <v>55139942</v>
+      </c>
+      <c r="C303" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="1">
+        <v>41965</v>
+      </c>
+      <c r="B304" s="8">
+        <v>40905873</v>
+      </c>
+      <c r="C304" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="1">
+        <v>41966</v>
+      </c>
+      <c r="B305" s="8">
+        <v>25851819</v>
+      </c>
+      <c r="C305" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="1">
+        <v>41967</v>
+      </c>
+      <c r="B306" s="8">
+        <v>8978318</v>
+      </c>
+      <c r="C306" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="1">
+        <v>41968</v>
+      </c>
+      <c r="B307" s="8">
+        <v>12131853</v>
+      </c>
+      <c r="C307" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="1">
+        <v>41969</v>
+      </c>
+      <c r="B308" s="8">
+        <v>14620517</v>
+      </c>
+      <c r="C308" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="1">
+        <v>41970</v>
+      </c>
+      <c r="B309" s="8">
+        <v>11079983</v>
+      </c>
+      <c r="C309" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="1">
+        <v>41971</v>
+      </c>
+      <c r="B310" s="8">
+        <v>24199442</v>
+      </c>
+      <c r="C310" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="1">
+        <v>41972</v>
+      </c>
+      <c r="B311" s="8">
+        <v>21992225</v>
+      </c>
+      <c r="C311" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="1">
+        <v>41973</v>
+      </c>
+      <c r="B312" s="8">
+        <v>10780932</v>
+      </c>
+      <c r="C312" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B313" s="8">
+        <v>2635435</v>
+      </c>
+      <c r="C313" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="1">
+        <v>41975</v>
+      </c>
+      <c r="B314" s="8">
+        <v>3160145</v>
+      </c>
+      <c r="C314" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="1">
+        <v>41976</v>
+      </c>
+      <c r="B315" s="8">
+        <v>2332453</v>
+      </c>
+      <c r="C315" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="1">
+        <v>41977</v>
+      </c>
+      <c r="B316" s="8">
+        <v>2317894</v>
+      </c>
+      <c r="C316" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="1">
+        <v>41978</v>
+      </c>
+      <c r="B317" s="8">
+        <v>6662680</v>
+      </c>
+      <c r="C317" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="1">
+        <v>41979</v>
+      </c>
+      <c r="B318" s="8">
+        <v>9914689</v>
+      </c>
+      <c r="C318" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="1">
+        <v>41980</v>
+      </c>
+      <c r="B319" s="8">
+        <v>5449393</v>
+      </c>
+      <c r="C319" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="1">
+        <v>41981</v>
+      </c>
+      <c r="B320" s="8">
+        <v>1437896</v>
+      </c>
+      <c r="C320" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="1">
+        <v>41982</v>
+      </c>
+      <c r="B321" s="8">
+        <v>1785778</v>
+      </c>
+      <c r="C321" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="1">
+        <v>41983</v>
+      </c>
+      <c r="B322" s="8">
+        <v>1389399</v>
+      </c>
+      <c r="C322" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="1">
+        <v>41984</v>
+      </c>
+      <c r="B323" s="8">
+        <v>1431583</v>
+      </c>
+      <c r="C323" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="1">
+        <v>41985</v>
+      </c>
+      <c r="B324" s="8">
+        <v>3742859</v>
+      </c>
+      <c r="C324" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="1">
+        <v>41986</v>
+      </c>
+      <c r="B325" s="8">
+        <v>5728430</v>
+      </c>
+      <c r="C325" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="1">
+        <v>41987</v>
+      </c>
+      <c r="B326" s="8">
+        <v>3215453</v>
+      </c>
+      <c r="C326" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="1">
+        <v>41988</v>
+      </c>
+      <c r="B327" s="8">
+        <v>1111833</v>
+      </c>
+      <c r="C327" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="1">
+        <v>41989</v>
+      </c>
+      <c r="B328" s="8">
+        <v>1371154</v>
+      </c>
+      <c r="C328" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="1">
+        <v>41990</v>
+      </c>
+      <c r="B329" s="8">
+        <v>1021818</v>
+      </c>
+      <c r="C329" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="1">
+        <v>41991</v>
+      </c>
+      <c r="B330" s="8">
+        <v>1086893</v>
+      </c>
+      <c r="C330" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="1">
+        <v>41992</v>
+      </c>
+      <c r="B331" s="8">
+        <v>2275909</v>
+      </c>
+      <c r="C331" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="1">
+        <v>41993</v>
+      </c>
+      <c r="B332" s="8">
+        <v>3145149</v>
+      </c>
+      <c r="C332" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="1">
+        <v>41994</v>
+      </c>
+      <c r="B333" s="8">
+        <v>2458363</v>
+      </c>
+      <c r="C333" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="1">
+        <v>41995</v>
+      </c>
+      <c r="B334" s="8">
+        <v>1716284</v>
+      </c>
+      <c r="C334" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="1">
+        <v>41996</v>
+      </c>
+      <c r="B335" s="8">
+        <v>1910174</v>
+      </c>
+      <c r="C335" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="1">
+        <v>41997</v>
+      </c>
+      <c r="B336" s="8">
+        <v>987657</v>
+      </c>
+      <c r="C336" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="1">
+        <v>41998</v>
+      </c>
+      <c r="B337" s="8">
+        <v>2685756</v>
+      </c>
+      <c r="C337" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="1">
+        <v>41999</v>
+      </c>
+      <c r="B338" s="8">
+        <v>3526032</v>
+      </c>
+      <c r="C338" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="1">
+        <v>42000</v>
+      </c>
+      <c r="B339" s="8">
+        <v>3664524</v>
+      </c>
+      <c r="C339" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="1">
+        <v>42001</v>
+      </c>
+      <c r="B340" s="8">
+        <v>2872869</v>
+      </c>
+      <c r="C340" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="1">
+        <v>42002</v>
+      </c>
+      <c r="B341" s="8">
+        <v>2220422</v>
+      </c>
+      <c r="C341" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="1">
+        <v>42003</v>
+      </c>
+      <c r="B342" s="8">
+        <v>2389225</v>
+      </c>
+      <c r="C342" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B343" s="8">
+        <v>1953861</v>
+      </c>
+      <c r="C343" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A344" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B344" s="8">
+        <v>2891634</v>
+      </c>
+      <c r="C344" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A345" s="1">
+        <v>42006</v>
+      </c>
+      <c r="B345" s="8">
+        <v>2985625</v>
+      </c>
+      <c r="C345" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A346" s="1">
+        <v>42007</v>
+      </c>
+      <c r="B346" s="8">
+        <v>2894119</v>
+      </c>
+      <c r="C346" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A347" s="1">
+        <v>42008</v>
+      </c>
+      <c r="B347" s="8">
+        <v>1680210</v>
+      </c>
+      <c r="C347" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A348" s="1">
+        <v>42009</v>
+      </c>
+      <c r="B348" s="8">
+        <v>566745</v>
+      </c>
+      <c r="C348" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A349" s="1">
+        <v>42010</v>
+      </c>
+      <c r="B349" s="8">
+        <v>574943</v>
+      </c>
+      <c r="C349" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A350" s="1">
+        <v>42011</v>
+      </c>
+      <c r="B350" s="8">
+        <v>471526</v>
+      </c>
+      <c r="C350" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A351" s="1">
+        <v>42012</v>
+      </c>
+      <c r="B351" s="8">
+        <v>426837</v>
+      </c>
+      <c r="C351" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A352" s="1">
+        <v>42013</v>
+      </c>
+      <c r="B352" s="8">
+        <v>1059634</v>
+      </c>
+      <c r="C352" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A353" s="1">
+        <v>42014</v>
+      </c>
+      <c r="B353" s="8">
+        <v>1786532</v>
+      </c>
+      <c r="C353" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A354" s="1">
+        <v>42015</v>
+      </c>
+      <c r="B354" s="8">
+        <v>919727</v>
+      </c>
+      <c r="C354" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A355" s="1">
+        <v>42016</v>
+      </c>
+      <c r="B355" s="8">
+        <v>252729</v>
+      </c>
+      <c r="C355" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A356" s="1">
+        <v>42017</v>
+      </c>
+      <c r="B356" s="8">
+        <v>343342</v>
+      </c>
+      <c r="C356" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A357" s="1">
+        <v>42018</v>
+      </c>
+      <c r="B357" s="8">
+        <v>280348</v>
+      </c>
+      <c r="C357" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A358" s="1">
+        <v>42019</v>
+      </c>
+      <c r="B358" s="8">
+        <v>226774</v>
+      </c>
+      <c r="C358" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A359" s="1">
+        <v>42020</v>
+      </c>
+      <c r="B359" s="8">
+        <v>484926</v>
+      </c>
+      <c r="C359" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A360" s="1">
+        <v>42021</v>
+      </c>
+      <c r="B360" s="8">
+        <v>845214</v>
+      </c>
+      <c r="C360" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A361" s="1">
+        <v>42022</v>
+      </c>
+      <c r="B361" s="8">
+        <v>542662</v>
+      </c>
+      <c r="C361" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A362" s="1">
+        <v>42023</v>
+      </c>
+      <c r="B362" s="8">
+        <v>414495</v>
+      </c>
+      <c r="C362" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A363" s="1">
+        <v>42024</v>
+      </c>
+      <c r="B363" s="8">
+        <v>143295</v>
+      </c>
+      <c r="C363" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A364" s="1">
+        <v>42025</v>
+      </c>
+      <c r="B364" s="8">
+        <v>106407</v>
+      </c>
+      <c r="C364" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A365" s="1">
+        <v>42026</v>
+      </c>
+      <c r="B365" s="8">
+        <v>104807</v>
+      </c>
+      <c r="C365" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A366" s="1">
+        <v>42027</v>
+      </c>
+      <c r="B366" s="8">
+        <v>266494</v>
+      </c>
+      <c r="C366" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A367" s="1">
+        <v>42028</v>
+      </c>
+      <c r="B367" s="8">
+        <v>515221</v>
+      </c>
+      <c r="C367" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A368" s="1">
+        <v>42029</v>
+      </c>
+      <c r="B368" s="8">
+        <v>258639</v>
+      </c>
+      <c r="C368" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A369" s="1">
+        <v>42030</v>
+      </c>
+      <c r="B369" s="8">
+        <v>60578</v>
+      </c>
+      <c r="C369" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A370" s="1">
+        <v>42031</v>
+      </c>
+      <c r="B370" s="8">
+        <v>74249</v>
+      </c>
+      <c r="C370" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A371" s="1">
+        <v>42032</v>
+      </c>
+      <c r="B371" s="8">
+        <v>61561</v>
+      </c>
+      <c r="C371" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A372" s="1">
+        <v>42033</v>
+      </c>
+      <c r="B372" s="8">
+        <v>55485</v>
+      </c>
+      <c r="C372" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A373" s="1">
+        <v>42034</v>
+      </c>
+      <c r="B373" s="8">
+        <v>169617</v>
+      </c>
+      <c r="C373" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A374" s="1">
+        <v>42035</v>
+      </c>
+      <c r="B374" s="8">
+        <v>295519</v>
+      </c>
+      <c r="C374" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A375" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B375" s="8">
+        <v>85117</v>
+      </c>
+      <c r="C375" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A376" s="1">
+        <v>42037</v>
+      </c>
+      <c r="B376" s="8">
+        <v>43071</v>
+      </c>
+      <c r="C376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A377" s="1">
+        <v>42038</v>
+      </c>
+      <c r="B377" s="8">
+        <v>47925</v>
+      </c>
+      <c r="C377" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A378" s="1">
+        <v>42039</v>
+      </c>
+      <c r="B378" s="8">
+        <v>39493</v>
+      </c>
+      <c r="C378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A379" s="1">
+        <v>42040</v>
+      </c>
+      <c r="B379" s="8">
+        <v>35560</v>
+      </c>
+      <c r="C379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A380" s="1">
+        <v>42041</v>
+      </c>
+      <c r="B380" s="8">
+        <v>106605</v>
+      </c>
+      <c r="C380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A381" s="1">
+        <v>42042</v>
+      </c>
+      <c r="B381" s="8">
+        <v>200965</v>
+      </c>
+      <c r="C381" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A382" s="1">
+        <v>42043</v>
+      </c>
+      <c r="B382" s="8">
+        <v>103361</v>
+      </c>
+      <c r="C382" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A383" s="1">
+        <v>42044</v>
+      </c>
+      <c r="B383" s="8">
+        <v>30872</v>
+      </c>
+      <c r="C383" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A384" s="1">
+        <v>42045</v>
+      </c>
+      <c r="B384" s="8">
+        <v>32323</v>
+      </c>
+      <c r="C384" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A385" s="1">
+        <v>42046</v>
+      </c>
+      <c r="B385" s="8">
+        <v>28345</v>
+      </c>
+      <c r="C385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A386" s="1">
+        <v>42047</v>
+      </c>
+      <c r="B386" s="8">
+        <v>28633</v>
+      </c>
+      <c r="C386" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A387" s="1">
+        <v>42048</v>
+      </c>
+      <c r="B387" s="8">
+        <v>65188</v>
+      </c>
+      <c r="C387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A388" s="1">
+        <v>42049</v>
+      </c>
+      <c r="B388" s="8">
+        <v>152740</v>
+      </c>
+      <c r="C388" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A389" s="1">
+        <v>42050</v>
+      </c>
+      <c r="B389" s="8">
+        <v>85037</v>
+      </c>
+      <c r="C389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A390" s="1">
+        <v>42051</v>
+      </c>
+      <c r="B390" s="8">
+        <v>59616</v>
+      </c>
+      <c r="C390" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A391" s="1">
+        <v>42052</v>
+      </c>
+      <c r="B391" s="8">
+        <v>21141</v>
+      </c>
+      <c r="C391" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A392" s="1">
+        <v>42053</v>
+      </c>
+      <c r="B392" s="8">
+        <v>19843</v>
+      </c>
+      <c r="C392" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A393" s="1">
+        <v>42054</v>
+      </c>
+      <c r="B393" s="8">
+        <v>19470</v>
+      </c>
+      <c r="C393" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A394" s="1">
+        <v>42055</v>
+      </c>
+      <c r="B394" s="8">
+        <v>48397</v>
+      </c>
+      <c r="C394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A395" s="1">
+        <v>42056</v>
+      </c>
+      <c r="B395" s="8">
+        <v>72751</v>
+      </c>
+      <c r="C395" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A396" s="1">
+        <v>42057</v>
+      </c>
+      <c r="B396" s="8">
+        <v>41115</v>
+      </c>
+      <c r="C396" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A397" s="1">
+        <v>42058</v>
+      </c>
+      <c r="B397" s="8">
+        <v>13000</v>
+      </c>
+      <c r="C397" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A398" s="1">
+        <v>42059</v>
+      </c>
+      <c r="B398" s="8">
+        <v>14744</v>
+      </c>
+      <c r="C398" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A399" s="1">
+        <v>42060</v>
+      </c>
+      <c r="B399" s="8">
+        <v>12232</v>
+      </c>
+      <c r="C399" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A400" s="1">
+        <v>42061</v>
+      </c>
+      <c r="B400" s="8">
+        <v>13648</v>
+      </c>
+      <c r="C400" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A401" s="1">
+        <v>42062</v>
+      </c>
+      <c r="B401" s="8">
+        <v>62159</v>
+      </c>
+      <c r="C401" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A402" s="1">
+        <v>42063</v>
+      </c>
+      <c r="B402" s="8">
+        <v>118980</v>
+      </c>
+      <c r="C402" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A403" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B403" s="8">
+        <v>72153</v>
+      </c>
+      <c r="C403" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A404" s="1">
+        <v>42065</v>
+      </c>
+      <c r="B404" s="8">
+        <v>19634</v>
+      </c>
+      <c r="C404" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A405" s="1">
+        <v>42066</v>
+      </c>
+      <c r="B405" s="8">
+        <v>21347</v>
+      </c>
+      <c r="C405" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A406" s="1">
+        <v>42067</v>
+      </c>
+      <c r="B406" s="8">
+        <v>17169</v>
+      </c>
+      <c r="C406" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A407" s="1">
+        <v>42068</v>
+      </c>
+      <c r="B407" s="8">
+        <v>21213</v>
+      </c>
+      <c r="C407" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A408" s="1">
+        <v>42069</v>
+      </c>
+      <c r="B408" s="8">
+        <v>47455</v>
+      </c>
+      <c r="C408" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A409" s="1">
+        <v>42070</v>
+      </c>
+      <c r="B409" s="8">
+        <v>77420</v>
+      </c>
+      <c r="C409" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A410" s="1">
+        <v>42071</v>
+      </c>
+      <c r="B410" s="8">
+        <v>40805</v>
+      </c>
+      <c r="C410" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A411" s="1">
+        <v>42072</v>
+      </c>
+      <c r="B411" s="8">
+        <v>13975</v>
+      </c>
+      <c r="C411" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A412" s="1">
+        <v>42073</v>
+      </c>
+      <c r="B412" s="8">
+        <v>15975</v>
+      </c>
+      <c r="C412" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A413" s="1">
+        <v>42074</v>
+      </c>
+      <c r="B413" s="8">
+        <v>12838</v>
+      </c>
+      <c r="C413" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A414" s="1">
+        <v>42075</v>
+      </c>
+      <c r="B414" s="8">
+        <v>13432</v>
+      </c>
+      <c r="C414" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A415" s="1">
+        <v>42076</v>
+      </c>
+      <c r="B415" s="8">
+        <v>25403</v>
+      </c>
+      <c r="C415" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A416" s="1">
+        <v>42077</v>
+      </c>
+      <c r="B416" s="8">
+        <v>39374</v>
+      </c>
+      <c r="C416" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A417" s="1">
+        <v>42078</v>
+      </c>
+      <c r="B417" s="8">
+        <v>20541</v>
+      </c>
+      <c r="C417" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A418" s="1">
+        <v>42079</v>
+      </c>
+      <c r="B418" s="8">
+        <v>7173</v>
+      </c>
+      <c r="C418" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A419" s="1">
+        <v>42080</v>
+      </c>
+      <c r="B419" s="8">
+        <v>8421</v>
+      </c>
+      <c r="C419" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A420" s="1">
+        <v>42081</v>
+      </c>
+      <c r="B420" s="8">
+        <v>7711</v>
+      </c>
+      <c r="C420" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A421" s="1">
+        <v>42082</v>
+      </c>
+      <c r="B421" s="8">
+        <v>8707</v>
+      </c>
+      <c r="C421" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A422" s="1">
+        <v>42328</v>
+      </c>
+      <c r="B422" s="8">
+        <v>45579056</v>
+      </c>
+      <c r="C422" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A423" s="1">
+        <v>42329</v>
+      </c>
+      <c r="B423" s="8">
+        <v>33841369</v>
+      </c>
+      <c r="C423" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A424" s="1">
+        <v>42330</v>
+      </c>
+      <c r="B424" s="8">
+        <v>23245556</v>
+      </c>
+      <c r="C424" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A425" s="1">
+        <v>42331</v>
+      </c>
+      <c r="B425" s="8">
+        <v>8540357</v>
+      </c>
+      <c r="C425" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A426" s="1">
+        <v>42332</v>
+      </c>
+      <c r="B426" s="8">
+        <v>11356003</v>
+      </c>
+      <c r="C426" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A427" s="1">
+        <v>42333</v>
+      </c>
+      <c r="B427" s="8">
+        <v>13663451</v>
+      </c>
+      <c r="C427" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A428" s="1">
+        <v>42334</v>
+      </c>
+      <c r="B428" s="8">
+        <v>10314742</v>
+      </c>
+      <c r="C428" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A429" s="1">
+        <v>42335</v>
+      </c>
+      <c r="B429" s="8">
+        <v>21263932</v>
+      </c>
+      <c r="C429" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A430" s="1">
+        <v>42336</v>
+      </c>
+      <c r="B430" s="8">
+        <v>20215233</v>
+      </c>
+      <c r="C430" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A431" s="1">
+        <v>42337</v>
+      </c>
+      <c r="B431" s="8">
+        <v>10525430</v>
+      </c>
+      <c r="C431" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A432" s="1">
+        <v>42338</v>
+      </c>
+      <c r="B432" s="8">
+        <v>2546218</v>
+      </c>
+      <c r="C432" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A433" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B433" s="8">
+        <v>3102455</v>
+      </c>
+      <c r="C433" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A434" s="1">
+        <v>42340</v>
+      </c>
+      <c r="B434" s="8">
+        <v>2186352</v>
+      </c>
+      <c r="C434" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A435" s="1">
+        <v>42341</v>
+      </c>
+      <c r="B435" s="8">
+        <v>2131846</v>
+      </c>
+      <c r="C435" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A436" s="1">
+        <v>42342</v>
+      </c>
+      <c r="B436" s="8">
+        <v>5664847</v>
+      </c>
+      <c r="C436" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A437" s="1">
+        <v>42343</v>
+      </c>
+      <c r="B437" s="8">
+        <v>8301010</v>
+      </c>
+      <c r="C437" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A438" s="1">
+        <v>42344</v>
+      </c>
+      <c r="B438" s="8">
+        <v>4891690</v>
+      </c>
+      <c r="C438" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A439" s="1">
+        <v>42345</v>
+      </c>
+      <c r="B439" s="8">
+        <v>1365908</v>
+      </c>
+      <c r="C439" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A440" s="1">
+        <v>42346</v>
+      </c>
+      <c r="B440" s="8">
+        <v>1790383</v>
+      </c>
+      <c r="C440" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A441" s="1">
+        <v>42347</v>
+      </c>
+      <c r="B441" s="8">
+        <v>1380282</v>
+      </c>
+      <c r="C441" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A442" s="1">
+        <v>42348</v>
+      </c>
+      <c r="B442" s="8">
+        <v>1284836</v>
+      </c>
+      <c r="C442" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A443" s="1">
+        <v>42349</v>
+      </c>
+      <c r="B443" s="8">
+        <v>3306775</v>
+      </c>
+      <c r="C443" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A444" s="1">
+        <v>42350</v>
+      </c>
+      <c r="B444" s="8">
+        <v>5021834</v>
+      </c>
+      <c r="C444" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A445" s="1">
+        <v>42351</v>
+      </c>
+      <c r="B445" s="8">
+        <v>3084707</v>
+      </c>
+      <c r="C445" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A446" s="1">
+        <v>42352</v>
+      </c>
+      <c r="B446" s="8">
+        <v>1022526</v>
+      </c>
+      <c r="C446" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A447" s="1">
+        <v>42353</v>
+      </c>
+      <c r="B447" s="8">
+        <v>1256386</v>
+      </c>
+      <c r="C447" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A448" s="1">
+        <v>42354</v>
+      </c>
+      <c r="B448" s="8">
+        <v>1030120</v>
+      </c>
+      <c r="C448" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A449" s="1">
+        <v>42355</v>
+      </c>
+      <c r="B449" s="8">
+        <v>875470</v>
+      </c>
+      <c r="C449" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A450" s="1">
+        <v>42356</v>
+      </c>
+      <c r="B450" s="8">
+        <v>1543423</v>
+      </c>
+      <c r="C450" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A451" s="1">
+        <v>42357</v>
+      </c>
+      <c r="B451" s="8">
+        <v>2299127</v>
+      </c>
+      <c r="C451" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A452" s="1">
+        <v>42358</v>
+      </c>
+      <c r="B452" s="8">
+        <v>1850133</v>
+      </c>
+      <c r="C452" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A453" s="1">
+        <v>42359</v>
+      </c>
+      <c r="B453" s="8">
+        <v>1203588</v>
+      </c>
+      <c r="C453" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A454" s="1">
+        <v>42360</v>
+      </c>
+      <c r="B454" s="8">
+        <v>1433638</v>
+      </c>
+      <c r="C454" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A455" s="1">
+        <v>42361</v>
+      </c>
+      <c r="B455" s="8">
+        <v>1324378</v>
+      </c>
+      <c r="C455" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A456" s="1">
+        <v>42362</v>
+      </c>
+      <c r="B456" s="8">
+        <v>819796</v>
+      </c>
+      <c r="C456" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A457" s="1">
+        <v>42363</v>
+      </c>
+      <c r="B457" s="8">
+        <v>1502628</v>
+      </c>
+      <c r="C457" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A458" s="1">
+        <v>42364</v>
+      </c>
+      <c r="B458" s="8">
+        <v>2059324</v>
+      </c>
+      <c r="C458" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A459" s="1">
+        <v>42365</v>
+      </c>
+      <c r="B459" s="8">
+        <v>1715876</v>
+      </c>
+      <c r="C459" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A460" s="1">
+        <v>42366</v>
+      </c>
+      <c r="B460" s="8">
+        <v>1345163</v>
+      </c>
+      <c r="C460" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A461" s="1">
+        <v>42367</v>
+      </c>
+      <c r="B461" s="8">
+        <v>1358613</v>
+      </c>
+      <c r="C461" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A462" s="1">
+        <v>42368</v>
+      </c>
+      <c r="B462" s="8">
+        <v>1303498</v>
+      </c>
+      <c r="C462" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A463" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B463" s="8">
+        <v>1021162</v>
+      </c>
+      <c r="C463" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A464" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B464" s="8">
+        <v>1740412</v>
+      </c>
+      <c r="C464" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A465" s="1">
+        <v>42371</v>
+      </c>
+      <c r="B465" s="8">
+        <v>1846722</v>
+      </c>
+      <c r="C465" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A466" s="1">
+        <v>42372</v>
+      </c>
+      <c r="B466" s="8">
+        <v>1029140</v>
+      </c>
+      <c r="C466" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A467" s="1">
+        <v>42373</v>
+      </c>
+      <c r="B467" s="8">
+        <v>388171</v>
+      </c>
+      <c r="C467" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A468" s="1">
+        <v>42374</v>
+      </c>
+      <c r="B468" s="8">
+        <v>360573</v>
+      </c>
+      <c r="C468" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A469" s="1">
+        <v>42375</v>
+      </c>
+      <c r="B469" s="8">
+        <v>288529</v>
+      </c>
+      <c r="C469" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A470" s="1">
+        <v>42376</v>
+      </c>
+      <c r="B470" s="8">
+        <v>248942</v>
+      </c>
+      <c r="C470" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A471" s="1">
+        <v>42377</v>
+      </c>
+      <c r="B471" s="8">
+        <v>589238</v>
+      </c>
+      <c r="C471" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A472" s="1">
+        <v>42378</v>
+      </c>
+      <c r="B472" s="8">
+        <v>982061</v>
+      </c>
+      <c r="C472" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A473" s="1">
+        <v>42379</v>
+      </c>
+      <c r="B473" s="8">
+        <v>535588</v>
+      </c>
+      <c r="C473" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A474" s="1">
+        <v>42380</v>
+      </c>
+      <c r="B474" s="8">
+        <v>145352</v>
+      </c>
+      <c r="C474" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A475" s="1">
+        <v>42381</v>
+      </c>
+      <c r="B475" s="8">
+        <v>177198</v>
+      </c>
+      <c r="C475" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A476" s="1">
+        <v>42382</v>
+      </c>
+      <c r="B476" s="8">
+        <v>149363</v>
+      </c>
+      <c r="C476" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A477" s="1">
+        <v>42383</v>
+      </c>
+      <c r="B477" s="8">
+        <v>128458</v>
+      </c>
+      <c r="C477" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A478" s="1">
+        <v>42384</v>
+      </c>
+      <c r="B478" s="8">
+        <v>296944</v>
+      </c>
+      <c r="C478" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A479" s="1">
+        <v>42385</v>
+      </c>
+      <c r="B479" s="8">
+        <v>488485</v>
+      </c>
+      <c r="C479" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A480" s="1">
+        <v>42386</v>
+      </c>
+      <c r="B480" s="8">
+        <v>346707</v>
+      </c>
+      <c r="C480" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A481" s="1">
+        <v>42387</v>
+      </c>
+      <c r="B481" s="8">
+        <v>288580</v>
+      </c>
+      <c r="C481" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A482" s="1">
+        <v>42388</v>
+      </c>
+      <c r="B482" s="8">
+        <v>92096</v>
+      </c>
+      <c r="C482" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A483" s="1">
+        <v>42389</v>
+      </c>
+      <c r="B483" s="8">
+        <v>65653</v>
+      </c>
+      <c r="C483" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A484" s="1">
+        <v>42390</v>
+      </c>
+      <c r="B484" s="8">
+        <v>67741</v>
+      </c>
+      <c r="C484" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A485" s="1">
+        <v>42391</v>
+      </c>
+      <c r="B485" s="8">
+        <v>129071</v>
+      </c>
+      <c r="C485" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A486" s="1">
+        <v>42392</v>
+      </c>
+      <c r="B486" s="8">
+        <v>242755</v>
+      </c>
+      <c r="C486" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A487" s="1">
+        <v>42393</v>
+      </c>
+      <c r="B487" s="8">
+        <v>105557</v>
+      </c>
+      <c r="C487" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A488" s="1">
+        <v>42394</v>
+      </c>
+      <c r="B488" s="8">
+        <v>37623</v>
+      </c>
+      <c r="C488" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A489" s="1">
+        <v>42395</v>
+      </c>
+      <c r="B489" s="8">
+        <v>48229</v>
+      </c>
+      <c r="C489" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A490" s="1">
+        <v>42396</v>
+      </c>
+      <c r="B490" s="8">
+        <v>41143</v>
+      </c>
+      <c r="C490" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A491" s="1">
+        <v>42397</v>
+      </c>
+      <c r="B491" s="8">
+        <v>38038</v>
+      </c>
+      <c r="C491" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A492" s="1">
+        <v>42398</v>
+      </c>
+      <c r="B492" s="8">
+        <v>73002</v>
+      </c>
+      <c r="C492" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A493" s="1">
+        <v>42399</v>
+      </c>
+      <c r="B493" s="8">
+        <v>129801</v>
+      </c>
+      <c r="C493" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A494" s="1">
+        <v>42400</v>
+      </c>
+      <c r="B494" s="8">
+        <v>67241</v>
+      </c>
+      <c r="C494" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A495" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B495" s="8">
+        <v>19592</v>
+      </c>
+      <c r="C495" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A496" s="1">
+        <v>42402</v>
+      </c>
+      <c r="B496" s="8">
+        <v>22687</v>
+      </c>
+      <c r="C496" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A497" s="1">
+        <v>42403</v>
+      </c>
+      <c r="B497" s="8">
+        <v>18508</v>
+      </c>
+      <c r="C497" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A498" s="1">
+        <v>42404</v>
+      </c>
+      <c r="B498" s="8">
+        <v>15452</v>
+      </c>
+      <c r="C498" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A499" s="1">
+        <v>42405</v>
+      </c>
+      <c r="B499" s="8">
+        <v>49735</v>
+      </c>
+      <c r="C499" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A500" s="1">
+        <v>42406</v>
+      </c>
+      <c r="B500" s="8">
+        <v>86955</v>
+      </c>
+      <c r="C500" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A501" s="1">
+        <v>42407</v>
+      </c>
+      <c r="B501" s="8">
+        <v>25537</v>
+      </c>
+      <c r="C501" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A502" s="1">
+        <v>42408</v>
+      </c>
+      <c r="B502" s="8">
+        <v>13632</v>
+      </c>
+      <c r="C502" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A503" s="1">
+        <v>42409</v>
+      </c>
+      <c r="B503" s="8">
+        <v>15542</v>
+      </c>
+      <c r="C503" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A504" s="1">
+        <v>42410</v>
+      </c>
+      <c r="B504" s="8">
+        <v>13461</v>
+      </c>
+      <c r="C504" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A505" s="1">
+        <v>42411</v>
+      </c>
+      <c r="B505" s="8">
+        <v>13851</v>
+      </c>
+      <c r="C505" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A506" s="1">
+        <v>42412</v>
+      </c>
+      <c r="B506" s="8">
+        <v>71287</v>
+      </c>
+      <c r="C506" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A507" s="1">
+        <v>42413</v>
+      </c>
+      <c r="B507" s="8">
+        <v>122885</v>
+      </c>
+      <c r="C507" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A508" s="1">
+        <v>42414</v>
+      </c>
+      <c r="B508" s="8">
+        <v>114198</v>
+      </c>
+      <c r="C508" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A509" s="1">
+        <v>42415</v>
+      </c>
+      <c r="B509" s="8">
+        <v>61608</v>
+      </c>
+      <c r="C509" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A510" s="1">
+        <v>42416</v>
+      </c>
+      <c r="B510" s="8">
+        <v>26509</v>
+      </c>
+      <c r="C510" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A511" s="1">
+        <v>42417</v>
+      </c>
+      <c r="B511" s="8">
+        <v>21231</v>
+      </c>
+      <c r="C511" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A512" s="1">
+        <v>42418</v>
+      </c>
+      <c r="B512" s="8">
+        <v>22984</v>
+      </c>
+      <c r="C512" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A513" s="1">
+        <v>42419</v>
+      </c>
+      <c r="B513" s="8">
+        <v>51702</v>
+      </c>
+      <c r="C513" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A514" s="1">
+        <v>42420</v>
+      </c>
+      <c r="B514" s="8">
+        <v>88932</v>
+      </c>
+      <c r="C514" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A515" s="1">
+        <v>42421</v>
+      </c>
+      <c r="B515" s="8">
+        <v>52236</v>
+      </c>
+      <c r="C515" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A516" s="1">
+        <v>42422</v>
+      </c>
+      <c r="B516" s="8">
+        <v>13428</v>
+      </c>
+      <c r="C516" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A517" s="1">
+        <v>42423</v>
+      </c>
+      <c r="B517" s="8">
+        <v>14978</v>
+      </c>
+      <c r="C517" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A518" s="1">
+        <v>42424</v>
+      </c>
+      <c r="B518" s="8">
+        <v>14102</v>
+      </c>
+      <c r="C518" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A519" s="1">
+        <v>42425</v>
+      </c>
+      <c r="B519" s="8">
+        <v>15336</v>
+      </c>
+      <c r="C519" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4-childrens-series/hunger-games.xlsx
+++ b/4-childrens-series/hunger-games.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3D25AE05-E4BC-5F4B-B24C-89E9B9D82711}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECCF353F-249C-2247-A0ED-03EC71C0E96F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30500" yWindow="2500" windowWidth="20700" windowHeight="21180" activeTab="1" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="9580" yWindow="3720" windowWidth="20700" windowHeight="21180" activeTab="3" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
+    <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
+    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="29">
   <si>
     <t>Published Date</t>
   </si>
@@ -83,6 +85,36 @@
   </si>
   <si>
     <t>Mockingjay Pt.  2</t>
+  </si>
+  <si>
+    <t>Week End</t>
+  </si>
+  <si>
+    <t>Week Start</t>
+  </si>
+  <si>
+    <t>Box Office Gross</t>
+  </si>
+  <si>
+    <t>Mockingjay Pt. 1</t>
+  </si>
+  <si>
+    <t>Mockingjay Pt. 2</t>
+  </si>
+  <si>
+    <t>Correlation:</t>
+  </si>
+  <si>
+    <t>Hunger Games Correlation:</t>
+  </si>
+  <si>
+    <t>Catching Fire Correlation:</t>
+  </si>
+  <si>
+    <t>Mockingjay Pt. 1 Correlation:</t>
+  </si>
+  <si>
+    <t>Mockingjay Pt. 2 Correlation:</t>
   </si>
 </sst>
 </file>
@@ -461,7 +493,7 @@
   <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+      <selection activeCell="B1" sqref="B1:D277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4658,8 +4690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C8ED24-F263-F447-8FE0-5FD78D379546}">
   <dimension ref="A1:C519"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="C423" sqref="C423"/>
+    <sheetView topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="B303" sqref="B303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10381,4 +10413,4316 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BD55B2-E678-AE40-A4FD-3D286CEEA9BD}">
+  <dimension ref="A1:D277"/>
+  <sheetViews>
+    <sheetView topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="E277" sqref="E277"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>40413</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40419</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">B3-6</f>
+        <v>40420</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40426</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>40427</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40433</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>40434</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40440</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>40441</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40447</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>40448</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40454</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>40455</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40461</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>40462</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40468</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>40469</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40475</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>40476</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40482</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>40483</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40489</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>40490</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40496</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>40497</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40503</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>40504</v>
+      </c>
+      <c r="B15" s="1">
+        <v>40510</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>40511</v>
+      </c>
+      <c r="B16" s="1">
+        <v>40517</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>40518</v>
+      </c>
+      <c r="B17" s="1">
+        <v>40524</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>40525</v>
+      </c>
+      <c r="B18" s="1">
+        <v>40531</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>40532</v>
+      </c>
+      <c r="B19" s="1">
+        <v>40538</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>40539</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40545</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>40546</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40552</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>40553</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40559</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>40560</v>
+      </c>
+      <c r="B23" s="1">
+        <v>40566</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>40567</v>
+      </c>
+      <c r="B24" s="1">
+        <v>40573</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>40573</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40579</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>40580</v>
+      </c>
+      <c r="B26" s="1">
+        <v>40586</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>40587</v>
+      </c>
+      <c r="B27" s="1">
+        <v>40593</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>40594</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40600</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>40601</v>
+      </c>
+      <c r="B29" s="1">
+        <v>40607</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>40608</v>
+      </c>
+      <c r="B30" s="1">
+        <v>40614</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>40615</v>
+      </c>
+      <c r="B31" s="1">
+        <v>40621</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>40622</v>
+      </c>
+      <c r="B32" s="1">
+        <v>40628</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>40629</v>
+      </c>
+      <c r="B33" s="1">
+        <v>40635</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>40636</v>
+      </c>
+      <c r="B34" s="1">
+        <v>40642</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>40643</v>
+      </c>
+      <c r="B35" s="1">
+        <v>40649</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>40650</v>
+      </c>
+      <c r="B36" s="1">
+        <v>40656</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>40657</v>
+      </c>
+      <c r="B37" s="1">
+        <v>40663</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>40664</v>
+      </c>
+      <c r="B38" s="1">
+        <v>40670</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>40671</v>
+      </c>
+      <c r="B39" s="1">
+        <v>40677</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>40678</v>
+      </c>
+      <c r="B40" s="1">
+        <v>40684</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40685</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40691</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40692</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40698</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>40699</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40705</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>40706</v>
+      </c>
+      <c r="B44" s="1">
+        <v>40712</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>40713</v>
+      </c>
+      <c r="B45" s="1">
+        <v>40719</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>40720</v>
+      </c>
+      <c r="B46" s="1">
+        <v>40726</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>40727</v>
+      </c>
+      <c r="B47" s="1">
+        <v>40733</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>40734</v>
+      </c>
+      <c r="B48" s="1">
+        <v>40740</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>40741</v>
+      </c>
+      <c r="B49" s="1">
+        <v>40747</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>40748</v>
+      </c>
+      <c r="B50" s="1">
+        <v>40754</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>40755</v>
+      </c>
+      <c r="B51" s="1">
+        <v>40761</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>40762</v>
+      </c>
+      <c r="B52" s="1">
+        <v>40768</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>40769</v>
+      </c>
+      <c r="B53" s="1">
+        <v>40775</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>40776</v>
+      </c>
+      <c r="B54" s="1">
+        <v>40782</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>40783</v>
+      </c>
+      <c r="B55" s="1">
+        <v>40789</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>40790</v>
+      </c>
+      <c r="B56" s="1">
+        <v>40796</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>40797</v>
+      </c>
+      <c r="B57" s="1">
+        <v>40803</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>40804</v>
+      </c>
+      <c r="B58" s="1">
+        <v>40810</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>40811</v>
+      </c>
+      <c r="B59" s="1">
+        <v>40817</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>40818</v>
+      </c>
+      <c r="B60" s="1">
+        <v>40824</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>40825</v>
+      </c>
+      <c r="B61" s="1">
+        <v>40831</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>40832</v>
+      </c>
+      <c r="B62" s="1">
+        <v>40838</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>40839</v>
+      </c>
+      <c r="B63" s="1">
+        <v>40845</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>40846</v>
+      </c>
+      <c r="B64" s="1">
+        <v>40852</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>40853</v>
+      </c>
+      <c r="B65" s="1">
+        <v>40859</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>40860</v>
+      </c>
+      <c r="B66" s="1">
+        <v>40866</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A130" si="1">B67-6</f>
+        <v>40867</v>
+      </c>
+      <c r="B67" s="1">
+        <v>40873</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>40874</v>
+      </c>
+      <c r="B68" s="1">
+        <v>40880</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>40881</v>
+      </c>
+      <c r="B69" s="1">
+        <v>40887</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>40888</v>
+      </c>
+      <c r="B70" s="1">
+        <v>40894</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>40895</v>
+      </c>
+      <c r="B71" s="1">
+        <v>40901</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>40902</v>
+      </c>
+      <c r="B72" s="1">
+        <v>40908</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>40909</v>
+      </c>
+      <c r="B73" s="1">
+        <v>40915</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>40916</v>
+      </c>
+      <c r="B74" s="1">
+        <v>40922</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>40923</v>
+      </c>
+      <c r="B75" s="1">
+        <v>40929</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>40930</v>
+      </c>
+      <c r="B76" s="1">
+        <v>40936</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>40937</v>
+      </c>
+      <c r="B77" s="1">
+        <v>40943</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>40944</v>
+      </c>
+      <c r="B78" s="1">
+        <v>40950</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>40951</v>
+      </c>
+      <c r="B79" s="1">
+        <v>40957</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>40958</v>
+      </c>
+      <c r="B80" s="1">
+        <v>40964</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>40965</v>
+      </c>
+      <c r="B81" s="1">
+        <v>40971</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>40972</v>
+      </c>
+      <c r="B82" s="1">
+        <v>40978</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>40979</v>
+      </c>
+      <c r="B83" s="1">
+        <v>40985</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>40986</v>
+      </c>
+      <c r="B84" s="1">
+        <v>40992</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" s="8">
+        <f>SUM('Box Office'!B2:B3)</f>
+        <v>117658069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>40993</v>
+      </c>
+      <c r="B85" s="1">
+        <v>40999</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" s="8">
+        <f>SUM('Box Office'!B4:B10)</f>
+        <v>115666202</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>41000</v>
+      </c>
+      <c r="B86" s="1">
+        <v>41006</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86" s="8">
+        <f>SUM('Box Office'!B11:B17)</f>
+        <v>61832119</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>41007</v>
+      </c>
+      <c r="B87" s="1">
+        <v>41013</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" s="8">
+        <f>SUM('Box Office'!B18:B24)</f>
+        <v>36133932</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>41014</v>
+      </c>
+      <c r="B88" s="1">
+        <v>41020</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" s="8">
+        <f>SUM('Box Office'!B25:B31)</f>
+        <v>21624438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>41021</v>
+      </c>
+      <c r="B89" s="1">
+        <v>41027</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" s="8">
+        <f>SUM('Box Office'!B32:B38)</f>
+        <v>16250232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>41028</v>
+      </c>
+      <c r="B90" s="1">
+        <v>41034</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" s="8">
+        <f>SUM('Box Office'!B39:B45)</f>
+        <v>9918929</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>41035</v>
+      </c>
+      <c r="B91" s="1">
+        <v>41041</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" s="8">
+        <f>SUM('Box Office'!B46:B52)</f>
+        <v>6461512</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>41042</v>
+      </c>
+      <c r="B92" s="1">
+        <v>41048</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92" s="8">
+        <f>SUM('Box Office'!B53:B59)</f>
+        <v>5180723</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>41049</v>
+      </c>
+      <c r="B93" s="1">
+        <v>41055</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93" s="8">
+        <f>SUM('Box Office'!B60:B66)</f>
+        <v>3764561</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>41056</v>
+      </c>
+      <c r="B94" s="1">
+        <v>41062</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94" s="8">
+        <f>SUM('Box Office'!B67:B73)</f>
+        <v>3415318</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>41063</v>
+      </c>
+      <c r="B95" s="1">
+        <v>41069</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95" s="8">
+        <f>SUM('Box Office'!B74:B80)</f>
+        <v>2044239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>41070</v>
+      </c>
+      <c r="B96" s="1">
+        <v>41076</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96" s="8">
+        <f>SUM('Box Office'!B81:B87)</f>
+        <v>1549243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>41077</v>
+      </c>
+      <c r="B97" s="1">
+        <v>41083</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97" s="8">
+        <f>SUM('Box Office'!B88:B94)</f>
+        <v>1280268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>41084</v>
+      </c>
+      <c r="B98" s="1">
+        <v>41090</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" s="8">
+        <f>SUM('Box Office'!B95:B101)</f>
+        <v>864064</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>41091</v>
+      </c>
+      <c r="B99" s="1">
+        <v>41097</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99" s="8">
+        <f>SUM('Box Office'!B102:B108)</f>
+        <v>650034</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>41098</v>
+      </c>
+      <c r="B100" s="1">
+        <v>41104</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="8">
+        <f>SUM('Box Office'!B109:B115)</f>
+        <v>488480</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <f t="shared" si="1"/>
+        <v>41105</v>
+      </c>
+      <c r="B101" s="1">
+        <v>41111</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101" s="8">
+        <f>SUM('Box Office'!B116:B122)</f>
+        <v>391251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <f t="shared" si="1"/>
+        <v>41112</v>
+      </c>
+      <c r="B102" s="1">
+        <v>41118</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102" s="8">
+        <f>SUM('Box Office'!B123:B129)</f>
+        <v>545966</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <f t="shared" si="1"/>
+        <v>41119</v>
+      </c>
+      <c r="B103" s="1">
+        <v>41125</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103" s="8">
+        <f>SUM('Box Office'!B130:B136)</f>
+        <v>850132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <f t="shared" si="1"/>
+        <v>41126</v>
+      </c>
+      <c r="B104" s="1">
+        <v>41132</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104" s="8">
+        <f>SUM('Box Office'!B137:B143)</f>
+        <v>633172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <f t="shared" si="1"/>
+        <v>41133</v>
+      </c>
+      <c r="B105" s="1">
+        <v>41139</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105" s="8">
+        <f>SUM('Box Office'!B144:B150)</f>
+        <v>430914</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <f t="shared" si="1"/>
+        <v>41140</v>
+      </c>
+      <c r="B106" s="1">
+        <v>41146</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" s="8">
+        <f>SUM('Box Office'!B151:B157)</f>
+        <v>218838</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <f t="shared" si="1"/>
+        <v>41147</v>
+      </c>
+      <c r="B107" s="1">
+        <v>41153</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" s="8">
+        <f>SUM('Box Office'!B158:B164)</f>
+        <v>108808</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <f t="shared" si="1"/>
+        <v>41154</v>
+      </c>
+      <c r="B108" s="1">
+        <v>41160</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108" s="8">
+        <f>SUM('Box Office'!B165:B169)</f>
+        <v>49248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <f t="shared" si="1"/>
+        <v>41161</v>
+      </c>
+      <c r="B109" s="1">
+        <v>41167</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <f t="shared" si="1"/>
+        <v>41168</v>
+      </c>
+      <c r="B110" s="1">
+        <v>41174</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <f t="shared" si="1"/>
+        <v>41175</v>
+      </c>
+      <c r="B111" s="1">
+        <v>41181</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <f t="shared" si="1"/>
+        <v>41182</v>
+      </c>
+      <c r="B112" s="1">
+        <v>41188</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <f t="shared" si="1"/>
+        <v>41189</v>
+      </c>
+      <c r="B113" s="1">
+        <v>41195</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <f t="shared" si="1"/>
+        <v>41196</v>
+      </c>
+      <c r="B114" s="1">
+        <v>41202</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <f t="shared" si="1"/>
+        <v>41203</v>
+      </c>
+      <c r="B115" s="1">
+        <v>41209</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <f t="shared" si="1"/>
+        <v>41210</v>
+      </c>
+      <c r="B116" s="1">
+        <v>41216</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <f t="shared" si="1"/>
+        <v>41217</v>
+      </c>
+      <c r="B117" s="1">
+        <v>41223</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <f t="shared" si="1"/>
+        <v>41224</v>
+      </c>
+      <c r="B118" s="1">
+        <v>41230</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <f t="shared" si="1"/>
+        <v>41231</v>
+      </c>
+      <c r="B119" s="1">
+        <v>41237</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <f t="shared" si="1"/>
+        <v>41238</v>
+      </c>
+      <c r="B120" s="1">
+        <v>41244</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <f t="shared" si="1"/>
+        <v>41245</v>
+      </c>
+      <c r="B121" s="1">
+        <v>41251</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <f t="shared" si="1"/>
+        <v>41252</v>
+      </c>
+      <c r="B122" s="1">
+        <v>41258</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <f t="shared" si="1"/>
+        <v>41259</v>
+      </c>
+      <c r="B123" s="1">
+        <v>41265</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <f t="shared" si="1"/>
+        <v>41266</v>
+      </c>
+      <c r="B124" s="1">
+        <v>41272</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <f t="shared" si="1"/>
+        <v>41273</v>
+      </c>
+      <c r="B125" s="1">
+        <v>41279</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <f t="shared" si="1"/>
+        <v>41280</v>
+      </c>
+      <c r="B126" s="1">
+        <v>41286</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <f t="shared" si="1"/>
+        <v>41287</v>
+      </c>
+      <c r="B127" s="1">
+        <v>41293</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <f t="shared" si="1"/>
+        <v>41294</v>
+      </c>
+      <c r="B128" s="1">
+        <v>41300</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <f t="shared" si="1"/>
+        <v>41301</v>
+      </c>
+      <c r="B129" s="1">
+        <v>41307</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <f t="shared" si="1"/>
+        <v>41308</v>
+      </c>
+      <c r="B130" s="1">
+        <v>41314</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <f t="shared" ref="A131:A194" si="2">B131-6</f>
+        <v>41315</v>
+      </c>
+      <c r="B131" s="1">
+        <v>41321</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <f t="shared" si="2"/>
+        <v>41322</v>
+      </c>
+      <c r="B132" s="1">
+        <v>41328</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <f t="shared" si="2"/>
+        <v>41329</v>
+      </c>
+      <c r="B133" s="1">
+        <v>41335</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <f t="shared" si="2"/>
+        <v>41336</v>
+      </c>
+      <c r="B134" s="1">
+        <v>41342</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <f t="shared" si="2"/>
+        <v>41343</v>
+      </c>
+      <c r="B135" s="1">
+        <v>41349</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <f t="shared" si="2"/>
+        <v>41350</v>
+      </c>
+      <c r="B136" s="1">
+        <v>41356</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <f t="shared" si="2"/>
+        <v>41357</v>
+      </c>
+      <c r="B137" s="1">
+        <v>41363</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <f t="shared" si="2"/>
+        <v>41364</v>
+      </c>
+      <c r="B138" s="1">
+        <v>41370</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <f t="shared" si="2"/>
+        <v>41371</v>
+      </c>
+      <c r="B139" s="1">
+        <v>41377</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <f t="shared" si="2"/>
+        <v>41378</v>
+      </c>
+      <c r="B140" s="1">
+        <v>41384</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <f t="shared" si="2"/>
+        <v>41385</v>
+      </c>
+      <c r="B141" s="1">
+        <v>41391</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <f t="shared" si="2"/>
+        <v>41392</v>
+      </c>
+      <c r="B142" s="1">
+        <v>41398</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <f t="shared" si="2"/>
+        <v>41399</v>
+      </c>
+      <c r="B143" s="1">
+        <v>41405</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <f t="shared" si="2"/>
+        <v>41406</v>
+      </c>
+      <c r="B144" s="1">
+        <v>41412</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <f t="shared" si="2"/>
+        <v>41413</v>
+      </c>
+      <c r="B145" s="1">
+        <v>41419</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <f t="shared" si="2"/>
+        <v>41420</v>
+      </c>
+      <c r="B146" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <f t="shared" si="2"/>
+        <v>41427</v>
+      </c>
+      <c r="B147" s="1">
+        <v>41433</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <f t="shared" si="2"/>
+        <v>41434</v>
+      </c>
+      <c r="B148" s="1">
+        <v>41440</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <f t="shared" si="2"/>
+        <v>41441</v>
+      </c>
+      <c r="B149" s="1">
+        <v>41447</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <f t="shared" si="2"/>
+        <v>41448</v>
+      </c>
+      <c r="B150" s="1">
+        <v>41454</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <f t="shared" si="2"/>
+        <v>41455</v>
+      </c>
+      <c r="B151" s="1">
+        <v>41461</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <f t="shared" si="2"/>
+        <v>41462</v>
+      </c>
+      <c r="B152" s="1">
+        <v>41468</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <f t="shared" si="2"/>
+        <v>41469</v>
+      </c>
+      <c r="B153" s="1">
+        <v>41475</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <f t="shared" si="2"/>
+        <v>41476</v>
+      </c>
+      <c r="B154" s="1">
+        <v>41482</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <f t="shared" si="2"/>
+        <v>41483</v>
+      </c>
+      <c r="B155" s="1">
+        <v>41489</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <f t="shared" si="2"/>
+        <v>41490</v>
+      </c>
+      <c r="B156" s="1">
+        <v>41496</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <f t="shared" si="2"/>
+        <v>41497</v>
+      </c>
+      <c r="B157" s="1">
+        <v>41503</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <f t="shared" si="2"/>
+        <v>41504</v>
+      </c>
+      <c r="B158" s="1">
+        <v>41510</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <f t="shared" si="2"/>
+        <v>41511</v>
+      </c>
+      <c r="B159" s="1">
+        <v>41517</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <f t="shared" si="2"/>
+        <v>41518</v>
+      </c>
+      <c r="B160" s="1">
+        <v>41524</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <f t="shared" si="2"/>
+        <v>41525</v>
+      </c>
+      <c r="B161" s="1">
+        <v>41531</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <f t="shared" si="2"/>
+        <v>41532</v>
+      </c>
+      <c r="B162" s="1">
+        <v>41538</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <f t="shared" si="2"/>
+        <v>41539</v>
+      </c>
+      <c r="B163" s="1">
+        <v>41545</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <f t="shared" si="2"/>
+        <v>41546</v>
+      </c>
+      <c r="B164" s="1">
+        <v>41552</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <f t="shared" si="2"/>
+        <v>41553</v>
+      </c>
+      <c r="B165" s="1">
+        <v>41559</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <f t="shared" si="2"/>
+        <v>41560</v>
+      </c>
+      <c r="B166" s="1">
+        <v>41566</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <f t="shared" si="2"/>
+        <v>41567</v>
+      </c>
+      <c r="B167" s="1">
+        <v>41573</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <f t="shared" si="2"/>
+        <v>41574</v>
+      </c>
+      <c r="B168" s="1">
+        <v>41580</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <f t="shared" si="2"/>
+        <v>41581</v>
+      </c>
+      <c r="B169" s="1">
+        <v>41587</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <f t="shared" si="2"/>
+        <v>41588</v>
+      </c>
+      <c r="B170" s="1">
+        <v>41594</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <f t="shared" si="2"/>
+        <v>41595</v>
+      </c>
+      <c r="B171" s="1">
+        <v>41601</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171" s="8">
+        <f>SUM('Box Office'!B170:B171)</f>
+        <v>123569242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <f t="shared" si="2"/>
+        <v>41602</v>
+      </c>
+      <c r="B172" s="1">
+        <v>41608</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172" s="8">
+        <f>SUM('Box Office'!B172:B178)</f>
+        <v>158518521</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <f t="shared" si="2"/>
+        <v>41609</v>
+      </c>
+      <c r="B173" s="1">
+        <v>41615</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173" s="8">
+        <f>SUM('Box Office'!B179:B185)</f>
+        <v>47275849</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <f t="shared" si="2"/>
+        <v>41616</v>
+      </c>
+      <c r="B174" s="1">
+        <v>41622</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174" s="8">
+        <f>SUM('Box Office'!B186:B192)</f>
+        <v>24320837</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <f t="shared" si="2"/>
+        <v>41623</v>
+      </c>
+      <c r="B175" s="1">
+        <v>41629</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175" s="8">
+        <f>SUM('Box Office'!B193:B199)</f>
+        <v>15175808</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <f t="shared" si="2"/>
+        <v>41630</v>
+      </c>
+      <c r="B176" s="1">
+        <v>41636</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176" s="8">
+        <f>SUM('Box Office'!B200:B206)</f>
+        <v>19193527</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <f t="shared" si="2"/>
+        <v>41637</v>
+      </c>
+      <c r="B177" s="1">
+        <v>41643</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177" s="8">
+        <f>SUM('Box Office'!B207:B213)</f>
+        <v>17523768</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <f t="shared" si="2"/>
+        <v>41644</v>
+      </c>
+      <c r="B178" s="1">
+        <v>41650</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178" s="8">
+        <f>SUM('Box Office'!B214:B220)</f>
+        <v>7106657</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <f t="shared" si="2"/>
+        <v>41651</v>
+      </c>
+      <c r="B179" s="1">
+        <v>41657</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179" s="8">
+        <f>SUM('Box Office'!B221:B227)</f>
+        <v>4091067</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <f t="shared" si="2"/>
+        <v>41658</v>
+      </c>
+      <c r="B180" s="1">
+        <v>41664</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180" s="8">
+        <f>SUM('Box Office'!B228:B234)</f>
+        <v>2852426</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <f t="shared" si="2"/>
+        <v>41665</v>
+      </c>
+      <c r="B181" s="1">
+        <v>41671</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181" s="8">
+        <f>SUM('Box Office'!B235:B241)</f>
+        <v>1628705</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <f t="shared" si="2"/>
+        <v>41672</v>
+      </c>
+      <c r="B182" s="1">
+        <v>41678</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182" s="8">
+        <f>SUM('Box Office'!B242:B248)</f>
+        <v>982329</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <f t="shared" si="2"/>
+        <v>41679</v>
+      </c>
+      <c r="B183" s="1">
+        <v>41685</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183" s="8">
+        <f>SUM('Box Office'!B249:B255)</f>
+        <v>725923</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <f t="shared" si="2"/>
+        <v>41686</v>
+      </c>
+      <c r="B184" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" s="8">
+        <f>SUM('Box Office'!B256:B262)</f>
+        <v>583057</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <f t="shared" si="2"/>
+        <v>41693</v>
+      </c>
+      <c r="B185" s="1">
+        <v>41699</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185" s="8">
+        <f>SUM('Box Office'!B263:B269)</f>
+        <v>313105</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <f t="shared" si="2"/>
+        <v>41700</v>
+      </c>
+      <c r="B186" s="1">
+        <v>41706</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186" s="8">
+        <f>SUM('Box Office'!B270:B276)</f>
+        <v>200133</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <f t="shared" si="2"/>
+        <v>41707</v>
+      </c>
+      <c r="B187" s="1">
+        <v>41713</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187" s="8">
+        <f>SUM('Box Office'!B277:B283)</f>
+        <v>221136</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <f t="shared" si="2"/>
+        <v>41714</v>
+      </c>
+      <c r="B188" s="1">
+        <v>41720</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188" s="8">
+        <f>SUM('Box Office'!B284:B290)</f>
+        <v>218407</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <f t="shared" si="2"/>
+        <v>41721</v>
+      </c>
+      <c r="B189" s="1">
+        <v>41727</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189" s="8">
+        <f>SUM('Box Office'!B291:B297)</f>
+        <v>128489</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <f t="shared" si="2"/>
+        <v>41728</v>
+      </c>
+      <c r="B190" s="1">
+        <v>41734</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190" s="8">
+        <f>SUM('Box Office'!B298:B302)</f>
+        <v>39061</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <f t="shared" si="2"/>
+        <v>41735</v>
+      </c>
+      <c r="B191" s="1">
+        <v>41741</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <f t="shared" si="2"/>
+        <v>41742</v>
+      </c>
+      <c r="B192" s="1">
+        <v>41748</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <f t="shared" si="2"/>
+        <v>41749</v>
+      </c>
+      <c r="B193" s="1">
+        <v>41755</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <f t="shared" si="2"/>
+        <v>41756</v>
+      </c>
+      <c r="B194" s="1">
+        <v>41762</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <f t="shared" ref="A195:A258" si="3">B195-6</f>
+        <v>41763</v>
+      </c>
+      <c r="B195" s="1">
+        <v>41769</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <f t="shared" si="3"/>
+        <v>41770</v>
+      </c>
+      <c r="B196" s="1">
+        <v>41776</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <f t="shared" si="3"/>
+        <v>41777</v>
+      </c>
+      <c r="B197" s="1">
+        <v>41783</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <f t="shared" si="3"/>
+        <v>41784</v>
+      </c>
+      <c r="B198" s="1">
+        <v>41790</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <f t="shared" si="3"/>
+        <v>41791</v>
+      </c>
+      <c r="B199" s="1">
+        <v>41797</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <f t="shared" si="3"/>
+        <v>41798</v>
+      </c>
+      <c r="B200" s="1">
+        <v>41804</v>
+      </c>
+      <c r="C200">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <f t="shared" si="3"/>
+        <v>41805</v>
+      </c>
+      <c r="B201" s="1">
+        <v>41811</v>
+      </c>
+      <c r="C201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <f t="shared" si="3"/>
+        <v>41812</v>
+      </c>
+      <c r="B202" s="1">
+        <v>41818</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <f t="shared" si="3"/>
+        <v>41819</v>
+      </c>
+      <c r="B203" s="1">
+        <v>41825</v>
+      </c>
+      <c r="C203" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <f t="shared" si="3"/>
+        <v>41826</v>
+      </c>
+      <c r="B204" s="1">
+        <v>41832</v>
+      </c>
+      <c r="C204" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <f t="shared" si="3"/>
+        <v>41833</v>
+      </c>
+      <c r="B205" s="1">
+        <v>41839</v>
+      </c>
+      <c r="C205">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <f t="shared" si="3"/>
+        <v>41840</v>
+      </c>
+      <c r="B206" s="1">
+        <v>41846</v>
+      </c>
+      <c r="C206">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <f t="shared" si="3"/>
+        <v>41847</v>
+      </c>
+      <c r="B207" s="1">
+        <v>41853</v>
+      </c>
+      <c r="C207">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <f t="shared" si="3"/>
+        <v>41854</v>
+      </c>
+      <c r="B208" s="1">
+        <v>41860</v>
+      </c>
+      <c r="C208">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <f t="shared" si="3"/>
+        <v>41861</v>
+      </c>
+      <c r="B209" s="1">
+        <v>41867</v>
+      </c>
+      <c r="C209">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <f t="shared" si="3"/>
+        <v>41868</v>
+      </c>
+      <c r="B210" s="1">
+        <v>41874</v>
+      </c>
+      <c r="C210">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <f t="shared" si="3"/>
+        <v>41875</v>
+      </c>
+      <c r="B211" s="1">
+        <v>41881</v>
+      </c>
+      <c r="C211" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <f t="shared" si="3"/>
+        <v>41882</v>
+      </c>
+      <c r="B212" s="1">
+        <v>41888</v>
+      </c>
+      <c r="C212" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <f t="shared" si="3"/>
+        <v>41889</v>
+      </c>
+      <c r="B213" s="1">
+        <v>41895</v>
+      </c>
+      <c r="C213" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <f t="shared" si="3"/>
+        <v>41896</v>
+      </c>
+      <c r="B214" s="1">
+        <v>41902</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <f t="shared" si="3"/>
+        <v>41903</v>
+      </c>
+      <c r="B215" s="1">
+        <v>41909</v>
+      </c>
+      <c r="C215" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <f t="shared" si="3"/>
+        <v>41910</v>
+      </c>
+      <c r="B216" s="1">
+        <v>41916</v>
+      </c>
+      <c r="C216" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <f t="shared" si="3"/>
+        <v>41917</v>
+      </c>
+      <c r="B217" s="1">
+        <v>41923</v>
+      </c>
+      <c r="C217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <f t="shared" si="3"/>
+        <v>41924</v>
+      </c>
+      <c r="B218" s="1">
+        <v>41930</v>
+      </c>
+      <c r="C218" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <f t="shared" si="3"/>
+        <v>41931</v>
+      </c>
+      <c r="B219" s="1">
+        <v>41937</v>
+      </c>
+      <c r="C219" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <f t="shared" si="3"/>
+        <v>41938</v>
+      </c>
+      <c r="B220" s="1">
+        <v>41944</v>
+      </c>
+      <c r="C220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <f t="shared" si="3"/>
+        <v>41945</v>
+      </c>
+      <c r="B221" s="1">
+        <v>41951</v>
+      </c>
+      <c r="C221">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <f t="shared" si="3"/>
+        <v>41952</v>
+      </c>
+      <c r="B222" s="1">
+        <v>41958</v>
+      </c>
+      <c r="C222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <f t="shared" si="3"/>
+        <v>41959</v>
+      </c>
+      <c r="B223" s="1">
+        <v>41965</v>
+      </c>
+      <c r="C223">
+        <v>6</v>
+      </c>
+      <c r="D223" s="8">
+        <f>SUM('Box Office'!B303:B304)</f>
+        <v>96045815</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <f t="shared" si="3"/>
+        <v>41966</v>
+      </c>
+      <c r="B224" s="1">
+        <v>41972</v>
+      </c>
+      <c r="C224">
+        <v>5</v>
+      </c>
+      <c r="D224" s="8">
+        <f>SUM('Box Office'!B305:B311)</f>
+        <v>118854157</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <f t="shared" si="3"/>
+        <v>41973</v>
+      </c>
+      <c r="B225" s="1">
+        <v>41979</v>
+      </c>
+      <c r="C225">
+        <v>6</v>
+      </c>
+      <c r="D225" s="8">
+        <f>SUM('Box Office'!B312:B318)</f>
+        <v>37804228</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <f t="shared" si="3"/>
+        <v>41980</v>
+      </c>
+      <c r="B226" s="1">
+        <v>41986</v>
+      </c>
+      <c r="C226">
+        <v>6</v>
+      </c>
+      <c r="D226" s="8">
+        <f>SUM('Box Office'!B319:B325)</f>
+        <v>20965338</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <f t="shared" si="3"/>
+        <v>41987</v>
+      </c>
+      <c r="B227" s="1">
+        <v>41993</v>
+      </c>
+      <c r="C227">
+        <v>6</v>
+      </c>
+      <c r="D227" s="8">
+        <f>SUM('Box Office'!B326:B332)</f>
+        <v>13228209</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="1">
+        <f t="shared" si="3"/>
+        <v>41994</v>
+      </c>
+      <c r="B228" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C228">
+        <v>6</v>
+      </c>
+      <c r="D228" s="8">
+        <f>SUM('Box Office'!B333:B339)</f>
+        <v>16948790</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="1">
+        <f t="shared" si="3"/>
+        <v>42001</v>
+      </c>
+      <c r="B229" s="1">
+        <v>42007</v>
+      </c>
+      <c r="C229">
+        <v>6</v>
+      </c>
+      <c r="D229" s="8">
+        <f>SUM('Box Office'!B340:B346)</f>
+        <v>18207755</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="1">
+        <f t="shared" si="3"/>
+        <v>42008</v>
+      </c>
+      <c r="B230" s="1">
+        <v>42014</v>
+      </c>
+      <c r="C230">
+        <v>5</v>
+      </c>
+      <c r="D230" s="8">
+        <f>SUM('Box Office'!B347:B353)</f>
+        <v>6566427</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="1">
+        <f t="shared" si="3"/>
+        <v>42015</v>
+      </c>
+      <c r="B231" s="1">
+        <v>42021</v>
+      </c>
+      <c r="C231">
+        <v>7</v>
+      </c>
+      <c r="D231" s="8">
+        <f>SUM('Box Office'!B354:B360)</f>
+        <v>3353060</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="1">
+        <f t="shared" si="3"/>
+        <v>42022</v>
+      </c>
+      <c r="B232" s="1">
+        <v>42028</v>
+      </c>
+      <c r="C232" t="s">
+        <v>4</v>
+      </c>
+      <c r="D232" s="8">
+        <f>SUM('Box Office'!B361:B367)</f>
+        <v>2093381</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="1">
+        <f t="shared" si="3"/>
+        <v>42029</v>
+      </c>
+      <c r="B233" s="1">
+        <v>42035</v>
+      </c>
+      <c r="C233" t="s">
+        <v>4</v>
+      </c>
+      <c r="D233" s="8">
+        <f>SUM('Box Office'!B368:B374)</f>
+        <v>975648</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="1">
+        <f t="shared" si="3"/>
+        <v>42036</v>
+      </c>
+      <c r="B234" s="1">
+        <v>42042</v>
+      </c>
+      <c r="C234" t="s">
+        <v>4</v>
+      </c>
+      <c r="D234" s="8">
+        <f>SUM('Box Office'!B375:B381)</f>
+        <v>558736</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="1">
+        <f t="shared" si="3"/>
+        <v>42043</v>
+      </c>
+      <c r="B235" s="1">
+        <v>42049</v>
+      </c>
+      <c r="C235" t="s">
+        <v>4</v>
+      </c>
+      <c r="D235" s="8">
+        <f>SUM('Box Office'!B382:B388)</f>
+        <v>441462</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="1">
+        <f t="shared" si="3"/>
+        <v>42050</v>
+      </c>
+      <c r="B236" s="1">
+        <v>42056</v>
+      </c>
+      <c r="C236" t="s">
+        <v>4</v>
+      </c>
+      <c r="D236" s="8">
+        <f>SUM('Box Office'!B389:B395)</f>
+        <v>326255</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="1">
+        <f t="shared" si="3"/>
+        <v>42057</v>
+      </c>
+      <c r="B237" s="1">
+        <v>42063</v>
+      </c>
+      <c r="C237" t="s">
+        <v>4</v>
+      </c>
+      <c r="D237" s="8">
+        <f>SUM('Box Office'!B396:B402)</f>
+        <v>275878</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="1">
+        <f t="shared" si="3"/>
+        <v>42064</v>
+      </c>
+      <c r="B238" s="1">
+        <v>42070</v>
+      </c>
+      <c r="C238" t="s">
+        <v>4</v>
+      </c>
+      <c r="D238" s="8">
+        <f>SUM('Box Office'!B403:B409)</f>
+        <v>276391</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="1">
+        <f t="shared" si="3"/>
+        <v>42071</v>
+      </c>
+      <c r="B239" s="1">
+        <v>42077</v>
+      </c>
+      <c r="C239">
+        <v>7</v>
+      </c>
+      <c r="D239" s="8">
+        <f>SUM('Box Office'!B410:B416)</f>
+        <v>161802</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="1">
+        <f t="shared" si="3"/>
+        <v>42078</v>
+      </c>
+      <c r="B240" s="1">
+        <v>42084</v>
+      </c>
+      <c r="C240">
+        <v>8</v>
+      </c>
+      <c r="D240" s="8">
+        <f>SUM('Box Office'!B417:B421)</f>
+        <v>52553</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="1">
+        <f t="shared" si="3"/>
+        <v>42085</v>
+      </c>
+      <c r="B241" s="1">
+        <v>42091</v>
+      </c>
+      <c r="C241">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="1">
+        <f t="shared" si="3"/>
+        <v>42092</v>
+      </c>
+      <c r="B242" s="1">
+        <v>42098</v>
+      </c>
+      <c r="C242" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="1">
+        <f t="shared" si="3"/>
+        <v>42099</v>
+      </c>
+      <c r="B243" s="1">
+        <v>42105</v>
+      </c>
+      <c r="C243" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="1">
+        <f t="shared" si="3"/>
+        <v>42106</v>
+      </c>
+      <c r="B244" s="1">
+        <v>42112</v>
+      </c>
+      <c r="C244" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="1">
+        <f t="shared" si="3"/>
+        <v>42113</v>
+      </c>
+      <c r="B245" s="1">
+        <v>42119</v>
+      </c>
+      <c r="C245" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="1">
+        <f t="shared" si="3"/>
+        <v>42120</v>
+      </c>
+      <c r="B246" s="1">
+        <v>42126</v>
+      </c>
+      <c r="C246" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="1">
+        <f t="shared" si="3"/>
+        <v>42127</v>
+      </c>
+      <c r="B247" s="1">
+        <v>42133</v>
+      </c>
+      <c r="C247" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="1">
+        <f t="shared" si="3"/>
+        <v>42134</v>
+      </c>
+      <c r="B248" s="1">
+        <v>42140</v>
+      </c>
+      <c r="C248" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="1">
+        <f t="shared" si="3"/>
+        <v>42141</v>
+      </c>
+      <c r="B249" s="1">
+        <v>42147</v>
+      </c>
+      <c r="C249" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="1">
+        <f t="shared" si="3"/>
+        <v>42148</v>
+      </c>
+      <c r="B250" s="1">
+        <v>42154</v>
+      </c>
+      <c r="C250" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="1">
+        <f t="shared" si="3"/>
+        <v>42155</v>
+      </c>
+      <c r="B251" s="1">
+        <v>42161</v>
+      </c>
+      <c r="C251" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="1">
+        <f t="shared" si="3"/>
+        <v>42162</v>
+      </c>
+      <c r="B252" s="1">
+        <v>42168</v>
+      </c>
+      <c r="C252" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="1">
+        <f t="shared" si="3"/>
+        <v>42169</v>
+      </c>
+      <c r="B253" s="1">
+        <v>42175</v>
+      </c>
+      <c r="C253" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="1">
+        <f t="shared" si="3"/>
+        <v>42176</v>
+      </c>
+      <c r="B254" s="1">
+        <v>42182</v>
+      </c>
+      <c r="C254" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="1">
+        <f t="shared" si="3"/>
+        <v>42183</v>
+      </c>
+      <c r="B255" s="1">
+        <v>42189</v>
+      </c>
+      <c r="C255" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="1">
+        <f t="shared" si="3"/>
+        <v>42190</v>
+      </c>
+      <c r="B256" s="1">
+        <v>42196</v>
+      </c>
+      <c r="C256" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="1">
+        <f t="shared" si="3"/>
+        <v>42197</v>
+      </c>
+      <c r="B257" s="1">
+        <v>42203</v>
+      </c>
+      <c r="C257" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="1">
+        <f t="shared" si="3"/>
+        <v>42204</v>
+      </c>
+      <c r="B258" s="1">
+        <v>42210</v>
+      </c>
+      <c r="C258" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="1">
+        <f t="shared" ref="A259:A277" si="4">B259-6</f>
+        <v>42211</v>
+      </c>
+      <c r="B259" s="1">
+        <v>42217</v>
+      </c>
+      <c r="C259" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="1">
+        <f t="shared" si="4"/>
+        <v>42218</v>
+      </c>
+      <c r="B260" s="1">
+        <v>42224</v>
+      </c>
+      <c r="C260" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="1">
+        <f t="shared" si="4"/>
+        <v>42225</v>
+      </c>
+      <c r="B261" s="1">
+        <v>42231</v>
+      </c>
+      <c r="C261" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="1">
+        <f t="shared" si="4"/>
+        <v>42232</v>
+      </c>
+      <c r="B262" s="1">
+        <v>42238</v>
+      </c>
+      <c r="C262" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="1">
+        <f t="shared" si="4"/>
+        <v>42239</v>
+      </c>
+      <c r="B263" s="1">
+        <v>42245</v>
+      </c>
+      <c r="C263" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="1">
+        <f t="shared" si="4"/>
+        <v>42246</v>
+      </c>
+      <c r="B264" s="1">
+        <v>42252</v>
+      </c>
+      <c r="C264" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="1">
+        <f t="shared" si="4"/>
+        <v>42253</v>
+      </c>
+      <c r="B265" s="1">
+        <v>42259</v>
+      </c>
+      <c r="C265" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="1">
+        <f t="shared" si="4"/>
+        <v>42260</v>
+      </c>
+      <c r="B266" s="1">
+        <v>42266</v>
+      </c>
+      <c r="C266" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1">
+        <f t="shared" si="4"/>
+        <v>42267</v>
+      </c>
+      <c r="B267" s="1">
+        <v>42273</v>
+      </c>
+      <c r="C267" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="1">
+        <f t="shared" si="4"/>
+        <v>42274</v>
+      </c>
+      <c r="B268" s="1">
+        <v>42280</v>
+      </c>
+      <c r="C268" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1">
+        <f t="shared" si="4"/>
+        <v>42281</v>
+      </c>
+      <c r="B269" s="1">
+        <v>42287</v>
+      </c>
+      <c r="C269" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="1">
+        <f t="shared" si="4"/>
+        <v>42288</v>
+      </c>
+      <c r="B270" s="1">
+        <v>42294</v>
+      </c>
+      <c r="C270" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="1">
+        <f t="shared" si="4"/>
+        <v>42295</v>
+      </c>
+      <c r="B271" s="1">
+        <v>42301</v>
+      </c>
+      <c r="C271" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="1">
+        <f t="shared" si="4"/>
+        <v>42302</v>
+      </c>
+      <c r="B272" s="1">
+        <v>42308</v>
+      </c>
+      <c r="C272" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="1">
+        <f t="shared" si="4"/>
+        <v>42309</v>
+      </c>
+      <c r="B273" s="1">
+        <v>42315</v>
+      </c>
+      <c r="C273" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="1">
+        <f t="shared" si="4"/>
+        <v>42316</v>
+      </c>
+      <c r="B274" s="1">
+        <v>42322</v>
+      </c>
+      <c r="C274" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="1">
+        <f t="shared" si="4"/>
+        <v>42323</v>
+      </c>
+      <c r="B275" s="1">
+        <v>42329</v>
+      </c>
+      <c r="C275" t="s">
+        <v>4</v>
+      </c>
+      <c r="D275" s="8">
+        <f>SUM('Box Office'!B422:B423)</f>
+        <v>79420425</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="1">
+        <f t="shared" si="4"/>
+        <v>42330</v>
+      </c>
+      <c r="B276" s="1">
+        <v>42336</v>
+      </c>
+      <c r="C276">
+        <v>9</v>
+      </c>
+      <c r="D276" s="8">
+        <f>SUM('Box Office'!B424:B430)</f>
+        <v>108599274</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="1">
+        <f t="shared" si="4"/>
+        <v>42337</v>
+      </c>
+      <c r="B277" s="1">
+        <v>42343</v>
+      </c>
+      <c r="C277">
+        <v>9</v>
+      </c>
+      <c r="D277" s="8">
+        <f>SUM('Box Office'!B431:B437)</f>
+        <v>34458158</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49D3CEB-8C38-A04A-8239-60A968071D6C}">
+  <dimension ref="A1:E59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>117658069</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <f>CORREL(A2:A59,B2:B59)</f>
+        <v>0.17622906967338392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>115666202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>61832119</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>36133932</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="e">
+        <f>CORREL(A2:A26,B2:B26)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>21624438</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>16250232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>9918929</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <f>CORREL(A27:A46,B27:B46)</f>
+        <v>-0.11991177208571084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6461512</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>5180723</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>3764561</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <f>CORREL(A47:A57,B47:B57)</f>
+        <v>-0.52065493112014716</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3415318</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2044239</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1549243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="e">
+        <f>CORREL(A58:A59,B58:B59)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1280268</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>864064</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>650034</v>
+      </c>
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>488480</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>391251</v>
+      </c>
+      <c r="C19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>545966</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>850132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>633172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>430914</v>
+      </c>
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>218838</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>108808</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>49248</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>123569242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>158518521</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>47275849</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>24320837</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>15175808</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>19193527</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>17523768</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>7106657</v>
+      </c>
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>4091067</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2852426</v>
+      </c>
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>1628705</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>982329</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>725923</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>583057</v>
+      </c>
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>313105</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>200133</v>
+      </c>
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>221136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>218407</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>128489</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>39061</v>
+      </c>
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6</v>
+      </c>
+      <c r="B47">
+        <v>96045815</v>
+      </c>
+      <c r="C47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>118854157</v>
+      </c>
+      <c r="C48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>37804228</v>
+      </c>
+      <c r="C49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50">
+        <v>20965338</v>
+      </c>
+      <c r="C50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51">
+        <v>13228209</v>
+      </c>
+      <c r="C51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>6</v>
+      </c>
+      <c r="B52">
+        <v>16948790</v>
+      </c>
+      <c r="C52" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>6</v>
+      </c>
+      <c r="B53">
+        <v>18207755</v>
+      </c>
+      <c r="C53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>6566427</v>
+      </c>
+      <c r="C54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>3353060</v>
+      </c>
+      <c r="C55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>161802</v>
+      </c>
+      <c r="C56" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57">
+        <v>52553</v>
+      </c>
+      <c r="C57" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9</v>
+      </c>
+      <c r="B58">
+        <v>108599274</v>
+      </c>
+      <c r="C58" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59">
+        <v>34458158</v>
+      </c>
+      <c r="C59" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4-childrens-series/hunger-games.xlsx
+++ b/4-childrens-series/hunger-games.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsayhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ECCF353F-249C-2247-A0ED-03EC71C0E96F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC2997F-676D-4B4E-8238-2AC98B147917}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9580" yWindow="3720" windowWidth="20700" windowHeight="21180" activeTab="3" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="8100" yWindow="460" windowWidth="20700" windowHeight="16400" activeTab="4" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
     <sheet name="Box Office" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Data" sheetId="3" r:id="rId3"/>
-    <sheet name="Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Box Office $ Correlation" sheetId="4" r:id="rId4"/>
+    <sheet name="Rank + In Theaters Corr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="33">
   <si>
     <t>Published Date</t>
   </si>
@@ -115,6 +116,18 @@
   </si>
   <si>
     <t>Mockingjay Pt. 2 Correlation:</t>
+  </si>
+  <si>
+    <t>Week Starts</t>
+  </si>
+  <si>
+    <t>Week Ends</t>
+  </si>
+  <si>
+    <t>In Theaters? (1 = Y, 0 = N)</t>
+  </si>
+  <si>
+    <t>Correlation once first movie comes out:</t>
   </si>
 </sst>
 </file>
@@ -493,7 +506,7 @@
   <dimension ref="A1:E278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D277"/>
+      <selection activeCell="B1" sqref="B1:E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14028,7 +14041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49D3CEB-8C38-A04A-8239-60A968071D6C}">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -14725,4 +14738,3441 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038E7A99-46B0-014D-B0ED-49BF14F56A5D}">
+  <dimension ref="A1:F227"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <f>B2-6</f>
+        <v>40413</v>
+      </c>
+      <c r="B2" s="1">
+        <v>40419</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>CORREL(C2:C227,D2:D227)</f>
+        <v>7.814058648925068E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <f t="shared" ref="A3:A66" si="0">B3-6</f>
+        <v>40420</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40426</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <f t="shared" si="0"/>
+        <v>40427</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40433</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <f t="shared" si="0"/>
+        <v>40434</v>
+      </c>
+      <c r="B5" s="1">
+        <v>40440</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>CORREL(C84:C227,D84:D227)</f>
+        <v>-0.11375176822977469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <f t="shared" si="0"/>
+        <v>40441</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40447</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <f t="shared" si="0"/>
+        <v>40448</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40454</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
+        <v>40455</v>
+      </c>
+      <c r="B8" s="1">
+        <v>40461</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <f t="shared" si="0"/>
+        <v>40462</v>
+      </c>
+      <c r="B9" s="1">
+        <v>40468</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f t="shared" si="0"/>
+        <v>40469</v>
+      </c>
+      <c r="B10" s="1">
+        <v>40475</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f t="shared" si="0"/>
+        <v>40476</v>
+      </c>
+      <c r="B11" s="1">
+        <v>40482</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <f t="shared" si="0"/>
+        <v>40483</v>
+      </c>
+      <c r="B12" s="1">
+        <v>40489</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <f t="shared" si="0"/>
+        <v>40490</v>
+      </c>
+      <c r="B13" s="1">
+        <v>40496</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <f t="shared" si="0"/>
+        <v>40497</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40503</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <f t="shared" si="0"/>
+        <v>40504</v>
+      </c>
+      <c r="B15" s="1">
+        <v>40510</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <f t="shared" si="0"/>
+        <v>40511</v>
+      </c>
+      <c r="B16" s="1">
+        <v>40517</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <f t="shared" si="0"/>
+        <v>40518</v>
+      </c>
+      <c r="B17" s="1">
+        <v>40524</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <f t="shared" si="0"/>
+        <v>40525</v>
+      </c>
+      <c r="B18" s="1">
+        <v>40531</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <f t="shared" si="0"/>
+        <v>40532</v>
+      </c>
+      <c r="B19" s="1">
+        <v>40538</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <f t="shared" si="0"/>
+        <v>40539</v>
+      </c>
+      <c r="B20" s="1">
+        <v>40545</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <f t="shared" si="0"/>
+        <v>40546</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40552</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <f t="shared" si="0"/>
+        <v>40553</v>
+      </c>
+      <c r="B22" s="1">
+        <v>40559</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f t="shared" si="0"/>
+        <v>40560</v>
+      </c>
+      <c r="B23" s="1">
+        <v>40566</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <f t="shared" si="0"/>
+        <v>40567</v>
+      </c>
+      <c r="B24" s="1">
+        <v>40573</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <f t="shared" si="0"/>
+        <v>40573</v>
+      </c>
+      <c r="B25" s="1">
+        <v>40579</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <f t="shared" si="0"/>
+        <v>40580</v>
+      </c>
+      <c r="B26" s="1">
+        <v>40586</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <f t="shared" si="0"/>
+        <v>40587</v>
+      </c>
+      <c r="B27" s="1">
+        <v>40593</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <f t="shared" si="0"/>
+        <v>40594</v>
+      </c>
+      <c r="B28" s="1">
+        <v>40600</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <f t="shared" si="0"/>
+        <v>40601</v>
+      </c>
+      <c r="B29" s="1">
+        <v>40607</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <f t="shared" si="0"/>
+        <v>40608</v>
+      </c>
+      <c r="B30" s="1">
+        <v>40614</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <f t="shared" si="0"/>
+        <v>40615</v>
+      </c>
+      <c r="B31" s="1">
+        <v>40621</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <f t="shared" si="0"/>
+        <v>40622</v>
+      </c>
+      <c r="B32" s="1">
+        <v>40628</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <f t="shared" si="0"/>
+        <v>40629</v>
+      </c>
+      <c r="B33" s="1">
+        <v>40635</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <f t="shared" si="0"/>
+        <v>40636</v>
+      </c>
+      <c r="B34" s="1">
+        <v>40642</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <f t="shared" si="0"/>
+        <v>40643</v>
+      </c>
+      <c r="B35" s="1">
+        <v>40649</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <f t="shared" si="0"/>
+        <v>40650</v>
+      </c>
+      <c r="B36" s="1">
+        <v>40656</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <f t="shared" si="0"/>
+        <v>40657</v>
+      </c>
+      <c r="B37" s="1">
+        <v>40663</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <f t="shared" si="0"/>
+        <v>40664</v>
+      </c>
+      <c r="B38" s="1">
+        <v>40670</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <f t="shared" si="0"/>
+        <v>40671</v>
+      </c>
+      <c r="B39" s="1">
+        <v>40677</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <f t="shared" si="0"/>
+        <v>40678</v>
+      </c>
+      <c r="B40" s="1">
+        <v>40684</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <f t="shared" si="0"/>
+        <v>40685</v>
+      </c>
+      <c r="B41" s="1">
+        <v>40691</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <f t="shared" si="0"/>
+        <v>40692</v>
+      </c>
+      <c r="B42" s="1">
+        <v>40698</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <f t="shared" si="0"/>
+        <v>40699</v>
+      </c>
+      <c r="B43" s="1">
+        <v>40705</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <f t="shared" si="0"/>
+        <v>40706</v>
+      </c>
+      <c r="B44" s="1">
+        <v>40712</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <f t="shared" si="0"/>
+        <v>40713</v>
+      </c>
+      <c r="B45" s="1">
+        <v>40719</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <f t="shared" si="0"/>
+        <v>40720</v>
+      </c>
+      <c r="B46" s="1">
+        <v>40726</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <f t="shared" si="0"/>
+        <v>40727</v>
+      </c>
+      <c r="B47" s="1">
+        <v>40733</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <f t="shared" si="0"/>
+        <v>40734</v>
+      </c>
+      <c r="B48" s="1">
+        <v>40740</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <f t="shared" si="0"/>
+        <v>40741</v>
+      </c>
+      <c r="B49" s="1">
+        <v>40747</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <f t="shared" si="0"/>
+        <v>40748</v>
+      </c>
+      <c r="B50" s="1">
+        <v>40754</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <f t="shared" si="0"/>
+        <v>40755</v>
+      </c>
+      <c r="B51" s="1">
+        <v>40761</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <f t="shared" si="0"/>
+        <v>40762</v>
+      </c>
+      <c r="B52" s="1">
+        <v>40768</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <f t="shared" si="0"/>
+        <v>40769</v>
+      </c>
+      <c r="B53" s="1">
+        <v>40775</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <f t="shared" si="0"/>
+        <v>40776</v>
+      </c>
+      <c r="B54" s="1">
+        <v>40782</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <f t="shared" si="0"/>
+        <v>40783</v>
+      </c>
+      <c r="B55" s="1">
+        <v>40789</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <f t="shared" si="0"/>
+        <v>40790</v>
+      </c>
+      <c r="B56" s="1">
+        <v>40796</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <f t="shared" si="0"/>
+        <v>40797</v>
+      </c>
+      <c r="B57" s="1">
+        <v>40803</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <f t="shared" si="0"/>
+        <v>40804</v>
+      </c>
+      <c r="B58" s="1">
+        <v>40810</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <f t="shared" si="0"/>
+        <v>40811</v>
+      </c>
+      <c r="B59" s="1">
+        <v>40817</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <f t="shared" si="0"/>
+        <v>40818</v>
+      </c>
+      <c r="B60" s="1">
+        <v>40824</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <f t="shared" si="0"/>
+        <v>40825</v>
+      </c>
+      <c r="B61" s="1">
+        <v>40831</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <f t="shared" si="0"/>
+        <v>40832</v>
+      </c>
+      <c r="B62" s="1">
+        <v>40838</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="1">
+        <f t="shared" si="0"/>
+        <v>40839</v>
+      </c>
+      <c r="B63" s="1">
+        <v>40845</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="1">
+        <f t="shared" si="0"/>
+        <v>40846</v>
+      </c>
+      <c r="B64" s="1">
+        <v>40852</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="1">
+        <f t="shared" si="0"/>
+        <v>40853</v>
+      </c>
+      <c r="B65" s="1">
+        <v>40859</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <f t="shared" si="0"/>
+        <v>40860</v>
+      </c>
+      <c r="B66" s="1">
+        <v>40866</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="1">
+        <f t="shared" ref="A67:A130" si="1">B67-6</f>
+        <v>40867</v>
+      </c>
+      <c r="B67" s="1">
+        <v>40873</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <f t="shared" si="1"/>
+        <v>40874</v>
+      </c>
+      <c r="B68" s="1">
+        <v>40880</v>
+      </c>
+      <c r="C68">
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <f t="shared" si="1"/>
+        <v>40881</v>
+      </c>
+      <c r="B69" s="1">
+        <v>40887</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <f t="shared" si="1"/>
+        <v>40888</v>
+      </c>
+      <c r="B70" s="1">
+        <v>40894</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <f t="shared" si="1"/>
+        <v>40895</v>
+      </c>
+      <c r="B71" s="1">
+        <v>40901</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <f t="shared" si="1"/>
+        <v>40902</v>
+      </c>
+      <c r="B72" s="1">
+        <v>40908</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <f t="shared" si="1"/>
+        <v>40909</v>
+      </c>
+      <c r="B73" s="1">
+        <v>40915</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="1">
+        <f t="shared" si="1"/>
+        <v>40916</v>
+      </c>
+      <c r="B74" s="1">
+        <v>40922</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="1">
+        <f t="shared" si="1"/>
+        <v>40923</v>
+      </c>
+      <c r="B75" s="1">
+        <v>40929</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <f t="shared" si="1"/>
+        <v>40930</v>
+      </c>
+      <c r="B76" s="1">
+        <v>40936</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="1">
+        <f t="shared" si="1"/>
+        <v>40937</v>
+      </c>
+      <c r="B77" s="1">
+        <v>40943</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="1">
+        <f t="shared" si="1"/>
+        <v>40944</v>
+      </c>
+      <c r="B78" s="1">
+        <v>40950</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="1">
+        <f t="shared" si="1"/>
+        <v>40951</v>
+      </c>
+      <c r="B79" s="1">
+        <v>40957</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <f t="shared" si="1"/>
+        <v>40958</v>
+      </c>
+      <c r="B80" s="1">
+        <v>40964</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="1">
+        <f t="shared" si="1"/>
+        <v>40965</v>
+      </c>
+      <c r="B81" s="1">
+        <v>40971</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="1">
+        <f t="shared" si="1"/>
+        <v>40972</v>
+      </c>
+      <c r="B82" s="1">
+        <v>40978</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="1">
+        <f t="shared" si="1"/>
+        <v>40979</v>
+      </c>
+      <c r="B83" s="1">
+        <v>40985</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="1">
+        <f t="shared" si="1"/>
+        <v>40986</v>
+      </c>
+      <c r="B84" s="1">
+        <v>40992</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <f t="shared" si="1"/>
+        <v>40993</v>
+      </c>
+      <c r="B85" s="1">
+        <v>40999</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="1">
+        <f t="shared" si="1"/>
+        <v>41000</v>
+      </c>
+      <c r="B86" s="1">
+        <v>41006</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="1">
+        <f t="shared" si="1"/>
+        <v>41007</v>
+      </c>
+      <c r="B87" s="1">
+        <v>41013</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="1">
+        <f t="shared" si="1"/>
+        <v>41014</v>
+      </c>
+      <c r="B88" s="1">
+        <v>41020</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="1">
+        <f t="shared" si="1"/>
+        <v>41021</v>
+      </c>
+      <c r="B89" s="1">
+        <v>41027</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="1">
+        <f t="shared" si="1"/>
+        <v>41028</v>
+      </c>
+      <c r="B90" s="1">
+        <v>41034</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="1">
+        <f t="shared" si="1"/>
+        <v>41035</v>
+      </c>
+      <c r="B91" s="1">
+        <v>41041</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="1">
+        <f t="shared" si="1"/>
+        <v>41042</v>
+      </c>
+      <c r="B92" s="1">
+        <v>41048</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <f t="shared" si="1"/>
+        <v>41049</v>
+      </c>
+      <c r="B93" s="1">
+        <v>41055</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="1">
+        <f t="shared" si="1"/>
+        <v>41056</v>
+      </c>
+      <c r="B94" s="1">
+        <v>41062</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="1">
+        <f t="shared" si="1"/>
+        <v>41063</v>
+      </c>
+      <c r="B95" s="1">
+        <v>41069</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="1">
+        <f t="shared" si="1"/>
+        <v>41070</v>
+      </c>
+      <c r="B96" s="1">
+        <v>41076</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1">
+        <f t="shared" si="1"/>
+        <v>41077</v>
+      </c>
+      <c r="B97" s="1">
+        <v>41083</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="1">
+        <f t="shared" si="1"/>
+        <v>41084</v>
+      </c>
+      <c r="B98" s="1">
+        <v>41090</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <f t="shared" si="1"/>
+        <v>41091</v>
+      </c>
+      <c r="B99" s="1">
+        <v>41097</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1">
+        <f t="shared" si="1"/>
+        <v>41098</v>
+      </c>
+      <c r="B100" s="1">
+        <v>41104</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1">
+        <f t="shared" si="1"/>
+        <v>41105</v>
+      </c>
+      <c r="B101" s="1">
+        <v>41111</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1">
+        <f t="shared" si="1"/>
+        <v>41112</v>
+      </c>
+      <c r="B102" s="1">
+        <v>41118</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="1">
+        <f t="shared" si="1"/>
+        <v>41119</v>
+      </c>
+      <c r="B103" s="1">
+        <v>41125</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <f t="shared" si="1"/>
+        <v>41126</v>
+      </c>
+      <c r="B104" s="1">
+        <v>41132</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="1">
+        <f t="shared" si="1"/>
+        <v>41133</v>
+      </c>
+      <c r="B105" s="1">
+        <v>41139</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <f t="shared" si="1"/>
+        <v>41140</v>
+      </c>
+      <c r="B106" s="1">
+        <v>41146</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="1">
+        <f t="shared" si="1"/>
+        <v>41147</v>
+      </c>
+      <c r="B107" s="1">
+        <v>41153</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="1">
+        <f t="shared" si="1"/>
+        <v>41154</v>
+      </c>
+      <c r="B108" s="1">
+        <v>41160</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="1">
+        <f t="shared" si="1"/>
+        <v>41161</v>
+      </c>
+      <c r="B109" s="1">
+        <v>41167</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="1">
+        <f t="shared" si="1"/>
+        <v>41168</v>
+      </c>
+      <c r="B110" s="1">
+        <v>41174</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <f t="shared" si="1"/>
+        <v>41175</v>
+      </c>
+      <c r="B111" s="1">
+        <v>41181</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1">
+        <f t="shared" si="1"/>
+        <v>41182</v>
+      </c>
+      <c r="B112" s="1">
+        <v>41188</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="1">
+        <f t="shared" si="1"/>
+        <v>41189</v>
+      </c>
+      <c r="B113" s="1">
+        <v>41195</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="1">
+        <f t="shared" si="1"/>
+        <v>41196</v>
+      </c>
+      <c r="B114" s="1">
+        <v>41202</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="1">
+        <f t="shared" si="1"/>
+        <v>41203</v>
+      </c>
+      <c r="B115" s="1">
+        <v>41209</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <f t="shared" si="1"/>
+        <v>41210</v>
+      </c>
+      <c r="B116" s="1">
+        <v>41216</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="1">
+        <f t="shared" si="1"/>
+        <v>41217</v>
+      </c>
+      <c r="B117" s="1">
+        <v>41223</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <f t="shared" si="1"/>
+        <v>41224</v>
+      </c>
+      <c r="B118" s="1">
+        <v>41230</v>
+      </c>
+      <c r="C118">
+        <v>4</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="1">
+        <f t="shared" si="1"/>
+        <v>41231</v>
+      </c>
+      <c r="B119" s="1">
+        <v>41237</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="1">
+        <f t="shared" si="1"/>
+        <v>41238</v>
+      </c>
+      <c r="B120" s="1">
+        <v>41244</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="1">
+        <f t="shared" si="1"/>
+        <v>41245</v>
+      </c>
+      <c r="B121" s="1">
+        <v>41251</v>
+      </c>
+      <c r="C121">
+        <v>2</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <f t="shared" si="1"/>
+        <v>41252</v>
+      </c>
+      <c r="B122" s="1">
+        <v>41258</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="1">
+        <f t="shared" si="1"/>
+        <v>41259</v>
+      </c>
+      <c r="B123" s="1">
+        <v>41265</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="1">
+        <f t="shared" si="1"/>
+        <v>41266</v>
+      </c>
+      <c r="B124" s="1">
+        <v>41272</v>
+      </c>
+      <c r="C124">
+        <v>2</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <f t="shared" si="1"/>
+        <v>41273</v>
+      </c>
+      <c r="B125" s="1">
+        <v>41279</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="1">
+        <f t="shared" si="1"/>
+        <v>41280</v>
+      </c>
+      <c r="B126" s="1">
+        <v>41286</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="1">
+        <f t="shared" si="1"/>
+        <v>41287</v>
+      </c>
+      <c r="B127" s="1">
+        <v>41293</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <f t="shared" si="1"/>
+        <v>41294</v>
+      </c>
+      <c r="B128" s="1">
+        <v>41300</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="1">
+        <f t="shared" si="1"/>
+        <v>41301</v>
+      </c>
+      <c r="B129" s="1">
+        <v>41307</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="1">
+        <f t="shared" si="1"/>
+        <v>41308</v>
+      </c>
+      <c r="B130" s="1">
+        <v>41314</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <f t="shared" ref="A131:A194" si="2">B131-6</f>
+        <v>41315</v>
+      </c>
+      <c r="B131" s="1">
+        <v>41321</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="1">
+        <f t="shared" si="2"/>
+        <v>41322</v>
+      </c>
+      <c r="B132" s="1">
+        <v>41328</v>
+      </c>
+      <c r="C132">
+        <v>2</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <f t="shared" si="2"/>
+        <v>41329</v>
+      </c>
+      <c r="B133" s="1">
+        <v>41335</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <f t="shared" si="2"/>
+        <v>41336</v>
+      </c>
+      <c r="B134" s="1">
+        <v>41342</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <f t="shared" si="2"/>
+        <v>41343</v>
+      </c>
+      <c r="B135" s="1">
+        <v>41349</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <f t="shared" si="2"/>
+        <v>41350</v>
+      </c>
+      <c r="B136" s="1">
+        <v>41356</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <f t="shared" si="2"/>
+        <v>41357</v>
+      </c>
+      <c r="B137" s="1">
+        <v>41363</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="1">
+        <f t="shared" si="2"/>
+        <v>41364</v>
+      </c>
+      <c r="B138" s="1">
+        <v>41370</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <f t="shared" si="2"/>
+        <v>41371</v>
+      </c>
+      <c r="B139" s="1">
+        <v>41377</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="1">
+        <f t="shared" si="2"/>
+        <v>41378</v>
+      </c>
+      <c r="B140" s="1">
+        <v>41384</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <f t="shared" si="2"/>
+        <v>41385</v>
+      </c>
+      <c r="B141" s="1">
+        <v>41391</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="1">
+        <f t="shared" si="2"/>
+        <v>41392</v>
+      </c>
+      <c r="B142" s="1">
+        <v>41398</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <f t="shared" si="2"/>
+        <v>41399</v>
+      </c>
+      <c r="B143" s="1">
+        <v>41405</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1">
+        <f t="shared" si="2"/>
+        <v>41406</v>
+      </c>
+      <c r="B144" s="1">
+        <v>41412</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="1">
+        <f t="shared" si="2"/>
+        <v>41413</v>
+      </c>
+      <c r="B145" s="1">
+        <v>41419</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="1">
+        <f t="shared" si="2"/>
+        <v>41420</v>
+      </c>
+      <c r="B146" s="1">
+        <v>41426</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="1">
+        <f t="shared" si="2"/>
+        <v>41427</v>
+      </c>
+      <c r="B147" s="1">
+        <v>41433</v>
+      </c>
+      <c r="C147">
+        <v>2</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="1">
+        <f t="shared" si="2"/>
+        <v>41434</v>
+      </c>
+      <c r="B148" s="1">
+        <v>41440</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="1">
+        <f t="shared" si="2"/>
+        <v>41441</v>
+      </c>
+      <c r="B149" s="1">
+        <v>41447</v>
+      </c>
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="1">
+        <f t="shared" si="2"/>
+        <v>41448</v>
+      </c>
+      <c r="B150" s="1">
+        <v>41454</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="1">
+        <f t="shared" si="2"/>
+        <v>41455</v>
+      </c>
+      <c r="B151" s="1">
+        <v>41461</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="1">
+        <f t="shared" si="2"/>
+        <v>41462</v>
+      </c>
+      <c r="B152" s="1">
+        <v>41468</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="1">
+        <f t="shared" si="2"/>
+        <v>41469</v>
+      </c>
+      <c r="B153" s="1">
+        <v>41475</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="1">
+        <f t="shared" si="2"/>
+        <v>41476</v>
+      </c>
+      <c r="B154" s="1">
+        <v>41482</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="1">
+        <f t="shared" si="2"/>
+        <v>41483</v>
+      </c>
+      <c r="B155" s="1">
+        <v>41489</v>
+      </c>
+      <c r="C155">
+        <v>2</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="1">
+        <f t="shared" si="2"/>
+        <v>41490</v>
+      </c>
+      <c r="B156" s="1">
+        <v>41496</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <f t="shared" si="2"/>
+        <v>41497</v>
+      </c>
+      <c r="B157" s="1">
+        <v>41503</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <f t="shared" si="2"/>
+        <v>41504</v>
+      </c>
+      <c r="B158" s="1">
+        <v>41510</v>
+      </c>
+      <c r="C158">
+        <v>3</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <f t="shared" si="2"/>
+        <v>41511</v>
+      </c>
+      <c r="B159" s="1">
+        <v>41517</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <f t="shared" si="2"/>
+        <v>41518</v>
+      </c>
+      <c r="B160" s="1">
+        <v>41524</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <f t="shared" si="2"/>
+        <v>41525</v>
+      </c>
+      <c r="B161" s="1">
+        <v>41531</v>
+      </c>
+      <c r="C161">
+        <v>2</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <f t="shared" si="2"/>
+        <v>41532</v>
+      </c>
+      <c r="B162" s="1">
+        <v>41538</v>
+      </c>
+      <c r="C162">
+        <v>3</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <f t="shared" si="2"/>
+        <v>41539</v>
+      </c>
+      <c r="B163" s="1">
+        <v>41545</v>
+      </c>
+      <c r="C163">
+        <v>2</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <f t="shared" si="2"/>
+        <v>41546</v>
+      </c>
+      <c r="B164" s="1">
+        <v>41552</v>
+      </c>
+      <c r="C164">
+        <v>2</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <f t="shared" si="2"/>
+        <v>41553</v>
+      </c>
+      <c r="B165" s="1">
+        <v>41559</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <f t="shared" si="2"/>
+        <v>41560</v>
+      </c>
+      <c r="B166" s="1">
+        <v>41566</v>
+      </c>
+      <c r="C166">
+        <v>3</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <f t="shared" si="2"/>
+        <v>41567</v>
+      </c>
+      <c r="B167" s="1">
+        <v>41573</v>
+      </c>
+      <c r="C167">
+        <v>4</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <f t="shared" si="2"/>
+        <v>41574</v>
+      </c>
+      <c r="B168" s="1">
+        <v>41580</v>
+      </c>
+      <c r="C168">
+        <v>3</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <f t="shared" si="2"/>
+        <v>41581</v>
+      </c>
+      <c r="B169" s="1">
+        <v>41587</v>
+      </c>
+      <c r="C169">
+        <v>4</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <f t="shared" si="2"/>
+        <v>41588</v>
+      </c>
+      <c r="B170" s="1">
+        <v>41594</v>
+      </c>
+      <c r="C170">
+        <v>3</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <f t="shared" si="2"/>
+        <v>41595</v>
+      </c>
+      <c r="B171" s="1">
+        <v>41601</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <f t="shared" si="2"/>
+        <v>41602</v>
+      </c>
+      <c r="B172" s="1">
+        <v>41608</v>
+      </c>
+      <c r="C172">
+        <v>2</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <f t="shared" si="2"/>
+        <v>41609</v>
+      </c>
+      <c r="B173" s="1">
+        <v>41615</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <f t="shared" si="2"/>
+        <v>41616</v>
+      </c>
+      <c r="B174" s="1">
+        <v>41622</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <f t="shared" si="2"/>
+        <v>41623</v>
+      </c>
+      <c r="B175" s="1">
+        <v>41629</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <f t="shared" si="2"/>
+        <v>41630</v>
+      </c>
+      <c r="B176" s="1">
+        <v>41636</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <f t="shared" si="2"/>
+        <v>41637</v>
+      </c>
+      <c r="B177" s="1">
+        <v>41643</v>
+      </c>
+      <c r="C177">
+        <v>2</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <f t="shared" si="2"/>
+        <v>41644</v>
+      </c>
+      <c r="B178" s="1">
+        <v>41650</v>
+      </c>
+      <c r="C178">
+        <v>2</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <f t="shared" si="2"/>
+        <v>41651</v>
+      </c>
+      <c r="B179" s="1">
+        <v>41657</v>
+      </c>
+      <c r="C179">
+        <v>2</v>
+      </c>
+      <c r="D179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <f t="shared" si="2"/>
+        <v>41658</v>
+      </c>
+      <c r="B180" s="1">
+        <v>41664</v>
+      </c>
+      <c r="C180">
+        <v>2</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <f t="shared" si="2"/>
+        <v>41665</v>
+      </c>
+      <c r="B181" s="1">
+        <v>41671</v>
+      </c>
+      <c r="C181">
+        <v>2</v>
+      </c>
+      <c r="D181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <f t="shared" si="2"/>
+        <v>41672</v>
+      </c>
+      <c r="B182" s="1">
+        <v>41678</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <f t="shared" si="2"/>
+        <v>41679</v>
+      </c>
+      <c r="B183" s="1">
+        <v>41685</v>
+      </c>
+      <c r="C183">
+        <v>4</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <f t="shared" si="2"/>
+        <v>41686</v>
+      </c>
+      <c r="B184" s="1">
+        <v>41692</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <f t="shared" si="2"/>
+        <v>41693</v>
+      </c>
+      <c r="B185" s="1">
+        <v>41699</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <f t="shared" si="2"/>
+        <v>41700</v>
+      </c>
+      <c r="B186" s="1">
+        <v>41706</v>
+      </c>
+      <c r="C186">
+        <v>2</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <f t="shared" si="2"/>
+        <v>41707</v>
+      </c>
+      <c r="B187" s="1">
+        <v>41713</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <f t="shared" si="2"/>
+        <v>41714</v>
+      </c>
+      <c r="B188" s="1">
+        <v>41720</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <f t="shared" si="2"/>
+        <v>41721</v>
+      </c>
+      <c r="B189" s="1">
+        <v>41727</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <f t="shared" si="2"/>
+        <v>41728</v>
+      </c>
+      <c r="B190" s="1">
+        <v>41734</v>
+      </c>
+      <c r="C190">
+        <v>3</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <f t="shared" si="2"/>
+        <v>41735</v>
+      </c>
+      <c r="B191" s="1">
+        <v>41741</v>
+      </c>
+      <c r="C191">
+        <v>3</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <f t="shared" si="2"/>
+        <v>41742</v>
+      </c>
+      <c r="B192" s="1">
+        <v>41748</v>
+      </c>
+      <c r="C192">
+        <v>4</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <f t="shared" si="2"/>
+        <v>41749</v>
+      </c>
+      <c r="B193" s="1">
+        <v>41755</v>
+      </c>
+      <c r="C193">
+        <v>5</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <f t="shared" si="2"/>
+        <v>41756</v>
+      </c>
+      <c r="B194" s="1">
+        <v>41762</v>
+      </c>
+      <c r="C194">
+        <v>4</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <f t="shared" ref="A195:A225" si="3">B195-6</f>
+        <v>41763</v>
+      </c>
+      <c r="B195" s="1">
+        <v>41769</v>
+      </c>
+      <c r="C195">
+        <v>6</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <f t="shared" si="3"/>
+        <v>41770</v>
+      </c>
+      <c r="B196" s="1">
+        <v>41776</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <f t="shared" si="3"/>
+        <v>41777</v>
+      </c>
+      <c r="B197" s="1">
+        <v>41783</v>
+      </c>
+      <c r="C197">
+        <v>6</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <f t="shared" si="3"/>
+        <v>41784</v>
+      </c>
+      <c r="B198" s="1">
+        <v>41790</v>
+      </c>
+      <c r="C198">
+        <v>7</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <f t="shared" si="3"/>
+        <v>41791</v>
+      </c>
+      <c r="B199" s="1">
+        <v>41797</v>
+      </c>
+      <c r="C199">
+        <v>10</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <f t="shared" si="3"/>
+        <v>41798</v>
+      </c>
+      <c r="B200" s="1">
+        <v>41804</v>
+      </c>
+      <c r="C200">
+        <v>8</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <f t="shared" si="3"/>
+        <v>41805</v>
+      </c>
+      <c r="B201" s="1">
+        <v>41811</v>
+      </c>
+      <c r="C201">
+        <v>9</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="1">
+        <f t="shared" si="3"/>
+        <v>41812</v>
+      </c>
+      <c r="B202" s="1">
+        <v>41818</v>
+      </c>
+      <c r="C202">
+        <v>9</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="1">
+        <f t="shared" si="3"/>
+        <v>41833</v>
+      </c>
+      <c r="B203" s="1">
+        <v>41839</v>
+      </c>
+      <c r="C203">
+        <v>9</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="1">
+        <f t="shared" si="3"/>
+        <v>41840</v>
+      </c>
+      <c r="B204" s="1">
+        <v>41846</v>
+      </c>
+      <c r="C204">
+        <v>10</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="1">
+        <f t="shared" si="3"/>
+        <v>41847</v>
+      </c>
+      <c r="B205" s="1">
+        <v>41853</v>
+      </c>
+      <c r="C205">
+        <v>5</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="1">
+        <f t="shared" si="3"/>
+        <v>41854</v>
+      </c>
+      <c r="B206" s="1">
+        <v>41860</v>
+      </c>
+      <c r="C206">
+        <v>9</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="1">
+        <f t="shared" si="3"/>
+        <v>41861</v>
+      </c>
+      <c r="B207" s="1">
+        <v>41867</v>
+      </c>
+      <c r="C207">
+        <v>9</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="1">
+        <f t="shared" si="3"/>
+        <v>41868</v>
+      </c>
+      <c r="B208" s="1">
+        <v>41874</v>
+      </c>
+      <c r="C208">
+        <v>9</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="1">
+        <f t="shared" si="3"/>
+        <v>41896</v>
+      </c>
+      <c r="B209" s="1">
+        <v>41902</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="1">
+        <f t="shared" si="3"/>
+        <v>41917</v>
+      </c>
+      <c r="B210" s="1">
+        <v>41923</v>
+      </c>
+      <c r="C210">
+        <v>8</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="1">
+        <f t="shared" si="3"/>
+        <v>41938</v>
+      </c>
+      <c r="B211" s="1">
+        <v>41944</v>
+      </c>
+      <c r="C211">
+        <v>10</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="1">
+        <f t="shared" si="3"/>
+        <v>41945</v>
+      </c>
+      <c r="B212" s="1">
+        <v>41951</v>
+      </c>
+      <c r="C212">
+        <v>8</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="1">
+        <f t="shared" si="3"/>
+        <v>41952</v>
+      </c>
+      <c r="B213" s="1">
+        <v>41958</v>
+      </c>
+      <c r="C213">
+        <v>8</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="1">
+        <f t="shared" si="3"/>
+        <v>41959</v>
+      </c>
+      <c r="B214" s="1">
+        <v>41965</v>
+      </c>
+      <c r="C214">
+        <v>6</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="1">
+        <f t="shared" si="3"/>
+        <v>41966</v>
+      </c>
+      <c r="B215" s="1">
+        <v>41972</v>
+      </c>
+      <c r="C215">
+        <v>5</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="1">
+        <f t="shared" si="3"/>
+        <v>41973</v>
+      </c>
+      <c r="B216" s="1">
+        <v>41979</v>
+      </c>
+      <c r="C216">
+        <v>6</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="1">
+        <f t="shared" si="3"/>
+        <v>41980</v>
+      </c>
+      <c r="B217" s="1">
+        <v>41986</v>
+      </c>
+      <c r="C217">
+        <v>6</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="1">
+        <f t="shared" si="3"/>
+        <v>41987</v>
+      </c>
+      <c r="B218" s="1">
+        <v>41993</v>
+      </c>
+      <c r="C218">
+        <v>6</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="1">
+        <f t="shared" si="3"/>
+        <v>41994</v>
+      </c>
+      <c r="B219" s="1">
+        <v>42000</v>
+      </c>
+      <c r="C219">
+        <v>6</v>
+      </c>
+      <c r="D219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="1">
+        <f t="shared" si="3"/>
+        <v>42001</v>
+      </c>
+      <c r="B220" s="1">
+        <v>42007</v>
+      </c>
+      <c r="C220">
+        <v>6</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="1">
+        <f t="shared" si="3"/>
+        <v>42008</v>
+      </c>
+      <c r="B221" s="1">
+        <v>42014</v>
+      </c>
+      <c r="C221">
+        <v>5</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="1">
+        <f t="shared" si="3"/>
+        <v>42015</v>
+      </c>
+      <c r="B222" s="1">
+        <v>42021</v>
+      </c>
+      <c r="C222">
+        <v>7</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="1">
+        <f t="shared" si="3"/>
+        <v>42071</v>
+      </c>
+      <c r="B223" s="1">
+        <v>42077</v>
+      </c>
+      <c r="C223">
+        <v>7</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="1">
+        <f t="shared" si="3"/>
+        <v>42078</v>
+      </c>
+      <c r="B224" s="1">
+        <v>42084</v>
+      </c>
+      <c r="C224">
+        <v>8</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="1">
+        <f t="shared" si="3"/>
+        <v>42085</v>
+      </c>
+      <c r="B225" s="1">
+        <v>42091</v>
+      </c>
+      <c r="C225">
+        <v>9</v>
+      </c>
+      <c r="D225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="1">
+        <f t="shared" ref="A226:A227" si="4">B226-6</f>
+        <v>42330</v>
+      </c>
+      <c r="B226" s="1">
+        <v>42336</v>
+      </c>
+      <c r="C226">
+        <v>9</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="1">
+        <f t="shared" si="4"/>
+        <v>42337</v>
+      </c>
+      <c r="B227" s="1">
+        <v>42343</v>
+      </c>
+      <c r="C227">
+        <v>9</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/4-childrens-series/hunger-games.xlsx
+++ b/4-childrens-series/hunger-games.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lindsayhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lhuth/Documents/GitHub/movies-and-their-books/4-childrens-series/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC2997F-676D-4B4E-8238-2AC98B147917}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3151EDC6-0CBB-024D-B29F-2B56D8EE4038}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="460" windowWidth="20700" windowHeight="16400" activeTab="4" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
+    <workbookView xWindow="4520" yWindow="460" windowWidth="24280" windowHeight="20660" xr2:uid="{AC7901C7-1EE3-AA47-BDC0-FCB01F27881B}"/>
   </bookViews>
   <sheets>
     <sheet name="NYT Books" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Box Office $ Correlation" sheetId="4" r:id="rId4"/>
     <sheet name="Rank + In Theaters Corr" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Second Opens: 2013-11-22</t>
-  </si>
-  <si>
-    <t>Second Closes: 2013-04-03</t>
   </si>
   <si>
     <t>Third Opens: 2014-11-21</t>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Correlation once first movie comes out:</t>
+  </si>
+  <si>
+    <t>Second Closes: 2014-04-03</t>
   </si>
 </sst>
 </file>
@@ -505,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04E2E8DD-A8F5-4740-B8E8-9F99CB838420}">
   <dimension ref="A1:E278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E277"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="E190" sqref="E190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3374,7 +3374,7 @@
         <v>41734</v>
       </c>
       <c r="E190" s="5" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>41965</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4130,7 +4130,7 @@
         <v>42084</v>
       </c>
       <c r="E240" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
@@ -4658,7 +4658,7 @@
         <v>42329</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
@@ -4716,13 +4716,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -4733,7 +4733,7 @@
         <v>67263650</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -4744,7 +4744,7 @@
         <v>50394419</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -4755,7 +4755,7 @@
         <v>34877678</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -4766,7 +4766,7 @@
         <v>10823788</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -4777,7 +4777,7 @@
         <v>10348198</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -4788,7 +4788,7 @@
         <v>8051705</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -4799,7 +4799,7 @@
         <v>8173400</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -4810,7 +4810,7 @@
         <v>18652560</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -4821,7 +4821,7 @@
         <v>24738873</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -4832,7 +4832,7 @@
         <v>15159630</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -4843,7 +4843,7 @@
         <v>4522495</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -4854,7 +4854,7 @@
         <v>5324246</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -4865,7 +4865,7 @@
         <v>4608765</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -4876,7 +4876,7 @@
         <v>6399758</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>12799832</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -4898,7 +4898,7 @@
         <v>13017393</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -4909,7 +4909,7 @@
         <v>7294332</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -4920,7 +4920,7 @@
         <v>4143217</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -4931,7 +4931,7 @@
         <v>3293283</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -4942,7 +4942,7 @@
         <v>2850685</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -4953,7 +4953,7 @@
         <v>2831632</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -4964,7 +4964,7 @@
         <v>6403525</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -4975,7 +4975,7 @@
         <v>9317258</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -4986,7 +4986,7 @@
         <v>5376041</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -4997,7 +4997,7 @@
         <v>1396955</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -5008,7 +5008,7 @@
         <v>1565935</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -5019,7 +5019,7 @@
         <v>1332029</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -5030,7 +5030,7 @@
         <v>1439178</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -5041,7 +5041,7 @@
         <v>4014232</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -5052,7 +5052,7 @@
         <v>6500068</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -5063,7 +5063,7 @@
         <v>4151707</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -5074,7 +5074,7 @@
         <v>1009203</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -5085,7 +5085,7 @@
         <v>1143349</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -5096,7 +5096,7 @@
         <v>944136</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -5107,7 +5107,7 @@
         <v>1041595</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -5118,7 +5118,7 @@
         <v>2992968</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -5129,7 +5129,7 @@
         <v>4967274</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -5140,7 +5140,7 @@
         <v>2854029</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -5151,7 +5151,7 @@
         <v>721922</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -5162,7 +5162,7 @@
         <v>864196</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -5173,7 +5173,7 @@
         <v>712316</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -5184,7 +5184,7 @@
         <v>709543</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -5195,7 +5195,7 @@
         <v>1630046</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -5206,7 +5206,7 @@
         <v>2426877</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -5217,7 +5217,7 @@
         <v>1530738</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -5228,7 +5228,7 @@
         <v>424660</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -5239,7 +5239,7 @@
         <v>535331</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -5250,7 +5250,7 @@
         <v>461344</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -5261,7 +5261,7 @@
         <v>465692</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -5272,7 +5272,7 @@
         <v>1187702</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -5283,7 +5283,7 @@
         <v>1856045</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -5294,7 +5294,7 @@
         <v>1461615</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -5305,7 +5305,7 @@
         <v>398480</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -5316,7 +5316,7 @@
         <v>464758</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -5327,7 +5327,7 @@
         <v>376509</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -5338,7 +5338,7 @@
         <v>384315</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -5349,7 +5349,7 @@
         <v>824397</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -5360,7 +5360,7 @@
         <v>1270649</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -5371,7 +5371,7 @@
         <v>855285</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -5382,7 +5382,7 @@
         <v>353004</v>
       </c>
       <c r="C61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -5393,7 +5393,7 @@
         <v>346088</v>
       </c>
       <c r="C62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -5404,7 +5404,7 @@
         <v>328957</v>
       </c>
       <c r="C63" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -5415,7 +5415,7 @@
         <v>399295</v>
       </c>
       <c r="C64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -5426,7 +5426,7 @@
         <v>600241</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -5437,7 +5437,7 @@
         <v>881691</v>
       </c>
       <c r="C66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -5448,7 +5448,7 @@
         <v>829474</v>
       </c>
       <c r="C67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -5459,7 +5459,7 @@
         <v>701977</v>
       </c>
       <c r="C68" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -5470,7 +5470,7 @@
         <v>248993</v>
       </c>
       <c r="C69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -5481,7 +5481,7 @@
         <v>235064</v>
       </c>
       <c r="C70" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -5492,7 +5492,7 @@
         <v>267523</v>
       </c>
       <c r="C71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -5503,7 +5503,7 @@
         <v>454882</v>
       </c>
       <c r="C72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -5514,7 +5514,7 @@
         <v>677405</v>
       </c>
       <c r="C73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -5525,7 +5525,7 @@
         <v>434899</v>
       </c>
       <c r="C74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -5536,7 +5536,7 @@
         <v>208749</v>
       </c>
       <c r="C75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -5547,7 +5547,7 @@
         <v>219296</v>
       </c>
       <c r="C76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -5558,7 +5558,7 @@
         <v>205657</v>
       </c>
       <c r="C77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -5569,7 +5569,7 @@
         <v>225686</v>
       </c>
       <c r="C78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -5580,7 +5580,7 @@
         <v>318939</v>
       </c>
       <c r="C79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -5591,7 +5591,7 @@
         <v>431013</v>
       </c>
       <c r="C80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -5602,7 +5602,7 @@
         <v>322261</v>
       </c>
       <c r="C81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -5613,7 +5613,7 @@
         <v>157003</v>
       </c>
       <c r="C82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -5624,7 +5624,7 @@
         <v>171583</v>
       </c>
       <c r="C83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -5635,7 +5635,7 @@
         <v>156889</v>
       </c>
       <c r="C84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -5646,7 +5646,7 @@
         <v>155610</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -5657,7 +5657,7 @@
         <v>247895</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -5668,7 +5668,7 @@
         <v>338002</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>266935</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -5690,7 +5690,7 @@
         <v>137261</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -5701,7 +5701,7 @@
         <v>146913</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -5712,7 +5712,7 @@
         <v>142590</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -5723,7 +5723,7 @@
         <v>146506</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -5734,7 +5734,7 @@
         <v>184449</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -5745,7 +5745,7 @@
         <v>255614</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -5756,7 +5756,7 @@
         <v>184755</v>
       </c>
       <c r="C95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -5767,7 +5767,7 @@
         <v>97158</v>
       </c>
       <c r="C96" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -5778,7 +5778,7 @@
         <v>107237</v>
       </c>
       <c r="C97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -5789,7 +5789,7 @@
         <v>97775</v>
       </c>
       <c r="C98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -5800,7 +5800,7 @@
         <v>104997</v>
       </c>
       <c r="C99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -5811,7 +5811,7 @@
         <v>113986</v>
       </c>
       <c r="C100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -5822,7 +5822,7 @@
         <v>158156</v>
       </c>
       <c r="C101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -5833,7 +5833,7 @@
         <v>125003</v>
       </c>
       <c r="C102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -5844,7 +5844,7 @@
         <v>75216</v>
       </c>
       <c r="C103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -5855,7 +5855,7 @@
         <v>69598</v>
       </c>
       <c r="C104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -5866,7 +5866,7 @@
         <v>81411</v>
       </c>
       <c r="C105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -5877,7 +5877,7 @@
         <v>71577</v>
       </c>
       <c r="C106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -5888,7 +5888,7 @@
         <v>98169</v>
       </c>
       <c r="C107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -5899,7 +5899,7 @@
         <v>129060</v>
       </c>
       <c r="C108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -5910,7 +5910,7 @@
         <v>88250</v>
       </c>
       <c r="C109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -5921,7 +5921,7 @@
         <v>46786</v>
       </c>
       <c r="C110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -5932,7 +5932,7 @@
         <v>52487</v>
       </c>
       <c r="C111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -5943,7 +5943,7 @@
         <v>51441</v>
       </c>
       <c r="C112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -5954,7 +5954,7 @@
         <v>52049</v>
       </c>
       <c r="C113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -5965,7 +5965,7 @@
         <v>81315</v>
       </c>
       <c r="C114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -5976,7 +5976,7 @@
         <v>116152</v>
       </c>
       <c r="C115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -5987,7 +5987,7 @@
         <v>82288</v>
       </c>
       <c r="C116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -5998,7 +5998,7 @@
         <v>42133</v>
       </c>
       <c r="C117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -6009,7 +6009,7 @@
         <v>47929</v>
       </c>
       <c r="C118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -6020,7 +6020,7 @@
         <v>45630</v>
       </c>
       <c r="C119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -6031,7 +6031,7 @@
         <v>45131</v>
       </c>
       <c r="C120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -6042,7 +6042,7 @@
         <v>55696</v>
       </c>
       <c r="C121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -6053,7 +6053,7 @@
         <v>72444</v>
       </c>
       <c r="C122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -6064,7 +6064,7 @@
         <v>54097</v>
       </c>
       <c r="C123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -6075,7 +6075,7 @@
         <v>31550</v>
       </c>
       <c r="C124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -6086,7 +6086,7 @@
         <v>36176</v>
       </c>
       <c r="C125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -6097,7 +6097,7 @@
         <v>33228</v>
       </c>
       <c r="C126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -6108,7 +6108,7 @@
         <v>34718</v>
       </c>
       <c r="C127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -6119,7 +6119,7 @@
         <v>152478</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -6130,7 +6130,7 @@
         <v>203719</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -6141,7 +6141,7 @@
         <v>162743</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -6152,7 +6152,7 @@
         <v>92672</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -6163,7 +6163,7 @@
         <v>104042</v>
       </c>
       <c r="C132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -6174,7 +6174,7 @@
         <v>93818</v>
       </c>
       <c r="C133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -6185,7 +6185,7 @@
         <v>95003</v>
       </c>
       <c r="C134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -6196,7 +6196,7 @@
         <v>129247</v>
       </c>
       <c r="C135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -6207,7 +6207,7 @@
         <v>172607</v>
       </c>
       <c r="C136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -6218,7 +6218,7 @@
         <v>127512</v>
       </c>
       <c r="C137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -6229,7 +6229,7 @@
         <v>66226</v>
       </c>
       <c r="C138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -6240,7 +6240,7 @@
         <v>69578</v>
       </c>
       <c r="C139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -6251,7 +6251,7 @@
         <v>67749</v>
       </c>
       <c r="C140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -6262,7 +6262,7 @@
         <v>69458</v>
       </c>
       <c r="C141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -6273,7 +6273,7 @@
         <v>99602</v>
       </c>
       <c r="C142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -6284,7 +6284,7 @@
         <v>133047</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -6295,7 +6295,7 @@
         <v>91408</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -6306,7 +6306,7 @@
         <v>46615</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -6317,7 +6317,7 @@
         <v>51293</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -6328,7 +6328,7 @@
         <v>44602</v>
       </c>
       <c r="C147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
         <v>46455</v>
       </c>
       <c r="C148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -6350,7 +6350,7 @@
         <v>66510</v>
       </c>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -6361,7 +6361,7 @@
         <v>84031</v>
       </c>
       <c r="C150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -6372,7 +6372,7 @@
         <v>54414</v>
       </c>
       <c r="C151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -6383,7 +6383,7 @@
         <v>20673</v>
       </c>
       <c r="C152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -6394,7 +6394,7 @@
         <v>21632</v>
       </c>
       <c r="C153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -6405,7 +6405,7 @@
         <v>19267</v>
       </c>
       <c r="C154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -6416,7 +6416,7 @@
         <v>19376</v>
       </c>
       <c r="C155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -6427,7 +6427,7 @@
         <v>32923</v>
       </c>
       <c r="C156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -6438,7 +6438,7 @@
         <v>50553</v>
       </c>
       <c r="C157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -6449,7 +6449,7 @@
         <v>31375</v>
       </c>
       <c r="C158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -6460,7 +6460,7 @@
         <v>10013</v>
       </c>
       <c r="C159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>10430</v>
       </c>
       <c r="C160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -6482,7 +6482,7 @@
         <v>9197</v>
       </c>
       <c r="C161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -6493,7 +6493,7 @@
         <v>9658</v>
       </c>
       <c r="C162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -6504,7 +6504,7 @@
         <v>13158</v>
       </c>
       <c r="C163" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -6515,7 +6515,7 @@
         <v>24977</v>
       </c>
       <c r="C164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -6526,7 +6526,7 @@
         <v>20208</v>
       </c>
       <c r="C165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -6537,7 +6537,7 @@
         <v>17603</v>
       </c>
       <c r="C166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -6548,7 +6548,7 @@
         <v>4239</v>
       </c>
       <c r="C167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>3428</v>
       </c>
       <c r="C168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -6570,7 +6570,7 @@
         <v>3770</v>
       </c>
       <c r="C169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -6581,7 +6581,7 @@
         <v>70950136</v>
       </c>
       <c r="C170" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -6592,7 +6592,7 @@
         <v>52619106</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -6603,7 +6603,7 @@
         <v>34505044</v>
       </c>
       <c r="C172" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -6614,7 +6614,7 @@
         <v>12321722</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -6625,7 +6625,7 @@
         <v>15960309</v>
       </c>
       <c r="C174" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
         <v>20808110</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -6647,7 +6647,7 @@
         <v>14951629</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -6658,7 +6658,7 @@
         <v>31570448</v>
       </c>
       <c r="C177" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -6669,7 +6669,7 @@
         <v>28401259</v>
       </c>
       <c r="C178" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -6680,7 +6680,7 @@
         <v>14207894</v>
       </c>
       <c r="C179" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -6691,7 +6691,7 @@
         <v>3402550</v>
       </c>
       <c r="C180" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -6702,7 +6702,7 @@
         <v>4009955</v>
       </c>
       <c r="C181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -6713,7 +6713,7 @@
         <v>3017817</v>
       </c>
       <c r="C182" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -6724,7 +6724,7 @@
         <v>2938977</v>
       </c>
       <c r="C183" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -6735,7 +6735,7 @@
         <v>7775778</v>
       </c>
       <c r="C184" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -6746,7 +6746,7 @@
         <v>11922878</v>
       </c>
       <c r="C185" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -6757,7 +6757,7 @@
         <v>6487230</v>
       </c>
       <c r="C186" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -6768,7 +6768,7 @@
         <v>1943642</v>
       </c>
       <c r="C187" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -6779,7 +6779,7 @@
         <v>2372675</v>
       </c>
       <c r="C188" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -6790,7 +6790,7 @@
         <v>1855493</v>
       </c>
       <c r="C189" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -6801,7 +6801,7 @@
         <v>1809345</v>
       </c>
       <c r="C190" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -6812,7 +6812,7 @@
         <v>4105897</v>
       </c>
       <c r="C191" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -6823,7 +6823,7 @@
         <v>5746555</v>
       </c>
       <c r="C192" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -6834,7 +6834,7 @@
         <v>3819214</v>
       </c>
       <c r="C193" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -6845,7 +6845,7 @@
         <v>1319589</v>
       </c>
       <c r="C194" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -6856,7 +6856,7 @@
         <v>1523606</v>
       </c>
       <c r="C195" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -6867,7 +6867,7 @@
         <v>1243105</v>
       </c>
       <c r="C196" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -6878,7 +6878,7 @@
         <v>1363833</v>
       </c>
       <c r="C197" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -6889,7 +6889,7 @@
         <v>2504972</v>
       </c>
       <c r="C198" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -6900,7 +6900,7 @@
         <v>3401489</v>
       </c>
       <c r="C199" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -6911,7 +6911,7 @@
         <v>2858018</v>
       </c>
       <c r="C200" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -6922,7 +6922,7 @@
         <v>2278758</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -6933,7 +6933,7 @@
         <v>1358828</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -6944,7 +6944,7 @@
         <v>2528150</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -6955,7 +6955,7 @@
         <v>3039832</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -6966,7 +6966,7 @@
         <v>3433033</v>
       </c>
       <c r="C205" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -6977,7 +6977,7 @@
         <v>3696908</v>
       </c>
       <c r="C206" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -6988,7 +6988,7 @@
         <v>2931538</v>
       </c>
       <c r="C207" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -6999,7 +6999,7 @@
         <v>2489456</v>
       </c>
       <c r="C208" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -7010,7 +7010,7 @@
         <v>2051927</v>
       </c>
       <c r="C209" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -7021,7 +7021,7 @@
         <v>2880321</v>
       </c>
       <c r="C210" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -7032,7 +7032,7 @@
         <v>1681364</v>
       </c>
       <c r="C211" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -7043,7 +7043,7 @@
         <v>2442811</v>
       </c>
       <c r="C212" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -7054,7 +7054,7 @@
         <v>3046351</v>
       </c>
       <c r="C213" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -7065,7 +7065,7 @@
         <v>1562147</v>
       </c>
       <c r="C214" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -7076,7 +7076,7 @@
         <v>563827</v>
       </c>
       <c r="C215" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -7087,7 +7087,7 @@
         <v>669249</v>
       </c>
       <c r="C216" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -7098,7 +7098,7 @@
         <v>523378</v>
       </c>
       <c r="C217" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -7109,7 +7109,7 @@
         <v>496498</v>
       </c>
       <c r="C218" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -7120,7 +7120,7 @@
         <v>1208094</v>
       </c>
       <c r="C219" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -7131,7 +7131,7 @@
         <v>2083464</v>
       </c>
       <c r="C220" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -7142,7 +7142,7 @@
         <v>1091650</v>
       </c>
       <c r="C221" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -7153,7 +7153,7 @@
         <v>293939</v>
       </c>
       <c r="C222" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -7164,7 +7164,7 @@
         <v>353654</v>
       </c>
       <c r="C223" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -7175,7 +7175,7 @@
         <v>290785</v>
       </c>
       <c r="C224" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -7186,7 +7186,7 @@
         <v>285555</v>
       </c>
       <c r="C225" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -7197,7 +7197,7 @@
         <v>631065</v>
       </c>
       <c r="C226" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -7208,7 +7208,7 @@
         <v>1144419</v>
       </c>
       <c r="C227" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -7219,7 +7219,7 @@
         <v>675697</v>
       </c>
       <c r="C228" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -7230,7 +7230,7 @@
         <v>568638</v>
       </c>
       <c r="C229" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -7241,7 +7241,7 @@
         <v>162541</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -7252,7 +7252,7 @@
         <v>147604</v>
       </c>
       <c r="C231" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -7263,7 +7263,7 @@
         <v>152212</v>
       </c>
       <c r="C232" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -7274,7 +7274,7 @@
         <v>397638</v>
       </c>
       <c r="C233" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -7285,7 +7285,7 @@
         <v>748096</v>
       </c>
       <c r="C234" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -7296,7 +7296,7 @@
         <v>394215</v>
       </c>
       <c r="C235" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -7307,7 +7307,7 @@
         <v>105753</v>
       </c>
       <c r="C236" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -7318,7 +7318,7 @@
         <v>127436</v>
       </c>
       <c r="C237" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -7329,7 +7329,7 @@
         <v>102798</v>
       </c>
       <c r="C238" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -7340,7 +7340,7 @@
         <v>110640</v>
       </c>
       <c r="C239" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -7351,7 +7351,7 @@
         <v>277459</v>
       </c>
       <c r="C240" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -7362,7 +7362,7 @@
         <v>510404</v>
       </c>
       <c r="C241" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -7373,7 +7373,7 @@
         <v>152229</v>
       </c>
       <c r="C242" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -7384,7 +7384,7 @@
         <v>82349</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -7395,7 +7395,7 @@
         <v>101080</v>
       </c>
       <c r="C244" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -7406,7 +7406,7 @@
         <v>77796</v>
       </c>
       <c r="C245" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -7417,7 +7417,7 @@
         <v>80924</v>
       </c>
       <c r="C246" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -7428,7 +7428,7 @@
         <v>164611</v>
       </c>
       <c r="C247" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -7439,7 +7439,7 @@
         <v>323340</v>
       </c>
       <c r="C248" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -7450,7 +7450,7 @@
         <v>172717</v>
       </c>
       <c r="C249" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -7461,7 +7461,7 @@
         <v>50119</v>
       </c>
       <c r="C250" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -7472,7 +7472,7 @@
         <v>49477</v>
       </c>
       <c r="C251" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -7483,7 +7483,7 @@
         <v>30029</v>
       </c>
       <c r="C252" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -7494,7 +7494,7 @@
         <v>34741</v>
       </c>
       <c r="C253" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -7505,7 +7505,7 @@
         <v>172457</v>
       </c>
       <c r="C254" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -7516,7 +7516,7 @@
         <v>216383</v>
       </c>
       <c r="C255" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -7527,7 +7527,7 @@
         <v>146772</v>
       </c>
       <c r="C256" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -7538,7 +7538,7 @@
         <v>91417</v>
       </c>
       <c r="C257" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -7549,7 +7549,7 @@
         <v>36591</v>
       </c>
       <c r="C258" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -7560,7 +7560,7 @@
         <v>33901</v>
       </c>
       <c r="C259" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -7571,7 +7571,7 @@
         <v>34176</v>
       </c>
       <c r="C260" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -7582,7 +7582,7 @@
         <v>88305</v>
       </c>
       <c r="C261" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -7593,7 +7593,7 @@
         <v>151895</v>
       </c>
       <c r="C262" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -7604,7 +7604,7 @@
         <v>78926</v>
       </c>
       <c r="C263" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -7615,7 +7615,7 @@
         <v>20040</v>
       </c>
       <c r="C264" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -7626,7 +7626,7 @@
         <v>25208</v>
       </c>
       <c r="C265" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -7637,7 +7637,7 @@
         <v>22924</v>
       </c>
       <c r="C266" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -7648,7 +7648,7 @@
         <v>24610</v>
       </c>
       <c r="C267" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -7659,7 +7659,7 @@
         <v>49403</v>
       </c>
       <c r="C268" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -7670,7 +7670,7 @@
         <v>91994</v>
       </c>
       <c r="C269" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -7681,7 +7681,7 @@
         <v>44645</v>
       </c>
       <c r="C270" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -7692,7 +7692,7 @@
         <v>15814</v>
       </c>
       <c r="C271" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -7703,7 +7703,7 @@
         <v>17984</v>
       </c>
       <c r="C272" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
@@ -7714,7 +7714,7 @@
         <v>14436</v>
       </c>
       <c r="C273" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -7725,7 +7725,7 @@
         <v>16143</v>
       </c>
       <c r="C274" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -7736,7 +7736,7 @@
         <v>34692</v>
       </c>
       <c r="C275" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -7747,7 +7747,7 @@
         <v>56419</v>
       </c>
       <c r="C276" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -7758,7 +7758,7 @@
         <v>27306</v>
       </c>
       <c r="C277" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -7769,7 +7769,7 @@
         <v>10583</v>
       </c>
       <c r="C278" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -7780,7 +7780,7 @@
         <v>13284</v>
       </c>
       <c r="C279" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -7791,7 +7791,7 @@
         <v>10276</v>
       </c>
       <c r="C280" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -7802,7 +7802,7 @@
         <v>11478</v>
       </c>
       <c r="C281" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -7813,7 +7813,7 @@
         <v>60219</v>
       </c>
       <c r="C282" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -7824,7 +7824,7 @@
         <v>87990</v>
       </c>
       <c r="C283" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -7835,7 +7835,7 @@
         <v>57041</v>
       </c>
       <c r="C284" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -7846,7 +7846,7 @@
         <v>18740</v>
       </c>
       <c r="C285" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -7857,7 +7857,7 @@
         <v>22023</v>
       </c>
       <c r="C286" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -7868,7 +7868,7 @@
         <v>19703</v>
       </c>
       <c r="C287" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -7879,7 +7879,7 @@
         <v>17983</v>
       </c>
       <c r="C288" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -7890,7 +7890,7 @@
         <v>32250</v>
       </c>
       <c r="C289" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -7901,7 +7901,7 @@
         <v>50667</v>
       </c>
       <c r="C290" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -7912,7 +7912,7 @@
         <v>31981</v>
       </c>
       <c r="C291" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -7923,7 +7923,7 @@
         <v>11217</v>
       </c>
       <c r="C292" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -7934,7 +7934,7 @@
         <v>13455</v>
       </c>
       <c r="C293" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -7945,7 +7945,7 @@
         <v>12618</v>
       </c>
       <c r="C294" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -7956,7 +7956,7 @@
         <v>12286</v>
       </c>
       <c r="C295" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -7967,7 +7967,7 @@
         <v>18218</v>
       </c>
       <c r="C296" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -7978,7 +7978,7 @@
         <v>28714</v>
       </c>
       <c r="C297" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -7989,7 +7989,7 @@
         <v>16591</v>
       </c>
       <c r="C298" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -8000,7 +8000,7 @@
         <v>5175</v>
       </c>
       <c r="C299" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -8011,7 +8011,7 @@
         <v>6040</v>
       </c>
       <c r="C300" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -8022,7 +8022,7 @@
         <v>5382</v>
       </c>
       <c r="C301" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -8033,7 +8033,7 @@
         <v>5873</v>
       </c>
       <c r="C302" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -8044,7 +8044,7 @@
         <v>55139942</v>
       </c>
       <c r="C303" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -8055,7 +8055,7 @@
         <v>40905873</v>
       </c>
       <c r="C304" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -8066,7 +8066,7 @@
         <v>25851819</v>
       </c>
       <c r="C305" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -8077,7 +8077,7 @@
         <v>8978318</v>
       </c>
       <c r="C306" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -8088,7 +8088,7 @@
         <v>12131853</v>
       </c>
       <c r="C307" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -8099,7 +8099,7 @@
         <v>14620517</v>
       </c>
       <c r="C308" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -8110,7 +8110,7 @@
         <v>11079983</v>
       </c>
       <c r="C309" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -8121,7 +8121,7 @@
         <v>24199442</v>
       </c>
       <c r="C310" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -8132,7 +8132,7 @@
         <v>21992225</v>
       </c>
       <c r="C311" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -8143,7 +8143,7 @@
         <v>10780932</v>
       </c>
       <c r="C312" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -8154,7 +8154,7 @@
         <v>2635435</v>
       </c>
       <c r="C313" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -8165,7 +8165,7 @@
         <v>3160145</v>
       </c>
       <c r="C314" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -8176,7 +8176,7 @@
         <v>2332453</v>
       </c>
       <c r="C315" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -8187,7 +8187,7 @@
         <v>2317894</v>
       </c>
       <c r="C316" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -8198,7 +8198,7 @@
         <v>6662680</v>
       </c>
       <c r="C317" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -8209,7 +8209,7 @@
         <v>9914689</v>
       </c>
       <c r="C318" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -8220,7 +8220,7 @@
         <v>5449393</v>
       </c>
       <c r="C319" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -8231,7 +8231,7 @@
         <v>1437896</v>
       </c>
       <c r="C320" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -8242,7 +8242,7 @@
         <v>1785778</v>
       </c>
       <c r="C321" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -8253,7 +8253,7 @@
         <v>1389399</v>
       </c>
       <c r="C322" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -8264,7 +8264,7 @@
         <v>1431583</v>
       </c>
       <c r="C323" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -8275,7 +8275,7 @@
         <v>3742859</v>
       </c>
       <c r="C324" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -8286,7 +8286,7 @@
         <v>5728430</v>
       </c>
       <c r="C325" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -8297,7 +8297,7 @@
         <v>3215453</v>
       </c>
       <c r="C326" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -8308,7 +8308,7 @@
         <v>1111833</v>
       </c>
       <c r="C327" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -8319,7 +8319,7 @@
         <v>1371154</v>
       </c>
       <c r="C328" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -8330,7 +8330,7 @@
         <v>1021818</v>
       </c>
       <c r="C329" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -8341,7 +8341,7 @@
         <v>1086893</v>
       </c>
       <c r="C330" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -8352,7 +8352,7 @@
         <v>2275909</v>
       </c>
       <c r="C331" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -8363,7 +8363,7 @@
         <v>3145149</v>
       </c>
       <c r="C332" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -8374,7 +8374,7 @@
         <v>2458363</v>
       </c>
       <c r="C333" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -8385,7 +8385,7 @@
         <v>1716284</v>
       </c>
       <c r="C334" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -8396,7 +8396,7 @@
         <v>1910174</v>
       </c>
       <c r="C335" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -8407,7 +8407,7 @@
         <v>987657</v>
       </c>
       <c r="C336" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -8418,7 +8418,7 @@
         <v>2685756</v>
       </c>
       <c r="C337" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -8429,7 +8429,7 @@
         <v>3526032</v>
       </c>
       <c r="C338" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
@@ -8440,7 +8440,7 @@
         <v>3664524</v>
       </c>
       <c r="C339" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -8451,7 +8451,7 @@
         <v>2872869</v>
       </c>
       <c r="C340" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -8462,7 +8462,7 @@
         <v>2220422</v>
       </c>
       <c r="C341" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -8473,7 +8473,7 @@
         <v>2389225</v>
       </c>
       <c r="C342" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -8484,7 +8484,7 @@
         <v>1953861</v>
       </c>
       <c r="C343" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -8495,7 +8495,7 @@
         <v>2891634</v>
       </c>
       <c r="C344" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -8506,7 +8506,7 @@
         <v>2985625</v>
       </c>
       <c r="C345" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -8517,7 +8517,7 @@
         <v>2894119</v>
       </c>
       <c r="C346" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -8528,7 +8528,7 @@
         <v>1680210</v>
       </c>
       <c r="C347" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -8539,7 +8539,7 @@
         <v>566745</v>
       </c>
       <c r="C348" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -8550,7 +8550,7 @@
         <v>574943</v>
       </c>
       <c r="C349" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -8561,7 +8561,7 @@
         <v>471526</v>
       </c>
       <c r="C350" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -8572,7 +8572,7 @@
         <v>426837</v>
       </c>
       <c r="C351" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -8583,7 +8583,7 @@
         <v>1059634</v>
       </c>
       <c r="C352" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -8594,7 +8594,7 @@
         <v>1786532</v>
       </c>
       <c r="C353" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -8605,7 +8605,7 @@
         <v>919727</v>
       </c>
       <c r="C354" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
@@ -8616,7 +8616,7 @@
         <v>252729</v>
       </c>
       <c r="C355" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -8627,7 +8627,7 @@
         <v>343342</v>
       </c>
       <c r="C356" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -8638,7 +8638,7 @@
         <v>280348</v>
       </c>
       <c r="C357" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -8649,7 +8649,7 @@
         <v>226774</v>
       </c>
       <c r="C358" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -8660,7 +8660,7 @@
         <v>484926</v>
       </c>
       <c r="C359" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -8671,7 +8671,7 @@
         <v>845214</v>
       </c>
       <c r="C360" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -8682,7 +8682,7 @@
         <v>542662</v>
       </c>
       <c r="C361" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
@@ -8693,7 +8693,7 @@
         <v>414495</v>
       </c>
       <c r="C362" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -8704,7 +8704,7 @@
         <v>143295</v>
       </c>
       <c r="C363" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -8715,7 +8715,7 @@
         <v>106407</v>
       </c>
       <c r="C364" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
@@ -8726,7 +8726,7 @@
         <v>104807</v>
       </c>
       <c r="C365" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -8737,7 +8737,7 @@
         <v>266494</v>
       </c>
       <c r="C366" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -8748,7 +8748,7 @@
         <v>515221</v>
       </c>
       <c r="C367" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -8759,7 +8759,7 @@
         <v>258639</v>
       </c>
       <c r="C368" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -8770,7 +8770,7 @@
         <v>60578</v>
       </c>
       <c r="C369" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -8781,7 +8781,7 @@
         <v>74249</v>
       </c>
       <c r="C370" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -8792,7 +8792,7 @@
         <v>61561</v>
       </c>
       <c r="C371" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -8803,7 +8803,7 @@
         <v>55485</v>
       </c>
       <c r="C372" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -8814,7 +8814,7 @@
         <v>169617</v>
       </c>
       <c r="C373" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -8825,7 +8825,7 @@
         <v>295519</v>
       </c>
       <c r="C374" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -8836,7 +8836,7 @@
         <v>85117</v>
       </c>
       <c r="C375" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -8847,7 +8847,7 @@
         <v>43071</v>
       </c>
       <c r="C376" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -8858,7 +8858,7 @@
         <v>47925</v>
       </c>
       <c r="C377" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -8869,7 +8869,7 @@
         <v>39493</v>
       </c>
       <c r="C378" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -8880,7 +8880,7 @@
         <v>35560</v>
       </c>
       <c r="C379" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -8891,7 +8891,7 @@
         <v>106605</v>
       </c>
       <c r="C380" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -8902,7 +8902,7 @@
         <v>200965</v>
       </c>
       <c r="C381" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
@@ -8913,7 +8913,7 @@
         <v>103361</v>
       </c>
       <c r="C382" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
@@ -8924,7 +8924,7 @@
         <v>30872</v>
       </c>
       <c r="C383" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -8935,7 +8935,7 @@
         <v>32323</v>
       </c>
       <c r="C384" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -8946,7 +8946,7 @@
         <v>28345</v>
       </c>
       <c r="C385" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -8957,7 +8957,7 @@
         <v>28633</v>
       </c>
       <c r="C386" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -8968,7 +8968,7 @@
         <v>65188</v>
       </c>
       <c r="C387" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -8979,7 +8979,7 @@
         <v>152740</v>
       </c>
       <c r="C388" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -8990,7 +8990,7 @@
         <v>85037</v>
       </c>
       <c r="C389" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -9001,7 +9001,7 @@
         <v>59616</v>
       </c>
       <c r="C390" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -9012,7 +9012,7 @@
         <v>21141</v>
       </c>
       <c r="C391" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -9023,7 +9023,7 @@
         <v>19843</v>
       </c>
       <c r="C392" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -9034,7 +9034,7 @@
         <v>19470</v>
       </c>
       <c r="C393" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -9045,7 +9045,7 @@
         <v>48397</v>
       </c>
       <c r="C394" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -9056,7 +9056,7 @@
         <v>72751</v>
       </c>
       <c r="C395" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -9067,7 +9067,7 @@
         <v>41115</v>
       </c>
       <c r="C396" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -9078,7 +9078,7 @@
         <v>13000</v>
       </c>
       <c r="C397" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -9089,7 +9089,7 @@
         <v>14744</v>
       </c>
       <c r="C398" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -9100,7 +9100,7 @@
         <v>12232</v>
       </c>
       <c r="C399" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -9111,7 +9111,7 @@
         <v>13648</v>
       </c>
       <c r="C400" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -9122,7 +9122,7 @@
         <v>62159</v>
       </c>
       <c r="C401" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
@@ -9133,7 +9133,7 @@
         <v>118980</v>
       </c>
       <c r="C402" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -9144,7 +9144,7 @@
         <v>72153</v>
       </c>
       <c r="C403" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -9155,7 +9155,7 @@
         <v>19634</v>
       </c>
       <c r="C404" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -9166,7 +9166,7 @@
         <v>21347</v>
       </c>
       <c r="C405" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -9177,7 +9177,7 @@
         <v>17169</v>
       </c>
       <c r="C406" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -9188,7 +9188,7 @@
         <v>21213</v>
       </c>
       <c r="C407" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -9199,7 +9199,7 @@
         <v>47455</v>
       </c>
       <c r="C408" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
@@ -9210,7 +9210,7 @@
         <v>77420</v>
       </c>
       <c r="C409" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -9221,7 +9221,7 @@
         <v>40805</v>
       </c>
       <c r="C410" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -9232,7 +9232,7 @@
         <v>13975</v>
       </c>
       <c r="C411" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -9243,7 +9243,7 @@
         <v>15975</v>
       </c>
       <c r="C412" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -9254,7 +9254,7 @@
         <v>12838</v>
       </c>
       <c r="C413" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -9265,7 +9265,7 @@
         <v>13432</v>
       </c>
       <c r="C414" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
@@ -9276,7 +9276,7 @@
         <v>25403</v>
       </c>
       <c r="C415" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -9287,7 +9287,7 @@
         <v>39374</v>
       </c>
       <c r="C416" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -9298,7 +9298,7 @@
         <v>20541</v>
       </c>
       <c r="C417" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -9309,7 +9309,7 @@
         <v>7173</v>
       </c>
       <c r="C418" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -9320,7 +9320,7 @@
         <v>8421</v>
       </c>
       <c r="C419" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -9331,7 +9331,7 @@
         <v>7711</v>
       </c>
       <c r="C420" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.2">
@@ -9342,7 +9342,7 @@
         <v>8707</v>
       </c>
       <c r="C421" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -9353,7 +9353,7 @@
         <v>45579056</v>
       </c>
       <c r="C422" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -9364,7 +9364,7 @@
         <v>33841369</v>
       </c>
       <c r="C423" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -9375,7 +9375,7 @@
         <v>23245556</v>
       </c>
       <c r="C424" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -9386,7 +9386,7 @@
         <v>8540357</v>
       </c>
       <c r="C425" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -9397,7 +9397,7 @@
         <v>11356003</v>
       </c>
       <c r="C426" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -9408,7 +9408,7 @@
         <v>13663451</v>
       </c>
       <c r="C427" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -9419,7 +9419,7 @@
         <v>10314742</v>
       </c>
       <c r="C428" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="429" spans="1:3" x14ac:dyDescent="0.2">
@@ -9430,7 +9430,7 @@
         <v>21263932</v>
       </c>
       <c r="C429" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -9441,7 +9441,7 @@
         <v>20215233</v>
       </c>
       <c r="C430" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -9452,7 +9452,7 @@
         <v>10525430</v>
       </c>
       <c r="C431" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -9463,7 +9463,7 @@
         <v>2546218</v>
       </c>
       <c r="C432" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -9474,7 +9474,7 @@
         <v>3102455</v>
       </c>
       <c r="C433" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -9485,7 +9485,7 @@
         <v>2186352</v>
       </c>
       <c r="C434" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -9496,7 +9496,7 @@
         <v>2131846</v>
       </c>
       <c r="C435" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -9507,7 +9507,7 @@
         <v>5664847</v>
       </c>
       <c r="C436" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -9518,7 +9518,7 @@
         <v>8301010</v>
       </c>
       <c r="C437" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -9529,7 +9529,7 @@
         <v>4891690</v>
       </c>
       <c r="C438" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -9540,7 +9540,7 @@
         <v>1365908</v>
       </c>
       <c r="C439" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -9551,7 +9551,7 @@
         <v>1790383</v>
       </c>
       <c r="C440" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -9562,7 +9562,7 @@
         <v>1380282</v>
       </c>
       <c r="C441" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -9573,7 +9573,7 @@
         <v>1284836</v>
       </c>
       <c r="C442" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -9584,7 +9584,7 @@
         <v>3306775</v>
       </c>
       <c r="C443" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -9595,7 +9595,7 @@
         <v>5021834</v>
       </c>
       <c r="C444" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -9606,7 +9606,7 @@
         <v>3084707</v>
       </c>
       <c r="C445" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -9617,7 +9617,7 @@
         <v>1022526</v>
       </c>
       <c r="C446" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -9628,7 +9628,7 @@
         <v>1256386</v>
       </c>
       <c r="C447" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -9639,7 +9639,7 @@
         <v>1030120</v>
       </c>
       <c r="C448" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -9650,7 +9650,7 @@
         <v>875470</v>
       </c>
       <c r="C449" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -9661,7 +9661,7 @@
         <v>1543423</v>
       </c>
       <c r="C450" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -9672,7 +9672,7 @@
         <v>2299127</v>
       </c>
       <c r="C451" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -9683,7 +9683,7 @@
         <v>1850133</v>
       </c>
       <c r="C452" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -9694,7 +9694,7 @@
         <v>1203588</v>
       </c>
       <c r="C453" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
@@ -9705,7 +9705,7 @@
         <v>1433638</v>
       </c>
       <c r="C454" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -9716,7 +9716,7 @@
         <v>1324378</v>
       </c>
       <c r="C455" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -9727,7 +9727,7 @@
         <v>819796</v>
       </c>
       <c r="C456" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -9738,7 +9738,7 @@
         <v>1502628</v>
       </c>
       <c r="C457" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -9749,7 +9749,7 @@
         <v>2059324</v>
       </c>
       <c r="C458" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
@@ -9760,7 +9760,7 @@
         <v>1715876</v>
       </c>
       <c r="C459" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -9771,7 +9771,7 @@
         <v>1345163</v>
       </c>
       <c r="C460" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -9782,7 +9782,7 @@
         <v>1358613</v>
       </c>
       <c r="C461" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -9793,7 +9793,7 @@
         <v>1303498</v>
       </c>
       <c r="C462" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -9804,7 +9804,7 @@
         <v>1021162</v>
       </c>
       <c r="C463" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
@@ -9815,7 +9815,7 @@
         <v>1740412</v>
       </c>
       <c r="C464" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -9826,7 +9826,7 @@
         <v>1846722</v>
       </c>
       <c r="C465" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -9837,7 +9837,7 @@
         <v>1029140</v>
       </c>
       <c r="C466" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
@@ -9848,7 +9848,7 @@
         <v>388171</v>
       </c>
       <c r="C467" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -9859,7 +9859,7 @@
         <v>360573</v>
       </c>
       <c r="C468" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -9870,7 +9870,7 @@
         <v>288529</v>
       </c>
       <c r="C469" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -9881,7 +9881,7 @@
         <v>248942</v>
       </c>
       <c r="C470" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -9892,7 +9892,7 @@
         <v>589238</v>
       </c>
       <c r="C471" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -9903,7 +9903,7 @@
         <v>982061</v>
       </c>
       <c r="C472" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -9914,7 +9914,7 @@
         <v>535588</v>
       </c>
       <c r="C473" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -9925,7 +9925,7 @@
         <v>145352</v>
       </c>
       <c r="C474" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -9936,7 +9936,7 @@
         <v>177198</v>
       </c>
       <c r="C475" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
@@ -9947,7 +9947,7 @@
         <v>149363</v>
       </c>
       <c r="C476" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
@@ -9958,7 +9958,7 @@
         <v>128458</v>
       </c>
       <c r="C477" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -9969,7 +9969,7 @@
         <v>296944</v>
       </c>
       <c r="C478" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -9980,7 +9980,7 @@
         <v>488485</v>
       </c>
       <c r="C479" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -9991,7 +9991,7 @@
         <v>346707</v>
       </c>
       <c r="C480" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -10002,7 +10002,7 @@
         <v>288580</v>
       </c>
       <c r="C481" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -10013,7 +10013,7 @@
         <v>92096</v>
       </c>
       <c r="C482" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -10024,7 +10024,7 @@
         <v>65653</v>
       </c>
       <c r="C483" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -10035,7 +10035,7 @@
         <v>67741</v>
       </c>
       <c r="C484" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -10046,7 +10046,7 @@
         <v>129071</v>
       </c>
       <c r="C485" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -10057,7 +10057,7 @@
         <v>242755</v>
       </c>
       <c r="C486" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -10068,7 +10068,7 @@
         <v>105557</v>
       </c>
       <c r="C487" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -10079,7 +10079,7 @@
         <v>37623</v>
       </c>
       <c r="C488" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -10090,7 +10090,7 @@
         <v>48229</v>
       </c>
       <c r="C489" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -10101,7 +10101,7 @@
         <v>41143</v>
       </c>
       <c r="C490" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -10112,7 +10112,7 @@
         <v>38038</v>
       </c>
       <c r="C491" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -10123,7 +10123,7 @@
         <v>73002</v>
       </c>
       <c r="C492" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -10134,7 +10134,7 @@
         <v>129801</v>
       </c>
       <c r="C493" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -10145,7 +10145,7 @@
         <v>67241</v>
       </c>
       <c r="C494" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
@@ -10156,7 +10156,7 @@
         <v>19592</v>
       </c>
       <c r="C495" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -10167,7 +10167,7 @@
         <v>22687</v>
       </c>
       <c r="C496" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -10178,7 +10178,7 @@
         <v>18508</v>
       </c>
       <c r="C497" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
@@ -10189,7 +10189,7 @@
         <v>15452</v>
       </c>
       <c r="C498" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -10200,7 +10200,7 @@
         <v>49735</v>
       </c>
       <c r="C499" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -10211,7 +10211,7 @@
         <v>86955</v>
       </c>
       <c r="C500" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -10222,7 +10222,7 @@
         <v>25537</v>
       </c>
       <c r="C501" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -10233,7 +10233,7 @@
         <v>13632</v>
       </c>
       <c r="C502" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -10244,7 +10244,7 @@
         <v>15542</v>
       </c>
       <c r="C503" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -10255,7 +10255,7 @@
         <v>13461</v>
       </c>
       <c r="C504" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -10266,7 +10266,7 @@
         <v>13851</v>
       </c>
       <c r="C505" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -10277,7 +10277,7 @@
         <v>71287</v>
       </c>
       <c r="C506" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -10288,7 +10288,7 @@
         <v>122885</v>
       </c>
       <c r="C507" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -10299,7 +10299,7 @@
         <v>114198</v>
       </c>
       <c r="C508" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -10310,7 +10310,7 @@
         <v>61608</v>
       </c>
       <c r="C509" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -10321,7 +10321,7 @@
         <v>26509</v>
       </c>
       <c r="C510" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -10332,7 +10332,7 @@
         <v>21231</v>
       </c>
       <c r="C511" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -10343,7 +10343,7 @@
         <v>22984</v>
       </c>
       <c r="C512" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -10354,7 +10354,7 @@
         <v>51702</v>
       </c>
       <c r="C513" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -10365,7 +10365,7 @@
         <v>88932</v>
       </c>
       <c r="C514" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -10376,7 +10376,7 @@
         <v>52236</v>
       </c>
       <c r="C515" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -10387,7 +10387,7 @@
         <v>13428</v>
       </c>
       <c r="C516" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -10398,7 +10398,7 @@
         <v>14978</v>
       </c>
       <c r="C517" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -10409,7 +10409,7 @@
         <v>14102</v>
       </c>
       <c r="C518" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -10420,7 +10420,7 @@
         <v>15336</v>
       </c>
       <c r="C519" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -10444,16 +10444,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -14056,13 +14056,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -14073,7 +14073,7 @@
         <v>117658069</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <f>CORREL(A2:A59,B2:B59)</f>
@@ -14088,7 +14088,7 @@
         <v>115666202</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -14099,10 +14099,10 @@
         <v>61832119</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -14113,7 +14113,7 @@
         <v>36133932</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" t="e">
         <f>CORREL(A2:A26,B2:B26)</f>
@@ -14128,7 +14128,7 @@
         <v>21624438</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -14139,10 +14139,10 @@
         <v>16250232</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -14153,7 +14153,7 @@
         <v>9918929</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <f>CORREL(A27:A46,B27:B46)</f>
@@ -14168,7 +14168,7 @@
         <v>6461512</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -14179,10 +14179,10 @@
         <v>5180723</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -14193,7 +14193,7 @@
         <v>3764561</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <f>CORREL(A47:A57,B47:B57)</f>
@@ -14208,7 +14208,7 @@
         <v>3415318</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -14219,10 +14219,10 @@
         <v>2044239</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -14233,7 +14233,7 @@
         <v>1549243</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" t="e">
         <f>CORREL(A58:A59,B58:B59)</f>
@@ -14248,7 +14248,7 @@
         <v>1280268</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -14259,7 +14259,7 @@
         <v>864064</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -14270,7 +14270,7 @@
         <v>650034</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -14281,7 +14281,7 @@
         <v>488480</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -14292,7 +14292,7 @@
         <v>391251</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -14303,7 +14303,7 @@
         <v>545966</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -14314,7 +14314,7 @@
         <v>850132</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -14325,7 +14325,7 @@
         <v>633172</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -14336,7 +14336,7 @@
         <v>430914</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -14347,7 +14347,7 @@
         <v>218838</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -14358,7 +14358,7 @@
         <v>108808</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -14369,7 +14369,7 @@
         <v>49248</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -14380,7 +14380,7 @@
         <v>123569242</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -14391,7 +14391,7 @@
         <v>158518521</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -14402,7 +14402,7 @@
         <v>47275849</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -14413,7 +14413,7 @@
         <v>24320837</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -14424,7 +14424,7 @@
         <v>15175808</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -14435,7 +14435,7 @@
         <v>19193527</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -14446,7 +14446,7 @@
         <v>17523768</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -14457,7 +14457,7 @@
         <v>7106657</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -14468,7 +14468,7 @@
         <v>4091067</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -14479,7 +14479,7 @@
         <v>2852426</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -14490,7 +14490,7 @@
         <v>1628705</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -14501,7 +14501,7 @@
         <v>982329</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -14512,7 +14512,7 @@
         <v>725923</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -14523,7 +14523,7 @@
         <v>583057</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -14534,7 +14534,7 @@
         <v>313105</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -14545,7 +14545,7 @@
         <v>200133</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -14556,7 +14556,7 @@
         <v>221136</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -14567,7 +14567,7 @@
         <v>218407</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -14578,7 +14578,7 @@
         <v>128489</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -14589,7 +14589,7 @@
         <v>39061</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -14600,7 +14600,7 @@
         <v>96045815</v>
       </c>
       <c r="C47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -14611,7 +14611,7 @@
         <v>118854157</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -14622,7 +14622,7 @@
         <v>37804228</v>
       </c>
       <c r="C49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -14633,7 +14633,7 @@
         <v>20965338</v>
       </c>
       <c r="C50" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -14644,7 +14644,7 @@
         <v>13228209</v>
       </c>
       <c r="C51" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -14655,7 +14655,7 @@
         <v>16948790</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -14666,7 +14666,7 @@
         <v>18207755</v>
       </c>
       <c r="C53" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -14677,7 +14677,7 @@
         <v>6566427</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -14688,7 +14688,7 @@
         <v>3353060</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -14699,7 +14699,7 @@
         <v>161802</v>
       </c>
       <c r="C56" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -14710,7 +14710,7 @@
         <v>52553</v>
       </c>
       <c r="C57" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -14721,7 +14721,7 @@
         <v>108599274</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -14732,7 +14732,7 @@
         <v>34458158</v>
       </c>
       <c r="C59" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -14744,7 +14744,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{038E7A99-46B0-014D-B0ED-49BF14F56A5D}">
   <dimension ref="A1:F227"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -14756,19 +14756,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -14820,7 +14820,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
